--- a/data/hotels_by_city/Dallas/Dallas_shard_638.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_638.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="672">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,1964 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/16/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109572-r575316425-Red_Roof_Inn_Suites_Addison-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>30141</t>
+  </si>
+  <si>
+    <t>109572</t>
+  </si>
+  <si>
+    <t>575316425</t>
+  </si>
+  <si>
+    <t>04/23/2018</t>
+  </si>
+  <si>
+    <t>Matched our needs perfectly</t>
+  </si>
+  <si>
+    <t>We were looking for a place to stay for 2 nights while we visited family outside of Dallas Texas for the weekend.  We wanted safe, affordable, clean, and comfortable and the Red Roof Addison fit the bill completely.  This was a perfect option for us.  It is located in a good neighborhood for a price that was half of what other hotels charge in the same area.  Our room was very clean.  Beds were comfortable.  The continental breakfast was even better than expected with coffee, juice, bagels &amp; cream cheese, toast, sweet rolls, cold cereal, fruit.  You could make your own waffles shaped like the state of Texas or a have a hot bowl of instant oatmeal.  We will book here again on our next visit.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Centerpoint_MGNT, Guest Relations Manager at Red Roof Inn &amp; Suites Addison, responded to this reviewResponded April 25, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 25, 2018</t>
+  </si>
+  <si>
+    <t>We were looking for a place to stay for 2 nights while we visited family outside of Dallas Texas for the weekend.  We wanted safe, affordable, clean, and comfortable and the Red Roof Addison fit the bill completely.  This was a perfect option for us.  It is located in a good neighborhood for a price that was half of what other hotels charge in the same area.  Our room was very clean.  Beds were comfortable.  The continental breakfast was even better than expected with coffee, juice, bagels &amp; cream cheese, toast, sweet rolls, cold cereal, fruit.  You could make your own waffles shaped like the state of Texas or a have a hot bowl of instant oatmeal.  We will book here again on our next visit.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109572-r574233559-Red_Roof_Inn_Suites_Addison-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>574233559</t>
+  </si>
+  <si>
+    <t>04/18/2018</t>
+  </si>
+  <si>
+    <t>Courtnie K.</t>
+  </si>
+  <si>
+    <t>Great place and even better staff. Especially Micky and the housekeeping staff. Every visit has been over the top!?! And I enjoy every day of my stay at this location. Thanks for everything!?!Staff @ Red Roof Inn Addison, TXMoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Great place and even better staff. Especially Micky and the housekeeping staff. Every visit has been over the top!?! And I enjoy every day of my stay at this location. Thanks for everything!?!Staff @ Red Roof Inn Addison, TXMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109572-r573846099-Red_Roof_Inn_Suites_Addison-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>573846099</t>
+  </si>
+  <si>
+    <t>04/16/2018</t>
+  </si>
+  <si>
+    <t>I like this place.</t>
+  </si>
+  <si>
+    <t>I have stayed here several times and will continue as it is a nice property. The staff there is always at their best.   Harry checks me when I get there late as usual and is a refreshing, attentive person to work with.  He knows what I like for rooms there too.  All the others there have been great as well.  It is one of few remaining outside entry hotels that is still in good shape.  I like the outside entry style.    The rooms have a great layout with nice desk, small frig, microwave, hair dryer, coffee maker and a big cozy chair.  Right in the great Addison area I like too.  Thank you RR I love the place!MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Centerpoint_MGNT, Guest Relations Manager at Red Roof Inn &amp; Suites Addison, responded to this reviewResponded April 17, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 17, 2018</t>
+  </si>
+  <si>
+    <t>I have stayed here several times and will continue as it is a nice property. The staff there is always at their best.   Harry checks me when I get there late as usual and is a refreshing, attentive person to work with.  He knows what I like for rooms there too.  All the others there have been great as well.  It is one of few remaining outside entry hotels that is still in good shape.  I like the outside entry style.    The rooms have a great layout with nice desk, small frig, microwave, hair dryer, coffee maker and a big cozy chair.  Right in the great Addison area I like too.  Thank you RR I love the place!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109572-r558389878-Red_Roof_Inn_Suites_Addison-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>558389878</t>
+  </si>
+  <si>
+    <t>02/04/2018</t>
+  </si>
+  <si>
+    <t>Weekend trip</t>
+  </si>
+  <si>
+    <t>Hotel experience was good, clean room, fridge worked great. Liked the area lots of places to eat and shopping. Hotel felt safe. breakfast was okay, nice to have something there, have coffee makers in rooms with coffee, nice plus.Front desk  attendant very nice and polite, think her name was Georgie, hope that is correct?  She made the stay more enjoyable.Planning on returning back there again soon.  I would recommend this hotel for a stay if your in area.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>Centerpoint_MGNT, Guest Relations Manager at Red Roof Inn &amp; Suites Addison, responded to this reviewResponded February 10, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 10, 2018</t>
+  </si>
+  <si>
+    <t>Hotel experience was good, clean room, fridge worked great. Liked the area lots of places to eat and shopping. Hotel felt safe. breakfast was okay, nice to have something there, have coffee makers in rooms with coffee, nice plus.Front desk  attendant very nice and polite, think her name was Georgie, hope that is correct?  She made the stay more enjoyable.Planning on returning back there again soon.  I would recommend this hotel for a stay if your in area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109572-r552753846-Red_Roof_Inn_Suites_Addison-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>552753846</t>
+  </si>
+  <si>
+    <t>01/09/2018</t>
+  </si>
+  <si>
+    <t>Good Hotel Stay That Ended Badly</t>
+  </si>
+  <si>
+    <t>I think this hotel is very nice for the price- as a matter of fact, I don't think it can be beat on price-per-value.  The check in experience was very nice with a lovely friendly woman at the desk who got me in in a minute.  No complaints about the room either; clean as a pin and set up with everything you need.  It was really nice.  I booked to stay for two nights, last Friday and Saturday and at about 1 oclock on Saturday afternoon I got a call from home that there was a family emergency and I had to leave.  I gathered my things as quickly as i could and went to the front office to check out where i informed the - this time not so friendly or nice- front desk clerk about my dilemma.   I told her I would understand a penalty of some sort for checking out 3 hours later than stated, however I did not think i should be charged for the entire night (company policy allows you to cancel until 6 pm).  She didnt even look and me and just said "oh they are going to charge you the whole night". This little exchange with no regard to my situation ruined my stay and made me unhappy with the whole experience and unable to recommend this hotel to friends.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>Centerpoint_MGNT, Guest Relations Manager at Red Roof Inn &amp; Suites Addison, responded to this reviewResponded January 11, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 11, 2018</t>
+  </si>
+  <si>
+    <t>I think this hotel is very nice for the price- as a matter of fact, I don't think it can be beat on price-per-value.  The check in experience was very nice with a lovely friendly woman at the desk who got me in in a minute.  No complaints about the room either; clean as a pin and set up with everything you need.  It was really nice.  I booked to stay for two nights, last Friday and Saturday and at about 1 oclock on Saturday afternoon I got a call from home that there was a family emergency and I had to leave.  I gathered my things as quickly as i could and went to the front office to check out where i informed the - this time not so friendly or nice- front desk clerk about my dilemma.   I told her I would understand a penalty of some sort for checking out 3 hours later than stated, however I did not think i should be charged for the entire night (company policy allows you to cancel until 6 pm).  She didnt even look and me and just said "oh they are going to charge you the whole night". This little exchange with no regard to my situation ruined my stay and made me unhappy with the whole experience and unable to recommend this hotel to friends.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109572-r550757759-Red_Roof_Inn_Suites_Addison-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>550757759</t>
+  </si>
+  <si>
+    <t>01/01/2018</t>
+  </si>
+  <si>
+    <t>Cheap and reasonable</t>
+  </si>
+  <si>
+    <t>Check in was a breeze; just pulled up my reservations, and was handed my keys in minutes. Breakfast was just okay, oatmeal, bread, the usual.The room was spacious, however, we had to ask for additional towels and soap, there was no pen and paper available in the room.Wi-fi connection was decent, and TV selections were ample, especially news and sports channels are a lot.Overall, if you are looking for a decent place to stay for a short while, you can still here, lots of food places to go to at walking distance...MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>Centerpoint_MGNT, Guest Relations Manager at Red Roof Inn &amp; Suites Addison, responded to this reviewResponded January 2, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 2, 2018</t>
+  </si>
+  <si>
+    <t>Check in was a breeze; just pulled up my reservations, and was handed my keys in minutes. Breakfast was just okay, oatmeal, bread, the usual.The room was spacious, however, we had to ask for additional towels and soap, there was no pen and paper available in the room.Wi-fi connection was decent, and TV selections were ample, especially news and sports channels are a lot.Overall, if you are looking for a decent place to stay for a short while, you can still here, lots of food places to go to at walking distance...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109572-r532375850-Red_Roof_Inn_Suites_Addison-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>532375850</t>
+  </si>
+  <si>
+    <t>10/12/2017</t>
+  </si>
+  <si>
+    <t>GREAT SERVICE</t>
+  </si>
+  <si>
+    <t>i been to this location a few times, every time i go i never have an issue. rooms are always neat and clean. very friendly front staff.  They offer smoking/non smoking rooms.nearby restaurants and close to highways and mallMoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>Centerpoint_MGNT, Guest Relations Manager at Red Roof Inn &amp; Suites Addison, responded to this reviewResponded October 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 17, 2017</t>
+  </si>
+  <si>
+    <t>i been to this location a few times, every time i go i never have an issue. rooms are always neat and clean. very friendly front staff.  They offer smoking/non smoking rooms.nearby restaurants and close to highways and mallMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109572-r526710371-Red_Roof_Inn_Suites_Addison-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>526710371</t>
+  </si>
+  <si>
+    <t>09/23/2017</t>
+  </si>
+  <si>
+    <t>Good stay</t>
+  </si>
+  <si>
+    <t>So I stay here about a week and a half ago maybe a little over I really enjoyed my 3 days here was very pleased with staff rooms were clean the front desk girls Kirsten and alisha were just amazing I really appreciate hood customer service thanks u guys MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Centerpoint_MGNT, Guest Relations Manager at Red Roof Inn &amp; Suites Addison, responded to this reviewResponded September 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 27, 2017</t>
+  </si>
+  <si>
+    <t>So I stay here about a week and a half ago maybe a little over I really enjoyed my 3 days here was very pleased with staff rooms were clean the front desk girls Kirsten and alisha were just amazing I really appreciate hood customer service thanks u guys More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109572-r526403764-Red_Roof_Inn_Suites_Addison-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>526403764</t>
+  </si>
+  <si>
+    <t>09/21/2017</t>
+  </si>
+  <si>
+    <t>Kirsten at the front desk is a rockstar!!!</t>
+  </si>
+  <si>
+    <t>Any company in the world would be lucky to employ Kirsten!!!  Checked in for 2 nights and had a little issue with our room (ac)  and was quick to get moved to another with zero issue or problems! Her professionalism alone is the reason we will be back!!! Give this girl a promotion and raise!!! Also room is cleaner then any thing else you find in this area and budget!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Centerpoint_MGNT, Guest Relations Manager at Red Roof Inn &amp; Suites Addison, responded to this reviewResponded September 22, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 22, 2017</t>
+  </si>
+  <si>
+    <t>Any company in the world would be lucky to employ Kirsten!!!  Checked in for 2 nights and had a little issue with our room (ac)  and was quick to get moved to another with zero issue or problems! Her professionalism alone is the reason we will be back!!! Give this girl a promotion and raise!!! Also room is cleaner then any thing else you find in this area and budget!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109572-r517829308-Red_Roof_Inn_Suites_Addison-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>517829308</t>
+  </si>
+  <si>
+    <t>08/26/2017</t>
+  </si>
+  <si>
+    <t>JUST RIGHT</t>
+  </si>
+  <si>
+    <t>So I Stayed at the Red Roof Inn about 2 weeks ago or so....I was greeted by a very wonderful girl at the front desk her name was Kristen.....She answered all the questions I had and told me all the info I needed to know that I didn't ask about....Then when i got to the room it was as clean as could be I was impressed I have stayed at other Red Roofs before and I would have to say this is one of the nicest ones i have stayed at ....They also serve breakfast which was delicious but the don't have any meat Or even eggs but I lived and also enjoyed it...I WILL DEFINETLY BE STAYING AGAIN!!!!....TY RED ROOF TEAM U DID A GOOD JOB!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>Centerpoint_MGNT, Guest Relations Manager at Red Roof Inn &amp; Suites Addison, responded to this reviewResponded August 30, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 30, 2017</t>
+  </si>
+  <si>
+    <t>So I Stayed at the Red Roof Inn about 2 weeks ago or so....I was greeted by a very wonderful girl at the front desk her name was Kristen.....She answered all the questions I had and told me all the info I needed to know that I didn't ask about....Then when i got to the room it was as clean as could be I was impressed I have stayed at other Red Roofs before and I would have to say this is one of the nicest ones i have stayed at ....They also serve breakfast which was delicious but the don't have any meat Or even eggs but I lived and also enjoyed it...I WILL DEFINETLY BE STAYING AGAIN!!!!....TY RED ROOF TEAM U DID A GOOD JOB!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109572-r517773724-Red_Roof_Inn_Suites_Addison-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>517773724</t>
+  </si>
+  <si>
+    <t>Clean Rooms, No Fuss</t>
+  </si>
+  <si>
+    <t>Spent three nights here, and the rooms are clean, beds are comfortable, bathroom adequate. The towels are not so great, somewhat rough to the skin. However this is a price conscious motel group, so one can't complain too much.There was a coffee maker but no glass pot to catch the coffee, instead you improvise by using a cup. Plenty of parking out front. Breakfast is the usual rubbish all the motels offer these days, I wish I could understand why they buy these pastries. There were cereals and pancake batter, the coffee was not pleasant. There is a small pool, no one used it to my knowledge, but I was out all day.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Spent three nights here, and the rooms are clean, beds are comfortable, bathroom adequate. The towels are not so great, somewhat rough to the skin. However this is a price conscious motel group, so one can't complain too much.There was a coffee maker but no glass pot to catch the coffee, instead you improvise by using a cup. Plenty of parking out front. Breakfast is the usual rubbish all the motels offer these days, I wish I could understand why they buy these pastries. There were cereals and pancake batter, the coffee was not pleasant. There is a small pool, no one used it to my knowledge, but I was out all day.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109572-r516902243-Red_Roof_Inn_Suites_Addison-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>516902243</t>
+  </si>
+  <si>
+    <t>08/23/2017</t>
+  </si>
+  <si>
+    <t>A break from home</t>
+  </si>
+  <si>
+    <t>We decided on the spur of the moment to go Dallas for the weekend. We always like to bring out fur babies. There is plenty of places to eat around this red roof inn and they have a courtyard with a bag holder to clean up after your pets. We always carry our own but it's a awesome idea. Weather wasn't real great when we went but we managed to get to swim and go to Farmer's market. Club/restaurant across the road was a little loud. But once the storms started rolling in you couldn't hear it anymore. Just a great place to go to get away.MoreShow less</t>
+  </si>
+  <si>
+    <t>Centerpoint_MGNT, Guest Relations Manager at Red Roof Inn &amp; Suites Addison, responded to this reviewResponded August 25, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 25, 2017</t>
+  </si>
+  <si>
+    <t>We decided on the spur of the moment to go Dallas for the weekend. We always like to bring out fur babies. There is plenty of places to eat around this red roof inn and they have a courtyard with a bag holder to clean up after your pets. We always carry our own but it's a awesome idea. Weather wasn't real great when we went but we managed to get to swim and go to Farmer's market. Club/restaurant across the road was a little loud. But once the storms started rolling in you couldn't hear it anymore. Just a great place to go to get away.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109572-r503591641-Red_Roof_Inn_Suites_Addison-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>503591641</t>
+  </si>
+  <si>
+    <t>07/19/2017</t>
+  </si>
+  <si>
+    <t>Superb with special care</t>
+  </si>
+  <si>
+    <t>Upon checkin, Kirsten advised how to reserve the room for two nights even if we were unsure - all connected to our situation regarding a medical procedure the next day.  So checkin was a breeze and then our car was broken down in the fire lane and would not move.  No problem, Kirsten assured us that everything would be all right.  I rented a car and called a tow truck to move ours out of the firelane and low and behold the towtruck driver knew what our problem was and referred  us to someone who would fix it right there, guy came, fixed linkage =&gt; all right there at the Red Roof Inn in Addison and Kirsten was right, everything turned out fine, we returned the next afternoon and recuperated in our comfortable room.  From previous experience I should mention that this motel is also pet-friendly.  Thanks for providing great service.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>Texas45Lodging, Guest Relations Manager at Red Roof Inn &amp; Suites Addison, responded to this reviewResponded July 20, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 20, 2017</t>
+  </si>
+  <si>
+    <t>Upon checkin, Kirsten advised how to reserve the room for two nights even if we were unsure - all connected to our situation regarding a medical procedure the next day.  So checkin was a breeze and then our car was broken down in the fire lane and would not move.  No problem, Kirsten assured us that everything would be all right.  I rented a car and called a tow truck to move ours out of the firelane and low and behold the towtruck driver knew what our problem was and referred  us to someone who would fix it right there, guy came, fixed linkage =&gt; all right there at the Red Roof Inn in Addison and Kirsten was right, everything turned out fine, we returned the next afternoon and recuperated in our comfortable room.  From previous experience I should mention that this motel is also pet-friendly.  Thanks for providing great service.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109572-r498719999-Red_Roof_Inn_Suites_Addison-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>498719999</t>
+  </si>
+  <si>
+    <t>07/04/2017</t>
+  </si>
+  <si>
+    <t>No fronting at the front desk</t>
+  </si>
+  <si>
+    <t>The hotel was an absolute hit from the start. Kirstan at the front desk was more than helpful when I was checking in. She suggested some options to me that were not made available when I booked the room. She was absolutely on point.MoreShow less</t>
+  </si>
+  <si>
+    <t>Texas45Lodging, Guest Relations Manager at Red Roof Inn &amp; Suites Addison, responded to this reviewResponded July 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 5, 2017</t>
+  </si>
+  <si>
+    <t>The hotel was an absolute hit from the start. Kirstan at the front desk was more than helpful when I was checking in. She suggested some options to me that were not made available when I booked the room. She was absolutely on point.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109572-r497302548-Red_Roof_Inn_Suites_Addison-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>497302548</t>
+  </si>
+  <si>
+    <t>06/29/2017</t>
+  </si>
+  <si>
+    <t>Customer service is great!</t>
+  </si>
+  <si>
+    <t>In a pinch, I picked this place and it was okay for the price and my needs at the time. Kirsten at the front desk was amazingly helpful during my entire stay. Excellent customer service, which can sometimes be lacking in these places. But not here! Kirsten was inviting and friendly. She was very helpful and accommodating to my needs. She went out of her way to make my stay exactly the way it needed to be. Thank you, Kirsten!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>In a pinch, I picked this place and it was okay for the price and my needs at the time. Kirsten at the front desk was amazingly helpful during my entire stay. Excellent customer service, which can sometimes be lacking in these places. But not here! Kirsten was inviting and friendly. She was very helpful and accommodating to my needs. She went out of her way to make my stay exactly the way it needed to be. Thank you, Kirsten!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109572-r473493489-Red_Roof_Inn_Suites_Addison-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>473493489</t>
+  </si>
+  <si>
+    <t>04/07/2017</t>
+  </si>
+  <si>
+    <t>Nice room for the price</t>
+  </si>
+  <si>
+    <t>The crews working the front desk were all helpful. The entrance to the hotel is a little tricky to find.   I found an old bar of soap in the bathroom that the cleaning person missed. We will stay here again when we visit family in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>Texas45Lodging, Guest Relations Manager at Red Roof Inn &amp; Suites Addison, responded to this reviewResponded April 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 13, 2017</t>
+  </si>
+  <si>
+    <t>The crews working the front desk were all helpful. The entrance to the hotel is a little tricky to find.   I found an old bar of soap in the bathroom that the cleaning person missed. We will stay here again when we visit family in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109572-r471603601-Red_Roof_Inn_Suites_Addison-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>471603601</t>
+  </si>
+  <si>
+    <t>03/31/2017</t>
+  </si>
+  <si>
+    <t>Great Location, Poor Accomodations</t>
+  </si>
+  <si>
+    <t>Great Location in Addison, TX which is in the middle of everything. Poor Room Quality regardless of the price paid. Would recommend staying at the Hilton Garden Inn just around the corner or looking into a hotel further outMoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>Texas45Lodging, Guest Relations Manager at Red Roof Inn &amp; Suites Addison, responded to this reviewResponded April 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 3, 2017</t>
+  </si>
+  <si>
+    <t>Great Location in Addison, TX which is in the middle of everything. Poor Room Quality regardless of the price paid. Would recommend staying at the Hilton Garden Inn just around the corner or looking into a hotel further outMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109572-r471598052-Red_Roof_Inn_Suites_Addison-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>471598052</t>
+  </si>
+  <si>
+    <t>Comfort</t>
+  </si>
+  <si>
+    <t>Clean Comfortable and  quiet also includes breakfast in mornings the staff os friendly and the housekeeping is at service. i had a nice stay here and will definitely come.back i definitely recommend to stay MoreShow less</t>
+  </si>
+  <si>
+    <t>Clean Comfortable and  quiet also includes breakfast in mornings the staff os friendly and the housekeeping is at service. i had a nice stay here and will definitely come.back i definitely recommend to stay More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109572-r469819667-Red_Roof_Inn_Suites_Addison-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>469819667</t>
+  </si>
+  <si>
+    <t>03/24/2017</t>
+  </si>
+  <si>
+    <t>Great Value for money!</t>
+  </si>
+  <si>
+    <t>Good location, clean rooms and helpful staff. It was close to many amenities. I liked the location. Downtown Dallas was a short drive away. When I was there it was quite most of the time. I stayed for a week. MoreShow less</t>
+  </si>
+  <si>
+    <t>Texas45Lodging, Guest Relations Manager at Red Roof Inn &amp; Suites Addison, responded to this reviewResponded March 28, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 28, 2017</t>
+  </si>
+  <si>
+    <t>Good location, clean rooms and helpful staff. It was close to many amenities. I liked the location. Downtown Dallas was a short drive away. When I was there it was quite most of the time. I stayed for a week. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109572-r468086192-Red_Roof_Inn_Suites_Addison-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>468086192</t>
+  </si>
+  <si>
+    <t>03/17/2017</t>
+  </si>
+  <si>
+    <t>Exceeded expectations</t>
+  </si>
+  <si>
+    <t>I usually stay at Holiday Inn Express when traveling on business, but on this trip the Red Roof was very close to where I would be working so I booked here.The price was very low, so I didn't have high expectations.  I was very pleasantly surprised when this room was pretty much a clone of a typical Holiday Inn Express room.  The only real difference was there were fewer electrical outlets than what most HI's have these days.  The other difference was that as far as I could tell there was no elevator, so I had to drag my bag up the stairs. Everything was clean, a good TV with plenty of channels, and excellent wifi.I don't typically eat motel breakfast, I've never found any that were very good.  This motel was surrounded by dozens of eating places, you won't go hungry.Recommended.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>Texas45Lodging, Guest Relations Manager at Red Roof Inn &amp; Suites Addison, responded to this reviewResponded March 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 21, 2017</t>
+  </si>
+  <si>
+    <t>I usually stay at Holiday Inn Express when traveling on business, but on this trip the Red Roof was very close to where I would be working so I booked here.The price was very low, so I didn't have high expectations.  I was very pleasantly surprised when this room was pretty much a clone of a typical Holiday Inn Express room.  The only real difference was there were fewer electrical outlets than what most HI's have these days.  The other difference was that as far as I could tell there was no elevator, so I had to drag my bag up the stairs. Everything was clean, a good TV with plenty of channels, and excellent wifi.I don't typically eat motel breakfast, I've never found any that were very good.  This motel was surrounded by dozens of eating places, you won't go hungry.Recommended.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109572-r466096403-Red_Roof_Inn_Suites_Addison-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>466096403</t>
+  </si>
+  <si>
+    <t>03/10/2017</t>
+  </si>
+  <si>
+    <t>Great Stay in Addison!</t>
+  </si>
+  <si>
+    <t>Clean rooms, nice front desk and Indian food door! It was great! They have a pool but we didn't get to use it then! I plan to make this a good place to stay every time I come to town! Only suggestion is to stay longer!MoreShow less</t>
+  </si>
+  <si>
+    <t>Texas45Lodging, Guest Relations Manager at Red Roof Inn &amp; Suites Addison, responded to this reviewResponded March 12, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 12, 2017</t>
+  </si>
+  <si>
+    <t>Clean rooms, nice front desk and Indian food door! It was great! They have a pool but we didn't get to use it then! I plan to make this a good place to stay every time I come to town! Only suggestion is to stay longer!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109572-r462066590-Red_Roof_Inn_Suites_Addison-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>462066590</t>
+  </si>
+  <si>
+    <t>02/22/2017</t>
+  </si>
+  <si>
+    <t>Thanks</t>
+  </si>
+  <si>
+    <t>Great surrounding around and enjoyable breakfast. Price is reasonable and it nice when you have the rewards card. I enjoyed the comdeybdone the street and the food and the Melting Pot. Was able to pay for trip cause of a reasonable hotel cost. MoreShow less</t>
+  </si>
+  <si>
+    <t>Texas45Lodging, review manager at Red Roof Inn &amp; Suites Addison, responded to this reviewResponded February 23, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 23, 2017</t>
+  </si>
+  <si>
+    <t>Great surrounding around and enjoyable breakfast. Price is reasonable and it nice when you have the rewards card. I enjoyed the comdeybdone the street and the food and the Melting Pot. Was able to pay for trip cause of a reasonable hotel cost. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109572-r460329894-Red_Roof_Inn_Suites_Addison-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>460329894</t>
+  </si>
+  <si>
+    <t>02/16/2017</t>
+  </si>
+  <si>
+    <t>I got charge without staying in.</t>
+  </si>
+  <si>
+    <t>Terrible experience ever, I booked my reservation on-line and everything was pretty fast although I was not comfortable providing my card information I did. It was not suppose to be charge, it was only a requirement for booking. I was going to pay cash at the property. I got into some trouble and end up canceling my reservation. I just found out the I was charge 2 times on my card and end up paying full charge without even staying in!!! I was supposed to pay only a fee for cancelling not the whole amount!!! just terrible experience.MoreShow less</t>
+  </si>
+  <si>
+    <t>Texas45Lodging, Review Manager at Red Roof Inn &amp; Suites Addison, responded to this reviewResponded March 1, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 1, 2017</t>
+  </si>
+  <si>
+    <t>Terrible experience ever, I booked my reservation on-line and everything was pretty fast although I was not comfortable providing my card information I did. It was not suppose to be charge, it was only a requirement for booking. I was going to pay cash at the property. I got into some trouble and end up canceling my reservation. I just found out the I was charge 2 times on my card and end up paying full charge without even staying in!!! I was supposed to pay only a fee for cancelling not the whole amount!!! just terrible experience.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109572-r459989257-Red_Roof_Inn_Suites_Addison-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>459989257</t>
+  </si>
+  <si>
+    <t>02/15/2017</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>Nice room with plenty of space. Clean, enough lights, water pressure not an issue and the heater/air unit works just like it's supposed to work. Staff as all been friendly and helpful Mikii was super help at the desk. Se really knew exactly what she was doing and made my stay even easier. MoreShow less</t>
+  </si>
+  <si>
+    <t>Texas45Lodging, Review Manager at Red Roof Inn &amp; Suites Addison, responded to this reviewResponded February 16, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 16, 2017</t>
+  </si>
+  <si>
+    <t>Nice room with plenty of space. Clean, enough lights, water pressure not an issue and the heater/air unit works just like it's supposed to work. Staff as all been friendly and helpful Mikii was super help at the desk. Se really knew exactly what she was doing and made my stay even easier. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109572-r454865907-Red_Roof_Inn_Suites_Addison-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>454865907</t>
+  </si>
+  <si>
+    <t>01/25/2017</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>Enjoyed my stay very much. I would say that again. And I recommend. it. Got the room on short notice. And he was just what I was looking for. I look forward to staying there again thanks for the great night. Right in the middle of MadisonMoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>Texas45Lodging, Review Manager at Red Roof Inn &amp; Suites Addison, responded to this reviewResponded January 26, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 26, 2017</t>
+  </si>
+  <si>
+    <t>Enjoyed my stay very much. I would say that again. And I recommend. it. Got the room on short notice. And he was just what I was looking for. I look forward to staying there again thanks for the great night. Right in the middle of MadisonMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109572-r454545558-Red_Roof_Inn_Suites_Addison-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>454545558</t>
+  </si>
+  <si>
+    <t>01/24/2017</t>
+  </si>
+  <si>
+    <t>Good value</t>
+  </si>
+  <si>
+    <t>We stay at Red Roof on cross country trips, a few each year. This was a great stop-- convenient to the sporting event we were trying to catch-- clean, well-maintained and well-run. I love the location and plan to stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Texas45Lodging, Review Manager at Red Roof Inn &amp; Suites Addison, responded to this reviewResponded January 25, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 25, 2017</t>
+  </si>
+  <si>
+    <t>We stay at Red Roof on cross country trips, a few each year. This was a great stop-- convenient to the sporting event we were trying to catch-- clean, well-maintained and well-run. I love the location and plan to stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109572-r452885695-Red_Roof_Inn_Suites_Addison-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>452885695</t>
+  </si>
+  <si>
+    <t>01/17/2017</t>
+  </si>
+  <si>
+    <t>Recommend to all.</t>
+  </si>
+  <si>
+    <t>This motel is great. Clean room, nice amenities, smells good, outside looks great, everything is new, and the customer service is awesome. They have a front desk clerk by the name of Christina, probably by far 1 of the best front desk clerks I've ever come across. Pleasant, friendly and even a bit funny, definitely made me feel even better if that were even possible in which she made it so, about my stay here at this Blessed motel. 5 Stars, it was 4 but Christina made it 5!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Texas45Lodging, Review Manager at Red Roof Inn &amp; Suites Addison, responded to this reviewResponded January 18, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 18, 2017</t>
+  </si>
+  <si>
+    <t>This motel is great. Clean room, nice amenities, smells good, outside looks great, everything is new, and the customer service is awesome. They have a front desk clerk by the name of Christina, probably by far 1 of the best front desk clerks I've ever come across. Pleasant, friendly and even a bit funny, definitely made me feel even better if that were even possible in which she made it so, about my stay here at this Blessed motel. 5 Stars, it was 4 but Christina made it 5!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109572-r449540234-Red_Roof_Inn_Suites_Addison-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>449540234</t>
+  </si>
+  <si>
+    <t>01/05/2017</t>
+  </si>
+  <si>
+    <t>Good Stay</t>
+  </si>
+  <si>
+    <t>We were in town to attend the Cotton Bowl.  We chose this Red Roof since it was away from downtown.  We were not disappointed.  It was close to major highways, restaurants, and shopping.  It was easy to find our way around.MoreShow less</t>
+  </si>
+  <si>
+    <t>Texas45Lodging, Review Manager at Red Roof Inn &amp; Suites Addison, responded to this reviewResponded January 6, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 6, 2017</t>
+  </si>
+  <si>
+    <t>We were in town to attend the Cotton Bowl.  We chose this Red Roof since it was away from downtown.  We were not disappointed.  It was close to major highways, restaurants, and shopping.  It was easy to find our way around.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109572-r446632724-Red_Roof_Inn_Suites_Addison-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>446632724</t>
+  </si>
+  <si>
+    <t>12/25/2016</t>
+  </si>
+  <si>
+    <t>10/10 Service</t>
+  </si>
+  <si>
+    <t>EXCELLENT!!! The hospitality was so great,  felt like a true guest. The rooms were very nice, beds, bathrooms, AC, absolutely no complaints. Very close to everything also! Clean, and no noise complaints! MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>Texas45Lodging, Review Manager at Red Roof Inn &amp; Suites Addison, responded to this reviewResponded December 26, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 26, 2016</t>
+  </si>
+  <si>
+    <t>EXCELLENT!!! The hospitality was so great,  felt like a true guest. The rooms were very nice, beds, bathrooms, AC, absolutely no complaints. Very close to everything also! Clean, and no noise complaints! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109572-r444016883-Red_Roof_Inn_Suites_Addison-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>444016883</t>
+  </si>
+  <si>
+    <t>12/13/2016</t>
+  </si>
+  <si>
+    <t>Comfy &amp; Quiet</t>
+  </si>
+  <si>
+    <t>The room was comfy &amp; clean. I just didn't like that I had to reserve the room online to get a decent price. The difference in prices was so dramatic that it almost seemed like they were taking advantage... MoreShow less</t>
+  </si>
+  <si>
+    <t>Texas45Lodging, Review Manager at Red Roof Inn &amp; Suites Addison, responded to this reviewResponded December 14, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 14, 2016</t>
+  </si>
+  <si>
+    <t>The room was comfy &amp; clean. I just didn't like that I had to reserve the room online to get a decent price. The difference in prices was so dramatic that it almost seemed like they were taking advantage... More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109572-r443265942-Red_Roof_Inn_Suites_Addison-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>443265942</t>
+  </si>
+  <si>
+    <t>12/10/2016</t>
+  </si>
+  <si>
+    <t>Awesome Customer Service</t>
+  </si>
+  <si>
+    <t>I came for the first time to Red Roof for a nights stay. Checking in and out was easy, no problem. But the lady at the front desk, Christy, she had exceptional customer service, a wonderful smile, the best that I've seen in the hotel business. You can tell she enjoys what she does. She was very helpful in my situation. The room was clean and cozy. Thank you so much. I needed the rest and that great service!MoreShow less</t>
+  </si>
+  <si>
+    <t>Texas45Lodging, Review Manager at Red Roof Inn &amp; Suites Addison, responded to this reviewResponded December 12, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 12, 2016</t>
+  </si>
+  <si>
+    <t>I came for the first time to Red Roof for a nights stay. Checking in and out was easy, no problem. But the lady at the front desk, Christy, she had exceptional customer service, a wonderful smile, the best that I've seen in the hotel business. You can tell she enjoys what she does. She was very helpful in my situation. The room was clean and cozy. Thank you so much. I needed the rest and that great service!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109572-r443259819-Red_Roof_Inn_Suites_Addison-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>443259819</t>
+  </si>
+  <si>
+    <t>Thanks Red Roof Addison Tx</t>
+  </si>
+  <si>
+    <t>Very nice front desk greeting... The lady working the check in named Christina was very helpful with all my questions... room was very clean... my check out was just as nice with a lady working the front desk name Nikki was also very nice...MoreShow less</t>
+  </si>
+  <si>
+    <t>Very nice front desk greeting... The lady working the check in named Christina was very helpful with all my questions... room was very clean... my check out was just as nice with a lady working the front desk name Nikki was also very nice...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109572-r443199528-Red_Roof_Inn_Suites_Addison-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>443199528</t>
+  </si>
+  <si>
+    <t>12/09/2016</t>
+  </si>
+  <si>
+    <t>Excellent Customer Service</t>
+  </si>
+  <si>
+    <t>Christina has been at the front desk both this evening, and on my previous stay at this location. She is extremely professional, friendly, and courteous. The rooms are clean, neat, and comfortable, with all amenities at your fingertips, as well as a wonderful selection of local eateries, both dine in and delivery. I will definitely be staying at this location on future trips.MoreShow less</t>
+  </si>
+  <si>
+    <t>Texas45Lodging, Review Manager at Red Roof Inn &amp; Suites Addison, responded to this reviewResponded December 11, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 11, 2016</t>
+  </si>
+  <si>
+    <t>Christina has been at the front desk both this evening, and on my previous stay at this location. She is extremely professional, friendly, and courteous. The rooms are clean, neat, and comfortable, with all amenities at your fingertips, as well as a wonderful selection of local eateries, both dine in and delivery. I will definitely be staying at this location on future trips.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109572-r434336851-Red_Roof_Inn_Suites_Addison-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>434336851</t>
+  </si>
+  <si>
+    <t>11/03/2016</t>
+  </si>
+  <si>
+    <t>Everything was above excellent.</t>
+  </si>
+  <si>
+    <t>We only wish they had an indoor pool and spa. That was the only thing we did not get to experience.The continental breakfast was small but very good. Just the basics. The rooms had refrigerators and microwave, coffee maker, iron and ironing board. Such a nice place.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>Texas45Lodging, Review Manager at Red Roof Inn &amp; Suites Addison, responded to this reviewResponded November 5, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 5, 2016</t>
+  </si>
+  <si>
+    <t>We only wish they had an indoor pool and spa. That was the only thing we did not get to experience.The continental breakfast was small but very good. Just the basics. The rooms had refrigerators and microwave, coffee maker, iron and ironing board. Such a nice place.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109572-r434032078-Red_Roof_Inn_Suites_Addison-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>434032078</t>
+  </si>
+  <si>
+    <t>11/02/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great staff </t>
+  </si>
+  <si>
+    <t>The staff was very nice and efficient!  Clean lobby , clean room.  Bedding was comfortable and ac unit was not overly loud.  The breakfast was mainly finger foods and juices.  More of a snack but the food tasted good on my way to work.  I would stay here again for sure!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>Texas45Lodging, Review Manager at Red Roof Inn &amp; Suites Addison, responded to this reviewResponded November 3, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 3, 2016</t>
+  </si>
+  <si>
+    <t>The staff was very nice and efficient!  Clean lobby , clean room.  Bedding was comfortable and ac unit was not overly loud.  The breakfast was mainly finger foods and juices.  More of a snack but the food tasted good on my way to work.  I would stay here again for sure!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109572-r432551474-Red_Roof_Inn_Suites_Addison-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>432551474</t>
+  </si>
+  <si>
+    <t>10/28/2016</t>
+  </si>
+  <si>
+    <t>Good for the money</t>
+  </si>
+  <si>
+    <t>Room was clean. Staff are friendly.  We've stayed there at least 6 times in this last year.  Last time the little refrigerator/freezer would not cool enough to freeze ice.  We've used working freezers we have had in the past to help keep the ice overnight.  It is no frills.  Toilet paper was one ply and the Kleenex supplied was a small packet.  But we weren't paying luxury prices.  They also have a nice breakfast buffet with mostly cold pastries and coffee.MoreShow less</t>
+  </si>
+  <si>
+    <t>Texas45Lodging, Review Manager at Red Roof Inn &amp; Suites Addison, responded to this reviewResponded October 31, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 31, 2016</t>
+  </si>
+  <si>
+    <t>Room was clean. Staff are friendly.  We've stayed there at least 6 times in this last year.  Last time the little refrigerator/freezer would not cool enough to freeze ice.  We've used working freezers we have had in the past to help keep the ice overnight.  It is no frills.  Toilet paper was one ply and the Kleenex supplied was a small packet.  But we weren't paying luxury prices.  They also have a nice breakfast buffet with mostly cold pastries and coffee.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109572-r431705219-Red_Roof_Inn_Suites_Addison-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>431705219</t>
+  </si>
+  <si>
+    <t>10/26/2016</t>
+  </si>
+  <si>
+    <t>Great location</t>
+  </si>
+  <si>
+    <t>A very nice staff and clean rooms with a great price are even better with this great location close to many restaurants and things to do in Dallas. I like that it's way from the busy traffic areas yet still close to the places I go to see.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>Texas45Lodging, Review Manager at Red Roof Inn &amp; Suites Addison, responded to this reviewResponded October 28, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 28, 2016</t>
+  </si>
+  <si>
+    <t>A very nice staff and clean rooms with a great price are even better with this great location close to many restaurants and things to do in Dallas. I like that it's way from the busy traffic areas yet still close to the places I go to see.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109572-r430990370-Red_Roof_Inn_Suites_Addison-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>430990370</t>
+  </si>
+  <si>
+    <t>10/23/2016</t>
+  </si>
+  <si>
+    <t>Great Hotel for the Price</t>
+  </si>
+  <si>
+    <t>I normally think of Red Roof Inn as being a budget hotel, so I was pleasantly surprised by all aspects of this hotel. The room was nice, the bed was comfortable, and everything worked just like it was supposed to. For the price, it couldn't be beat.I had messed up the reservation that I made for this hotel, and I thought I might end up having to pay for a room I didn't need, but the front desk folks were so very accommodating.  I couldn't have been happier with how they changed my reservation without a penalty and without making me feel foolish for having made it incorrectly to begin with.MoreShow less</t>
+  </si>
+  <si>
+    <t>I normally think of Red Roof Inn as being a budget hotel, so I was pleasantly surprised by all aspects of this hotel. The room was nice, the bed was comfortable, and everything worked just like it was supposed to. For the price, it couldn't be beat.I had messed up the reservation that I made for this hotel, and I thought I might end up having to pay for a room I didn't need, but the front desk folks were so very accommodating.  I couldn't have been happier with how they changed my reservation without a penalty and without making me feel foolish for having made it incorrectly to begin with.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109572-r430628072-Red_Roof_Inn_Suites_Addison-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>430628072</t>
+  </si>
+  <si>
+    <t>10/22/2016</t>
+  </si>
+  <si>
+    <t>Front desk was racist</t>
+  </si>
+  <si>
+    <t>I arrived to check in and told the front desk attendant --I think his name was Bobby or something like that--I would be paying cash. Bobby tells me there's an additional $50 deposit if I pay in cash. I figured that was standard. No big deal, so I told him I was going to run to the bank and just deposit the money into my account so I could just use my card. I guess he didn't believe me because he made the obvious statement of "well the name on the card has to match the name on the ID". As if I would be using someone else's card like I couldn't possibly have my own AS IF I DIDNT JUST SAY I WAS GOING TO THE BANK TO MAKE A DEPOSIT. I told him yeah, I assumed the name on both cards would have to match. He then proceeds to ask me to show him my debit card and ID so I don't "waste my time" as if I were lying about having a valid ID and debit card. He then explains "oh I just wanted to make sure it were an actual debit card because some people try to use green dot or other prepaid cards" AS IF I COULDNT OWN A REAL DEBIT CARD. So I left, made the deposit, came back, gave him my card and explained that the magnetic strip on my card is worn...I arrived to check in and told the front desk attendant --I think his name was Bobby or something like that--I would be paying cash. Bobby tells me there's an additional $50 deposit if I pay in cash. I figured that was standard. No big deal, so I told him I was going to run to the bank and just deposit the money into my account so I could just use my card. I guess he didn't believe me because he made the obvious statement of "well the name on the card has to match the name on the ID". As if I would be using someone else's card like I couldn't possibly have my own AS IF I DIDNT JUST SAY I WAS GOING TO THE BANK TO MAKE A DEPOSIT. I told him yeah, I assumed the name on both cards would have to match. He then proceeds to ask me to show him my debit card and ID so I don't "waste my time" as if I were lying about having a valid ID and debit card. He then explains "oh I just wanted to make sure it were an actual debit card because some people try to use green dot or other prepaid cards" AS IF I COULDNT OWN A REAL DEBIT CARD. So I left, made the deposit, came back, gave him my card and explained that the magnetic strip on my card is worn down and that he would have to punch the numbers into the system to process the payment. I knew this was possible because I stayed here 2 nights prior and the nice lady from St. Louis who was working that night accomadted me with no issue. But Bobby here tells me "we can't do that" I said yes you can I know it because they just did it for me two nights ago so why are you lying! So he says "oh" types my info in and tells me "your card got declined". At this point I was fed up because from the moment I walked in the door this man acted like I was trying to get over on the hotel, like I didn't have money or a real debit card, was incapable of paying for my room and he had no way to process my card. So, knowing that I just went to the bank to make that deposit and had plenty money in my account I demanded that he try again! And I told him if it didn't work that time he needed to get someone to help him who could successfully process my payment. He told me "well it's not that hard" I'm like yeah that's what I thought but you've made this whole process hard for me since the moment I walked in. So he processed the payment successfully and I stayed because the rooms are nice and the pool area is pretty. If I ever come back and see Bobby at the front desk I'm just gonna go spend my money somewhere else.MoreShow less</t>
+  </si>
+  <si>
+    <t>Texas45Lodging, Review Manager at Red Roof Inn &amp; Suites Addison, responded to this reviewResponded December 1, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 1, 2016</t>
+  </si>
+  <si>
+    <t>I arrived to check in and told the front desk attendant --I think his name was Bobby or something like that--I would be paying cash. Bobby tells me there's an additional $50 deposit if I pay in cash. I figured that was standard. No big deal, so I told him I was going to run to the bank and just deposit the money into my account so I could just use my card. I guess he didn't believe me because he made the obvious statement of "well the name on the card has to match the name on the ID". As if I would be using someone else's card like I couldn't possibly have my own AS IF I DIDNT JUST SAY I WAS GOING TO THE BANK TO MAKE A DEPOSIT. I told him yeah, I assumed the name on both cards would have to match. He then proceeds to ask me to show him my debit card and ID so I don't "waste my time" as if I were lying about having a valid ID and debit card. He then explains "oh I just wanted to make sure it were an actual debit card because some people try to use green dot or other prepaid cards" AS IF I COULDNT OWN A REAL DEBIT CARD. So I left, made the deposit, came back, gave him my card and explained that the magnetic strip on my card is worn...I arrived to check in and told the front desk attendant --I think his name was Bobby or something like that--I would be paying cash. Bobby tells me there's an additional $50 deposit if I pay in cash. I figured that was standard. No big deal, so I told him I was going to run to the bank and just deposit the money into my account so I could just use my card. I guess he didn't believe me because he made the obvious statement of "well the name on the card has to match the name on the ID". As if I would be using someone else's card like I couldn't possibly have my own AS IF I DIDNT JUST SAY I WAS GOING TO THE BANK TO MAKE A DEPOSIT. I told him yeah, I assumed the name on both cards would have to match. He then proceeds to ask me to show him my debit card and ID so I don't "waste my time" as if I were lying about having a valid ID and debit card. He then explains "oh I just wanted to make sure it were an actual debit card because some people try to use green dot or other prepaid cards" AS IF I COULDNT OWN A REAL DEBIT CARD. So I left, made the deposit, came back, gave him my card and explained that the magnetic strip on my card is worn down and that he would have to punch the numbers into the system to process the payment. I knew this was possible because I stayed here 2 nights prior and the nice lady from St. Louis who was working that night accomadted me with no issue. But Bobby here tells me "we can't do that" I said yes you can I know it because they just did it for me two nights ago so why are you lying! So he says "oh" types my info in and tells me "your card got declined". At this point I was fed up because from the moment I walked in the door this man acted like I was trying to get over on the hotel, like I didn't have money or a real debit card, was incapable of paying for my room and he had no way to process my card. So, knowing that I just went to the bank to make that deposit and had plenty money in my account I demanded that he try again! And I told him if it didn't work that time he needed to get someone to help him who could successfully process my payment. He told me "well it's not that hard" I'm like yeah that's what I thought but you've made this whole process hard for me since the moment I walked in. So he processed the payment successfully and I stayed because the rooms are nice and the pool area is pretty. If I ever come back and see Bobby at the front desk I'm just gonna go spend my money somewhere else.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109572-r428279683-Red_Roof_Inn_Suites_Addison-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>428279683</t>
+  </si>
+  <si>
+    <t>10/15/2016</t>
+  </si>
+  <si>
+    <t>Angie</t>
+  </si>
+  <si>
+    <t>We had to check in later than expected &amp; the lady at the front was very nice &amp; helpful. The room was very clean &amp; the bed was so the absolute best. We will definitely be staying again. Love our stayMoreShow less</t>
+  </si>
+  <si>
+    <t>Texas45Lodging, Review Manager at Red Roof Inn &amp; Suites Addison, responded to this reviewResponded October 17, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 17, 2016</t>
+  </si>
+  <si>
+    <t>We had to check in later than expected &amp; the lady at the front was very nice &amp; helpful. The room was very clean &amp; the bed was so the absolute best. We will definitely be staying again. Love our stayMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109572-r427217100-Red_Roof_Inn_Suites_Addison-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>427217100</t>
+  </si>
+  <si>
+    <t>10/12/2016</t>
+  </si>
+  <si>
+    <t>Nice place to stay</t>
+  </si>
+  <si>
+    <t>The rooms are cleaned daily and Miki and KC are very professional and they make my stay pleasant as always. Miki tell you what to expect on your stay so there are no surprises. I think they should get raises because when you have a great staff you will have happy customers.MoreShow less</t>
+  </si>
+  <si>
+    <t>Texas45Lodging, Review Manager at Red Roof Inn &amp; Suites Addison, responded to this reviewResponded October 13, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 13, 2016</t>
+  </si>
+  <si>
+    <t>The rooms are cleaned daily and Miki and KC are very professional and they make my stay pleasant as always. Miki tell you what to expect on your stay so there are no surprises. I think they should get raises because when you have a great staff you will have happy customers.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109572-r426969718-Red_Roof_Inn_Suites_Addison-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>426969718</t>
+  </si>
+  <si>
+    <t>10/11/2016</t>
+  </si>
+  <si>
+    <t>Quiet great customer service</t>
+  </si>
+  <si>
+    <t>Rooms are clean.. they are very thorough with housekeeping....Fast check in.. clean pool during the  season...i believe the young lady who helped me named Malika has great customer service.  Would definitely stay here again.  MoreShow less</t>
+  </si>
+  <si>
+    <t>Rooms are clean.. they are very thorough with housekeeping....Fast check in.. clean pool during the  season...i believe the young lady who helped me named Malika has great customer service.  Would definitely stay here again.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109572-r420555435-Red_Roof_Inn_Suites_Addison-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>420555435</t>
+  </si>
+  <si>
+    <t>09/20/2016</t>
+  </si>
+  <si>
+    <t>Location. Location, location!</t>
+  </si>
+  <si>
+    <t>Right in the heart of Addison's entertainment district, close to everything from McDonald's to Houstons--many places in easy walking distance even.  The property itself is pretty well maintained, especially for a budget motel.  Helpful, friendly staff and surprisingly quiet.  I was here for five nights and only heard people a couple of times even though I know they were sold out all weekend.  This is my new favorite place to stay in North Dallas!  PS, smoking rooms available!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Texas45Lodging, Review Manager at Red Roof Inn &amp; Suites Addison, responded to this reviewResponded September 21, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 21, 2016</t>
+  </si>
+  <si>
+    <t>Right in the heart of Addison's entertainment district, close to everything from McDonald's to Houstons--many places in easy walking distance even.  The property itself is pretty well maintained, especially for a budget motel.  Helpful, friendly staff and surprisingly quiet.  I was here for five nights and only heard people a couple of times even though I know they were sold out all weekend.  This is my new favorite place to stay in North Dallas!  PS, smoking rooms available!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109572-r419814591-Red_Roof_Inn_Suites_Addison-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>419814591</t>
+  </si>
+  <si>
+    <t>09/18/2016</t>
+  </si>
+  <si>
+    <t>Unhappy- lost/missing items</t>
+  </si>
+  <si>
+    <t>To be fair rather than just flame this hotel as I feel like doing I want to give the positive and negative. Or as someone has already mentioned "the good the bad and the ugly".
+If I could do half stars it would be more of a 2 1/2.
+Location location location. Please remember this is a budget place. I have stayed in better and much worse. Yes there are certain things wrong with this place. Example- being in construction I can tell when something is patched (badly). The bathroom door is cracked on the bottom. The bathtub had hair in it (too long to be mine). That said I have no issue with getting a sanitary wipe and wiping it down. It is a bit on the outdated side- but remember Budget. 
+The AC began to make that running water sound. Had to take the dog out of the room and put her in dog day care as I couldn't take her everywhere with me and I didn't know when they would be there.
+On the positive side of putting her in day care it cleared the room to be cleaned by someone not me. As I typically do- hotel staff is not always pet friendly which is understandable. So I generally leave the don't disturb sign on the door when the dog is in the room and take care of getting new towels and taking out trash. In...To be fair rather than just flame this hotel as I feel like doing I want to give the positive and negative. Or as someone has already mentioned "the good the bad and the ugly".If I could do half stars it would be more of a 2 1/2.Location location location. Please remember this is a budget place. I have stayed in better and much worse. Yes there are certain things wrong with this place. Example- being in construction I can tell when something is patched (badly). The bathroom door is cracked on the bottom. The bathtub had hair in it (too long to be mine). That said I have no issue with getting a sanitary wipe and wiping it down. It is a bit on the outdated side- but remember Budget. The AC began to make that running water sound. Had to take the dog out of the room and put her in dog day care as I couldn't take her everywhere with me and I didn't know when they would be there.On the positive side of putting her in day care it cleared the room to be cleaned by someone not me. As I typically do- hotel staff is not always pet friendly which is understandable. So I generally leave the don't disturb sign on the door when the dog is in the room and take care of getting new towels and taking out trash. In some cases as needed I get clean sheets. But I was raised to take care of myself and do things myself.If things were different this would be a positive review. But they messed up. The first time in my room in a week the housekeepers decided to strip the whole bed- due to dog hair. Unfortunately that whole strip included my curved memory foam pillow. The case was white- since I've been on the road living out of the same bags packed in January for work the pillow case had splatters of blood from my dog's ear when the tip got caught on something. We all know that even when washed and bleached (to an inch of its life) white still shows blood. Maybe the housekeeping thought they were being nice. I'm told maybe they thought it was one of theirs- hard to believe when my pillow vs. hotel pillows. On getting back I discover that my case is gone and is replaced with a hotel case. Which wouldn't be a big issue- but a friend of mine had made me a sleep blessing/well wishes letter. Weird  yes- but made with good thoughts and intentions in mind. The letter was in a sealed envelop inside my pillow case.That letter apparently disappeared with my case. On going to the front desk and explaining the issue (more than a few times) the gentleman called the manager on a Saturday late afternoon. My not being very happy may have caused me to be more on the blunt polite side. But all I got from him was that he would try. What happened to yes ma'am I'll find out and get back to you.He did get back to me around 8ish that same night. After again explaining that he couldn't  get in touch with anyone and didn't know anything. I love the use of the word TRY. As I explained to him it didn't make me feel like he wanted to succeed. Still no answer in the morning. Around 9 on Sunday (housekeeping already on site and laundry already started) I go to the front desk again. Explaining that I still haven't heard anything. The gentleman (same as last night) says he's going to go talk to housekeeping again asking what it was that I needed. He goes and comes back with no answer. I insist on calling the manager. He does and lets me know that he will be here around 11. So now I have to scrap my whole morning schedule to wait. I ask the front desk for the manager over the one coming in. He doesn't have a number. He refuses to call the other manager back. On pointing my finger at him (which was taken badly on his end). I basically tell him that he's refusing service. I'm told to sit down and wait for the manager. Not the best customer service. I was so upset that I was shaking. On asking for the number for corporate again he doesn't have it. He gives me a card with the current location number. I get on my phone and search for it. Unfortunately guest services is closed on Sunday. I have to call tomorrow. For any wanting guest service contact info (1800-554-4555). This whole incident could have been entirely unavoidable if they left a personal pillow case alone. This whole incident could have possibly had a better ending if they would have let me search the laundry last night when I asked. Because by now it has surly been washed if it hadn't already been. On a different line of thought- this place is in a good location for multiple restaurants and grocery stores. The room itself is spacious (king bed). Bed is comfortable. As I booked for 2 weeks the full fridge and microwave are nice. They do have breakfast and coffee on site. Again- budget guys. Not the best in the world but not the worst. I do hope to update this in the future if the issue is addressed and fixed.MoreShow less</t>
+  </si>
+  <si>
+    <t>To be fair rather than just flame this hotel as I feel like doing I want to give the positive and negative. Or as someone has already mentioned "the good the bad and the ugly".
+If I could do half stars it would be more of a 2 1/2.
+Location location location. Please remember this is a budget place. I have stayed in better and much worse. Yes there are certain things wrong with this place. Example- being in construction I can tell when something is patched (badly). The bathroom door is cracked on the bottom. The bathtub had hair in it (too long to be mine). That said I have no issue with getting a sanitary wipe and wiping it down. It is a bit on the outdated side- but remember Budget. 
+The AC began to make that running water sound. Had to take the dog out of the room and put her in dog day care as I couldn't take her everywhere with me and I didn't know when they would be there.
+On the positive side of putting her in day care it cleared the room to be cleaned by someone not me. As I typically do- hotel staff is not always pet friendly which is understandable. So I generally leave the don't disturb sign on the door when the dog is in the room and take care of getting new towels and taking out trash. In...To be fair rather than just flame this hotel as I feel like doing I want to give the positive and negative. Or as someone has already mentioned "the good the bad and the ugly".If I could do half stars it would be more of a 2 1/2.Location location location. Please remember this is a budget place. I have stayed in better and much worse. Yes there are certain things wrong with this place. Example- being in construction I can tell when something is patched (badly). The bathroom door is cracked on the bottom. The bathtub had hair in it (too long to be mine). That said I have no issue with getting a sanitary wipe and wiping it down. It is a bit on the outdated side- but remember Budget. The AC began to make that running water sound. Had to take the dog out of the room and put her in dog day care as I couldn't take her everywhere with me and I didn't know when they would be there.On the positive side of putting her in day care it cleared the room to be cleaned by someone not me. As I typically do- hotel staff is not always pet friendly which is understandable. So I generally leave the don't disturb sign on the door when the dog is in the room and take care of getting new towels and taking out trash. In some cases as needed I get clean sheets. But I was raised to take care of myself and do things myself.If things were different this would be a positive review. But they messed up. The first time in my room in a week the housekeepers decided to strip the whole bed- due to dog hair. Unfortunately that whole strip included my curved memory foam pillow. The case was white- since I've been on the road living out of the same bags packed in January for work the pillow case had splatters of blood from my dog's ear when the tip got caught on something. We all know that even when washed and bleached (to an inch of its life) white still shows blood. Maybe the housekeeping thought they were being nice. I'm told maybe they thought it was one of theirs- hard to believe when my pillow vs. hotel pillows. On getting back I discover that my case is gone and is replaced with a hotel case. Which wouldn't be a big issue- but a friend of mine had made me a sleep blessing/well wishes letter. Weird  yes- but made with good thoughts and intentions in mind. The letter was in a sealed envelop inside my pillow case.That letter apparently disappeared with my case. On going to the front desk and explaining the issue (more than a few times) the gentleman called the manager on a Saturday late afternoon. My not being very happy may have caused me to be more on the blunt polite side. But all I got from him was that he would try. What happened to yes ma'am I'll find out and get back to you.He did get back to me around 8ish that same night. After again explaining that he couldn't  get in touch with anyone and didn't know anything. I love the use of the word TRY. As I explained to him it didn't make me feel like he wanted to succeed. Still no answer in the morning. Around 9 on Sunday (housekeeping already on site and laundry already started) I go to the front desk again. Explaining that I still haven't heard anything. The gentleman (same as last night) says he's going to go talk to housekeeping again asking what it was that I needed. He goes and comes back with no answer. I insist on calling the manager. He does and lets me know that he will be here around 11. So now I have to scrap my whole morning schedule to wait. I ask the front desk for the manager over the one coming in. He doesn't have a number. He refuses to call the other manager back. On pointing my finger at him (which was taken badly on his end). I basically tell him that he's refusing service. I'm told to sit down and wait for the manager. Not the best customer service. I was so upset that I was shaking. On asking for the number for corporate again he doesn't have it. He gives me a card with the current location number. I get on my phone and search for it. Unfortunately guest services is closed on Sunday. I have to call tomorrow. For any wanting guest service contact info (1800-554-4555). This whole incident could have been entirely unavoidable if they left a personal pillow case alone. This whole incident could have possibly had a better ending if they would have let me search the laundry last night when I asked. Because by now it has surly been washed if it hadn't already been. On a different line of thought- this place is in a good location for multiple restaurants and grocery stores. The room itself is spacious (king bed). Bed is comfortable. As I booked for 2 weeks the full fridge and microwave are nice. They do have breakfast and coffee on site. Again- budget guys. Not the best in the world but not the worst. I do hope to update this in the future if the issue is addressed and fixed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109572-r419003180-Red_Roof_Inn_Suites_Addison-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>419003180</t>
+  </si>
+  <si>
+    <t>09/15/2016</t>
+  </si>
+  <si>
+    <t>Great hotel for the money, excellent location close to everything at affordable price, clean nice renovated rooms.</t>
+  </si>
+  <si>
+    <t>Brenda was behind the front desk with a nice smile and more than motivated to help me with all my needs, this hotel is very well located close to a nice restaurants and all attractions at an affordable price, Excellent stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>Texas45Lodging, Review Manager at Red Roof Inn &amp; Suites Addison, responded to this reviewResponded September 20, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 20, 2016</t>
+  </si>
+  <si>
+    <t>Brenda was behind the front desk with a nice smile and more than motivated to help me with all my needs, this hotel is very well located close to a nice restaurants and all attractions at an affordable price, Excellent stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109572-r415162614-Red_Roof_Inn_Suites_Addison-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>415162614</t>
+  </si>
+  <si>
+    <t>09/05/2016</t>
+  </si>
+  <si>
+    <t>Moderate priced Hotel = Moderate amenities</t>
+  </si>
+  <si>
+    <t>We recently went to the Dallas area to visit our son and daughter-in-law and since our usual hotel had gone WAY UP in their prices, we decided to try the Red Roof Inn.  We were greeted very nicely when we checked in late Saturday night (after 10:30 PM) and were given 1 room key (not even asked if we would like 2), and shown a map where our room was.  We were also told what time breakfast was available. We walked into our room, which we were guaranteed was a "non-smoking" room and were greeted with a "funky" smell.  My husband has a very sensitive nose, so I was surprised he didn't say anything about it.  Then the noise started.  It sounded like a child running back and forth across the floor (quite loudly) directly above us - it's now after 11:00PM! This kept up for a good 45 minutes.  It finally stopped, and we were able to get some sleep.  The bed was OK, but less supportive than I'm used to, so I didn't sleep very well.  The A/C was very loud, but worked to cool the room down.  The water pressure was good and we were able to take nice showers the next morning.  Towels were a little skimpy - both in texture and size and we only got a set apiece, so I had no towel for my hair.  When we walked into the lobby for breakfast...We recently went to the Dallas area to visit our son and daughter-in-law and since our usual hotel had gone WAY UP in their prices, we decided to try the Red Roof Inn.  We were greeted very nicely when we checked in late Saturday night (after 10:30 PM) and were given 1 room key (not even asked if we would like 2), and shown a map where our room was.  We were also told what time breakfast was available. We walked into our room, which we were guaranteed was a "non-smoking" room and were greeted with a "funky" smell.  My husband has a very sensitive nose, so I was surprised he didn't say anything about it.  Then the noise started.  It sounded like a child running back and forth across the floor (quite loudly) directly above us - it's now after 11:00PM! This kept up for a good 45 minutes.  It finally stopped, and we were able to get some sleep.  The bed was OK, but less supportive than I'm used to, so I didn't sleep very well.  The A/C was very loud, but worked to cool the room down.  The water pressure was good and we were able to take nice showers the next morning.  Towels were a little skimpy - both in texture and size and we only got a set apiece, so I had no towel for my hair.  When we walked into the lobby for breakfast the next morning, before church, we were told by other diners there was no more batter for the waffles - so we ended up making toast. (no fruit available) but my husband was able to get his tea and I ended up with juice.  The lobby area only has 4 tables, so since there was no place to sit, we took our breakfast back to our room and (of course) the toast was cold by then.  Returning Sunday evening (fairly late - after 11:00PM) we were again greeted with the funky smell in our room (my husband had identified it by this time as cigarette smoke/musty odor) and the child running to and fro above our heads.  We were able to finally have a quiet night about 30 minutes later when the child quit running around.Monday morning breakfast was probably more of the same, but we decided to go out to eat breakfast with our kids. As we were checking out, we made mention of the fact of the child running around over our heads late at night, and the clerk told us the manager stayed up there, so we can only assume it was his/her child.Needless to say, we'll not be staying there again.  I guess the saying is true - "you get what you pay for" although, I assumed that since this hotel charged what our former hotel in the area charged at both last Christmas and last April when we visited, I was expecting a bit MORE.MoreShow less</t>
+  </si>
+  <si>
+    <t>Texas45Lodging, Review Manager at Red Roof Inn &amp; Suites Addison, responded to this reviewResponded September 6, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 6, 2016</t>
+  </si>
+  <si>
+    <t>We recently went to the Dallas area to visit our son and daughter-in-law and since our usual hotel had gone WAY UP in their prices, we decided to try the Red Roof Inn.  We were greeted very nicely when we checked in late Saturday night (after 10:30 PM) and were given 1 room key (not even asked if we would like 2), and shown a map where our room was.  We were also told what time breakfast was available. We walked into our room, which we were guaranteed was a "non-smoking" room and were greeted with a "funky" smell.  My husband has a very sensitive nose, so I was surprised he didn't say anything about it.  Then the noise started.  It sounded like a child running back and forth across the floor (quite loudly) directly above us - it's now after 11:00PM! This kept up for a good 45 minutes.  It finally stopped, and we were able to get some sleep.  The bed was OK, but less supportive than I'm used to, so I didn't sleep very well.  The A/C was very loud, but worked to cool the room down.  The water pressure was good and we were able to take nice showers the next morning.  Towels were a little skimpy - both in texture and size and we only got a set apiece, so I had no towel for my hair.  When we walked into the lobby for breakfast...We recently went to the Dallas area to visit our son and daughter-in-law and since our usual hotel had gone WAY UP in their prices, we decided to try the Red Roof Inn.  We were greeted very nicely when we checked in late Saturday night (after 10:30 PM) and were given 1 room key (not even asked if we would like 2), and shown a map where our room was.  We were also told what time breakfast was available. We walked into our room, which we were guaranteed was a "non-smoking" room and were greeted with a "funky" smell.  My husband has a very sensitive nose, so I was surprised he didn't say anything about it.  Then the noise started.  It sounded like a child running back and forth across the floor (quite loudly) directly above us - it's now after 11:00PM! This kept up for a good 45 minutes.  It finally stopped, and we were able to get some sleep.  The bed was OK, but less supportive than I'm used to, so I didn't sleep very well.  The A/C was very loud, but worked to cool the room down.  The water pressure was good and we were able to take nice showers the next morning.  Towels were a little skimpy - both in texture and size and we only got a set apiece, so I had no towel for my hair.  When we walked into the lobby for breakfast the next morning, before church, we were told by other diners there was no more batter for the waffles - so we ended up making toast. (no fruit available) but my husband was able to get his tea and I ended up with juice.  The lobby area only has 4 tables, so since there was no place to sit, we took our breakfast back to our room and (of course) the toast was cold by then.  Returning Sunday evening (fairly late - after 11:00PM) we were again greeted with the funky smell in our room (my husband had identified it by this time as cigarette smoke/musty odor) and the child running to and fro above our heads.  We were able to finally have a quiet night about 30 minutes later when the child quit running around.Monday morning breakfast was probably more of the same, but we decided to go out to eat breakfast with our kids. As we were checking out, we made mention of the fact of the child running around over our heads late at night, and the clerk told us the manager stayed up there, so we can only assume it was his/her child.Needless to say, we'll not be staying there again.  I guess the saying is true - "you get what you pay for" although, I assumed that since this hotel charged what our former hotel in the area charged at both last Christmas and last April when we visited, I was expecting a bit MORE.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109572-r414389405-Red_Roof_Inn_Suites_Addison-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>414389405</t>
+  </si>
+  <si>
+    <t>09/03/2016</t>
+  </si>
+  <si>
+    <t>Week Stay</t>
+  </si>
+  <si>
+    <t>I stayed at the Red Roof Inn for a week while I was relocating to the area and searching for apartments. I was pleasantly surprised with the professionalism of all of the staff I dealt with, especially Brenda, (I think that was her name, maybe Barbara?) The rooms were nice and clean and the location was very convenient. I highly recommend staying here as the price is very affordable for the value you get. If I had to complain about anything, it's the breakfast. I just wish there were a few more options and maybe some eggs as it is very carb-heavy. I'll definitely be recommending friends to stay there when they visit the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>Texas45Lodging, Review Manager at Red Roof Inn &amp; Suites Addison, responded to this reviewResponded September 5, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 5, 2016</t>
+  </si>
+  <si>
+    <t>I stayed at the Red Roof Inn for a week while I was relocating to the area and searching for apartments. I was pleasantly surprised with the professionalism of all of the staff I dealt with, especially Brenda, (I think that was her name, maybe Barbara?) The rooms were nice and clean and the location was very convenient. I highly recommend staying here as the price is very affordable for the value you get. If I had to complain about anything, it's the breakfast. I just wish there were a few more options and maybe some eggs as it is very carb-heavy. I'll definitely be recommending friends to stay there when they visit the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109572-r414267662-Red_Roof_Inn_Suites_Addison-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>414267662</t>
+  </si>
+  <si>
+    <t>Low key, nice place</t>
+  </si>
+  <si>
+    <t>This is very upscale for red roof, this property is very nice. The rooms are large, nicely equipped with 40" HD tv's. Lots of great eating places within walking distance. So if you are looking to be cost effective this is a nice place to stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>Texas45Lodging, Review Manager  at Red Roof Inn &amp; Suites Addison, responded to this reviewResponded September 5, 2016</t>
+  </si>
+  <si>
+    <t>This is very upscale for red roof, this property is very nice. The rooms are large, nicely equipped with 40" HD tv's. Lots of great eating places within walking distance. So if you are looking to be cost effective this is a nice place to stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109572-r405531101-Red_Roof_Inn_Suites_Addison-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>405531101</t>
+  </si>
+  <si>
+    <t>08/14/2016</t>
+  </si>
+  <si>
+    <t>TRIP ADVISOR BOOKERS BE AWARE!!!</t>
+  </si>
+  <si>
+    <t>REVIEWS ARE NOT TRUE THIS IS A DUMP******
+****GIVE RUN DOWN ROOMS TO THOSE WHO BOOK ON EXPEDIA/CHEAPTICKETS 
+*****MICROWAVE &amp; REFRIGERATOR FROMS THE 80S
+***** FILTHY VENTS
+****** HUGE ROACHES
+***** URINE STAINED SHOWER CURTAIN 
+*****URINE STAINED MATTRESS 
+*****FILTHY CARPERT
+***** ONLY 1 SMALL DRYER &amp; 2 SMALL WASHER
+I was forced to stay in a urinated saturated room or sleep in my car and miss the interview i came to this area for !!! I checked in at about 11:00pm and was giving room 231!!! Once I opened the door i was assaulted with what smelled like a 80yr old drunken sailor's urine!!!! I immediately called the front desk clerk and explained the problem she asked if she could place me on hold while she checked to see if she could find me another room!!! After being on hold for 20 min !!!I left the room and drove back to the front when she seen me she picked up the phone and acted as if she was trying to call someone!! I sat in the lobby for 10 minutes and approached the front desk and then she said the manager would be down in about 20 minutes !!! I told her i would go to the store to give them time!!! I came back 40 minutes later , when i walked in the manager was standing there talking to the female desk clerk who i will refer to as...REVIEWS ARE NOT TRUE THIS IS A DUMP**********GIVE RUN DOWN ROOMS TO THOSE WHO BOOK ON EXPEDIA/CHEAPTICKETS *****MICROWAVE &amp; REFRIGERATOR FROMS THE 80S***** FILTHY VENTS****** HUGE ROACHES***** URINE STAINED SHOWER CURTAIN *****URINE STAINED MATTRESS *****FILTHY CARPERT***** ONLY 1 SMALL DRYER &amp; 2 SMALL WASHERI was forced to stay in a urinated saturated room or sleep in my car and miss the interview i came to this area for !!! I checked in at about 11:00pm and was giving room 231!!! Once I opened the door i was assaulted with what smelled like a 80yr old drunken sailor's urine!!!! I immediately called the front desk clerk and explained the problem she asked if she could place me on hold while she checked to see if she could find me another room!!! After being on hold for 20 min !!!I left the room and drove back to the front when she seen me she picked up the phone and acted as if she was trying to call someone!! I sat in the lobby for 10 minutes and approached the front desk and then she said the manager would be down in about 20 minutes !!! I told her i would go to the store to give them time!!! I came back 40 minutes later , when i walked in the manager was standing there talking to the female desk clerk who i will refer to as T.Y.T(Tired Young Thot) Smart Mouth but cant find a simple solution !!! HE BOLTED FASTER THAN ALADDIN'S CARPERT AS SOON AS HE SEEN ME!!! She told me there was nothing they could do because i booked on Expedia!!! Clearly you can see that all of these rooms are not occupied but i could pay for a double bed room !!! I then asked could i get a shower curtain since the urine was saturated on the shower curtain 5 and T.Y.T told me she does not have access to that and she can try to call Mr. MARK the mantaince but she can make him come down because he off!!! MR.MARK agreed to bring the shower curtain but i would have to put it up myself!!!! T.Y.T got mad when i told her i would like to speak with this manger/owner !!! She told me to just give her the rooms keys and leave because they couldn't please me... They never tried to accommodate me even the shower curtain was my idea!!! Keep in mind it 12:45am !! Oh and i need to contact expedia for a refund!!!! I have pictures and videos that i will be posting!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Texas45Lodging, Review Management  at Red Roof Inn &amp; Suites Addison, responded to this reviewResponded August 29, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 29, 2016</t>
+  </si>
+  <si>
+    <t>REVIEWS ARE NOT TRUE THIS IS A DUMP******
+****GIVE RUN DOWN ROOMS TO THOSE WHO BOOK ON EXPEDIA/CHEAPTICKETS 
+*****MICROWAVE &amp; REFRIGERATOR FROMS THE 80S
+***** FILTHY VENTS
+****** HUGE ROACHES
+***** URINE STAINED SHOWER CURTAIN 
+*****URINE STAINED MATTRESS 
+*****FILTHY CARPERT
+***** ONLY 1 SMALL DRYER &amp; 2 SMALL WASHER
+I was forced to stay in a urinated saturated room or sleep in my car and miss the interview i came to this area for !!! I checked in at about 11:00pm and was giving room 231!!! Once I opened the door i was assaulted with what smelled like a 80yr old drunken sailor's urine!!!! I immediately called the front desk clerk and explained the problem she asked if she could place me on hold while she checked to see if she could find me another room!!! After being on hold for 20 min !!!I left the room and drove back to the front when she seen me she picked up the phone and acted as if she was trying to call someone!! I sat in the lobby for 10 minutes and approached the front desk and then she said the manager would be down in about 20 minutes !!! I told her i would go to the store to give them time!!! I came back 40 minutes later , when i walked in the manager was standing there talking to the female desk clerk who i will refer to as...REVIEWS ARE NOT TRUE THIS IS A DUMP**********GIVE RUN DOWN ROOMS TO THOSE WHO BOOK ON EXPEDIA/CHEAPTICKETS *****MICROWAVE &amp; REFRIGERATOR FROMS THE 80S***** FILTHY VENTS****** HUGE ROACHES***** URINE STAINED SHOWER CURTAIN *****URINE STAINED MATTRESS *****FILTHY CARPERT***** ONLY 1 SMALL DRYER &amp; 2 SMALL WASHERI was forced to stay in a urinated saturated room or sleep in my car and miss the interview i came to this area for !!! I checked in at about 11:00pm and was giving room 231!!! Once I opened the door i was assaulted with what smelled like a 80yr old drunken sailor's urine!!!! I immediately called the front desk clerk and explained the problem she asked if she could place me on hold while she checked to see if she could find me another room!!! After being on hold for 20 min !!!I left the room and drove back to the front when she seen me she picked up the phone and acted as if she was trying to call someone!! I sat in the lobby for 10 minutes and approached the front desk and then she said the manager would be down in about 20 minutes !!! I told her i would go to the store to give them time!!! I came back 40 minutes later , when i walked in the manager was standing there talking to the female desk clerk who i will refer to as T.Y.T(Tired Young Thot) Smart Mouth but cant find a simple solution !!! HE BOLTED FASTER THAN ALADDIN'S CARPERT AS SOON AS HE SEEN ME!!! She told me there was nothing they could do because i booked on Expedia!!! Clearly you can see that all of these rooms are not occupied but i could pay for a double bed room !!! I then asked could i get a shower curtain since the urine was saturated on the shower curtain 5 and T.Y.T told me she does not have access to that and she can try to call Mr. MARK the mantaince but she can make him come down because he off!!! MR.MARK agreed to bring the shower curtain but i would have to put it up myself!!!! T.Y.T got mad when i told her i would like to speak with this manger/owner !!! She told me to just give her the rooms keys and leave because they couldn't please me... They never tried to accommodate me even the shower curtain was my idea!!! Keep in mind it 12:45am !! Oh and i need to contact expedia for a refund!!!! I have pictures and videos that i will be posting!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109572-r405217599-Red_Roof_Inn_Suites_Addison-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>405217599</t>
+  </si>
+  <si>
+    <t>The Good The Bad and The Deadly</t>
+  </si>
+  <si>
+    <t>I hate this and it is killing me,  first off many know that I have actually lived at the Red Roof for the past 3 months and I have been so happy there.  The staff is amazing (more like family) the grounds are gorgeous and well kept,  the pool stays clean and sparkling,  and the rooms are the cleanest I have ever seen.  But there are alot of hazards there too that are not addressed and now my life has fallen apart because of it.  While doing landscaping there all of the rusky metal borders were pulled up and piled in front of my car some were even spikes up.  I tripped and fell one night on these rupturing 2 disk in my lower back and I may even have to have surgery..... 85% chance of it.  It has been over a week now and I am homeless due to not being able to work and pay room rent.  What is sad the metal laid out there 3 more days and the maid had to ask the manager if she should move them!   Timedated Pix attached.  The Hot Tub is Empty and anyone could fall in there,  The railing to the pool is loose, A guy tried to break into my room at 2 in the afternoon and No one even checked the cameras!
+My life is falling apart because of this,  I have no money, no food,  My possessions...I hate this and it is killing me,  first off many know that I have actually lived at the Red Roof for the past 3 months and I have been so happy there.  The staff is amazing (more like family) the grounds are gorgeous and well kept,  the pool stays clean and sparkling,  and the rooms are the cleanest I have ever seen.  But there are alot of hazards there too that are not addressed and now my life has fallen apart because of it.  While doing landscaping there all of the rusky metal borders were pulled up and piled in front of my car some were even spikes up.  I tripped and fell one night on these rupturing 2 disk in my lower back and I may even have to have surgery..... 85% chance of it.  It has been over a week now and I am homeless due to not being able to work and pay room rent.  What is sad the metal laid out there 3 more days and the maid had to ask the manager if she should move them!   Timedated Pix attached.  The Hot Tub is Empty and anyone could fall in there,  The railing to the pool is loose, A guy tried to break into my room at 2 in the afternoon and No one even checked the cameras!My life is falling apart because of this,  I have no money, no food,  My possessions are still over there because I cant afford any help getting them. I have avoided getting an attorney because I did not want anyone in trouble but now it looks like I will have to.  I know it was just a freak accident but so much damage is done.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>I hate this and it is killing me,  first off many know that I have actually lived at the Red Roof for the past 3 months and I have been so happy there.  The staff is amazing (more like family) the grounds are gorgeous and well kept,  the pool stays clean and sparkling,  and the rooms are the cleanest I have ever seen.  But there are alot of hazards there too that are not addressed and now my life has fallen apart because of it.  While doing landscaping there all of the rusky metal borders were pulled up and piled in front of my car some were even spikes up.  I tripped and fell one night on these rupturing 2 disk in my lower back and I may even have to have surgery..... 85% chance of it.  It has been over a week now and I am homeless due to not being able to work and pay room rent.  What is sad the metal laid out there 3 more days and the maid had to ask the manager if she should move them!   Timedated Pix attached.  The Hot Tub is Empty and anyone could fall in there,  The railing to the pool is loose, A guy tried to break into my room at 2 in the afternoon and No one even checked the cameras!
+My life is falling apart because of this,  I have no money, no food,  My possessions...I hate this and it is killing me,  first off many know that I have actually lived at the Red Roof for the past 3 months and I have been so happy there.  The staff is amazing (more like family) the grounds are gorgeous and well kept,  the pool stays clean and sparkling,  and the rooms are the cleanest I have ever seen.  But there are alot of hazards there too that are not addressed and now my life has fallen apart because of it.  While doing landscaping there all of the rusky metal borders were pulled up and piled in front of my car some were even spikes up.  I tripped and fell one night on these rupturing 2 disk in my lower back and I may even have to have surgery..... 85% chance of it.  It has been over a week now and I am homeless due to not being able to work and pay room rent.  What is sad the metal laid out there 3 more days and the maid had to ask the manager if she should move them!   Timedated Pix attached.  The Hot Tub is Empty and anyone could fall in there,  The railing to the pool is loose, A guy tried to break into my room at 2 in the afternoon and No one even checked the cameras!My life is falling apart because of this,  I have no money, no food,  My possessions are still over there because I cant afford any help getting them. I have avoided getting an attorney because I did not want anyone in trouble but now it looks like I will have to.  I know it was just a freak accident but so much damage is done.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109572-r395621373-Red_Roof_Inn_Suites_Addison-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>395621373</t>
+  </si>
+  <si>
+    <t>07/22/2016</t>
+  </si>
+  <si>
+    <t>The nicest Red Roof I've experienced</t>
+  </si>
+  <si>
+    <t>Let start with this: i am in hotels almost constantly. I've only stayed in two red roof hotels prior to this stay. This one was not what I had expected. Especially the interior of the room. But let me begin at the beginning. When I arrived to check in there were a couple of folks In line before me. Usually, this is a clue my blood to really begin boil. Mostly due to the heat index that I've been driving around In on a hot Texas day. Waiting in line is misery when your hot and waiting  for a cool place to just rest. At least you hope it's going good to be cool. This is what I'm fully prepared for, based on what I paid for the reservation. I was all geared for mad. But Diana, at the front desk just wouldn't give me an excuse be miserable, even with the heat index. She greeted me with hello that was so friendly that I actually wondered for a second if it was intended to me. It sounded like someone greeting a good friend. I took a seat expecting it to be a while. I noticed the people that were in inexpensive before me . Not one person appearing to be aggitated. Huh. Diana is actually being friendly while being productive. Before I could even get comfy in my seat, it was my turn. Even with the FedEx guy coming...Let start with this: i am in hotels almost constantly. I've only stayed in two red roof hotels prior to this stay. This one was not what I had expected. Especially the interior of the room. But let me begin at the beginning. When I arrived to check in there were a couple of folks In line before me. Usually, this is a clue my blood to really begin boil. Mostly due to the heat index that I've been driving around In on a hot Texas day. Waiting in line is misery when your hot and waiting  for a cool place to just rest. At least you hope it's going good to be cool. This is what I'm fully prepared for, based on what I paid for the reservation. I was all geared for mad. But Diana, at the front desk just wouldn't give me an excuse be miserable, even with the heat index. She greeted me with hello that was so friendly that I actually wondered for a second if it was intended to me. It sounded like someone greeting a good friend. I took a seat expecting it to be a while. I noticed the people that were in inexpensive before me . Not one person appearing to be aggitated. Huh. Diana is actually being friendly while being productive. Before I could even get comfy in my seat, it was my turn. Even with the FedEx guy coming and going. Now I don't know what the FedEx situation was. I never noticed Diana acknowledge  him, she was paying attention to her guest. I know she must have dealt with  him. I could tell he had unfinished business. She greeted me again    I said do you need to finish with FedEx. And she said it. No attitude of condescension. Perfectly politely. And directly to me. You're my priority. Enough said. The rest of the staff and the upkeep and Condition also get a+ ratings and I had intended to rave about them all. But I'm out of time for now. I am planning to stay there again this week.  I'm looking forward to another great stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>Texas45Lodging, Review Management at Red Roof Inn &amp; Suites Addison, responded to this reviewResponded August 2, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 2, 2016</t>
+  </si>
+  <si>
+    <t>Let start with this: i am in hotels almost constantly. I've only stayed in two red roof hotels prior to this stay. This one was not what I had expected. Especially the interior of the room. But let me begin at the beginning. When I arrived to check in there were a couple of folks In line before me. Usually, this is a clue my blood to really begin boil. Mostly due to the heat index that I've been driving around In on a hot Texas day. Waiting in line is misery when your hot and waiting  for a cool place to just rest. At least you hope it's going good to be cool. This is what I'm fully prepared for, based on what I paid for the reservation. I was all geared for mad. But Diana, at the front desk just wouldn't give me an excuse be miserable, even with the heat index. She greeted me with hello that was so friendly that I actually wondered for a second if it was intended to me. It sounded like someone greeting a good friend. I took a seat expecting it to be a while. I noticed the people that were in inexpensive before me . Not one person appearing to be aggitated. Huh. Diana is actually being friendly while being productive. Before I could even get comfy in my seat, it was my turn. Even with the FedEx guy coming...Let start with this: i am in hotels almost constantly. I've only stayed in two red roof hotels prior to this stay. This one was not what I had expected. Especially the interior of the room. But let me begin at the beginning. When I arrived to check in there were a couple of folks In line before me. Usually, this is a clue my blood to really begin boil. Mostly due to the heat index that I've been driving around In on a hot Texas day. Waiting in line is misery when your hot and waiting  for a cool place to just rest. At least you hope it's going good to be cool. This is what I'm fully prepared for, based on what I paid for the reservation. I was all geared for mad. But Diana, at the front desk just wouldn't give me an excuse be miserable, even with the heat index. She greeted me with hello that was so friendly that I actually wondered for a second if it was intended to me. It sounded like someone greeting a good friend. I took a seat expecting it to be a while. I noticed the people that were in inexpensive before me . Not one person appearing to be aggitated. Huh. Diana is actually being friendly while being productive. Before I could even get comfy in my seat, it was my turn. Even with the FedEx guy coming and going. Now I don't know what the FedEx situation was. I never noticed Diana acknowledge  him, she was paying attention to her guest. I know she must have dealt with  him. I could tell he had unfinished business. She greeted me again    I said do you need to finish with FedEx. And she said it. No attitude of condescension. Perfectly politely. And directly to me. You're my priority. Enough said. The rest of the staff and the upkeep and Condition also get a+ ratings and I had intended to rave about them all. But I'm out of time for now. I am planning to stay there again this week.  I'm looking forward to another great stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109572-r361548830-Red_Roof_Inn_Suites_Addison-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>361548830</t>
+  </si>
+  <si>
+    <t>04/04/2016</t>
+  </si>
+  <si>
+    <t>Really Nice!!</t>
+  </si>
+  <si>
+    <t>I stayed here for three nights and booked through the Red Roof Inn website.  Was looking for a reasonably priced motel near Dallas, and this fit the bill.  My room was wonderful - newly remodeled, comfortable bed, nice sitting chair and ottoman, tv was new, and the wi-fi worked well.  Steve checked me in, he was very nice and helped me out with information regarding Dallas' public transportation location in Addison.  The only problem with the room was the door kept sticking and was hard to open most of the time (Room 106). Coffee was excellent and breakfast was good.  They do need to work on keeping the tables in the breakfast room wiped off after they've been used. Some of the breakfast room chairs could also use cleaning.  They are still remodeling rooms.  Very convenient to a lot of restaurants.  If I'm ever back in the area, I would definitely stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>Texas45Lodging, Review Manager at Red Roof Inn &amp; Suites Addison, responded to this reviewResponded August 2, 2016</t>
+  </si>
+  <si>
+    <t>I stayed here for three nights and booked through the Red Roof Inn website.  Was looking for a reasonably priced motel near Dallas, and this fit the bill.  My room was wonderful - newly remodeled, comfortable bed, nice sitting chair and ottoman, tv was new, and the wi-fi worked well.  Steve checked me in, he was very nice and helped me out with information regarding Dallas' public transportation location in Addison.  The only problem with the room was the door kept sticking and was hard to open most of the time (Room 106). Coffee was excellent and breakfast was good.  They do need to work on keeping the tables in the breakfast room wiped off after they've been used. Some of the breakfast room chairs could also use cleaning.  They are still remodeling rooms.  Very convenient to a lot of restaurants.  If I'm ever back in the area, I would definitely stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109572-r357852569-Red_Roof_Inn_Suites_Addison-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>357852569</t>
+  </si>
+  <si>
+    <t>03/23/2016</t>
+  </si>
+  <si>
+    <t>Excellent customer service and adaptability</t>
+  </si>
+  <si>
+    <t>I booked through a third party site that did not have it's stuff together.  However, upon arrival, the front desk and manager were able to correct and accommodate me completely.  I appreciate their efforts.  Right price, right area, quiet facility.MoreShow less</t>
+  </si>
+  <si>
+    <t>I booked through a third party site that did not have it's stuff together.  However, upon arrival, the front desk and manager were able to correct and accommodate me completely.  I appreciate their efforts.  Right price, right area, quiet facility.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109572-r355866860-Red_Roof_Inn_Suites_Addison-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>355866860</t>
+  </si>
+  <si>
+    <t>03/15/2016</t>
+  </si>
+  <si>
+    <t>Nice and Modern</t>
+  </si>
+  <si>
+    <t>Stayed two nights here. First room was a standard King and it was nice. Modern decor and under $70. Second night was a deluxe king room. It was ok. Not as nice or modern and more expensive. I say stick with a standard room. Great customer service from the gentleman at the front desk. He was extremely helpful. Added bonus was the waffle maker for breakfast along with bagels and pastries. Overall I enjoyed my stay and will definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed two nights here. First room was a standard King and it was nice. Modern decor and under $70. Second night was a deluxe king room. It was ok. Not as nice or modern and more expensive. I say stick with a standard room. Great customer service from the gentleman at the front desk. He was extremely helpful. Added bonus was the waffle maker for breakfast along with bagels and pastries. Overall I enjoyed my stay and will definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109572-r331775244-Red_Roof_Inn_Suites_Addison-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>331775244</t>
+  </si>
+  <si>
+    <t>12/10/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The best hotel for us. </t>
+  </si>
+  <si>
+    <t>My girlfriend and I stayed at the Red Roof Inn for 4 days. We have stayed in alot of hotels considering that's where we meet. The manger was awesome. We had some small money issues and he took care of us the whole time. Everything in room was perfect and clean. We have gotten the same room twice. I would recommend this hotel under this management to anyone and we will for sure be back. Thanks to all the staff.                                                                                   Thanks again,                                               James &amp; SarahMoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>My girlfriend and I stayed at the Red Roof Inn for 4 days. We have stayed in alot of hotels considering that's where we meet. The manger was awesome. We had some small money issues and he took care of us the whole time. Everything in room was perfect and clean. We have gotten the same room twice. I would recommend this hotel under this management to anyone and we will for sure be back. Thanks to all the staff.                                                                                   Thanks again,                                               James &amp; SarahMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109572-r331534043-Red_Roof_Inn_Suites_Addison-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>331534043</t>
+  </si>
+  <si>
+    <t>12/08/2015</t>
+  </si>
+  <si>
+    <t>The hospitality was absolutely excellent.  The service folks there where second to none.  I would recommend this hotel.</t>
+  </si>
+  <si>
+    <t>The hospitality and the general manager here take care to see you are comfortable and provided for.  I would recommend this hotel to anyone that is looking to have a great nights sleep, and a very comfortable stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>The hospitality and the general manager here take care to see you are comfortable and provided for.  I would recommend this hotel to anyone that is looking to have a great nights sleep, and a very comfortable stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109572-r328088956-Red_Roof_Inn_Suites_Addison-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>328088956</t>
+  </si>
+  <si>
+    <t>11/20/2015</t>
+  </si>
+  <si>
+    <t>Will not stay here again!</t>
+  </si>
+  <si>
+    <t>Since my wife had to be at Love Field early this morning we decided to get a hotel for the night.  While searching for a hotel I noticed that many hotels around Dallas Love Field were in a "shaddy" neighborhood. So, I decided to go further north thinking my choices would prove more desirable. Hmmm, this hotel was not DESIRABLE after the fact.  Here are the 3 areas I consider when reviewing hotels. #1 Is the hotel CLEAN? #2 Is it in a SAFE area? and #3 Are the BEDS comfortable?  Last night we found Red stuff in the shower area/as well it was dirty; ( my wife would not use the shower) there were people up late outside of our door drinking, smoking and talking loudly.  Did I sleep well? No, the cleanliness and safety of the area determine how one sleeps regardless of how comfortable the bed.  Would I recommend this hotel? Absolutely NO.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>Texas45Lodging, Review Manager  at Red Roof Inn &amp; Suites Addison, responded to this reviewResponded August 2, 2016</t>
+  </si>
+  <si>
+    <t>Since my wife had to be at Love Field early this morning we decided to get a hotel for the night.  While searching for a hotel I noticed that many hotels around Dallas Love Field were in a "shaddy" neighborhood. So, I decided to go further north thinking my choices would prove more desirable. Hmmm, this hotel was not DESIRABLE after the fact.  Here are the 3 areas I consider when reviewing hotels. #1 Is the hotel CLEAN? #2 Is it in a SAFE area? and #3 Are the BEDS comfortable?  Last night we found Red stuff in the shower area/as well it was dirty; ( my wife would not use the shower) there were people up late outside of our door drinking, smoking and talking loudly.  Did I sleep well? No, the cleanliness and safety of the area determine how one sleeps regardless of how comfortable the bed.  Would I recommend this hotel? Absolutely NO.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109572-r319449994-Red_Roof_Inn_Suites_Addison-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>319449994</t>
+  </si>
+  <si>
+    <t>10/16/2015</t>
+  </si>
+  <si>
+    <t>Good for the Price</t>
+  </si>
+  <si>
+    <t>Needed motel near Galleria for next day seminar. Had no free night stays available nearby so searched online for low price with at least an average rating, free WiFi, and free breakfast. So I made and paid for my reservation. 
+Price was low, WiFi was okay at night but painfully slow to the point of useless at 7:30 a.m. Free breakfast was mostly bread and grain products: dry cereal, bread for toast, waffles, bagels and cream, muffins along with a pitcher of 2% milk, and a bowl of apples and oranges which were past their prime. It's the sort of breakfast a motel can set out early and ignore until 10 a.m. Watched TV news as I drank my coffee and ate my Texas-shaped waffle along with the 3/4s of the orange which still looked edible. No juice, eggs, sausage, or what you'd expect at pricier places. But what do you expect for the price? 
+Desk clerk was very helpful. As I came in when just a few rooms were left, he looked for his top offering and gave me a free upgrade. 
+The room was better than expected. Had large refrigerator, microwave, TV of course, ironing board and iron, hair blower. For a 70's (??) motel it was very well maintained. It was clean, the room (#247) was upstairs, away from the road, and quiet. Smelled better than some higher dollar motels. Best of all, the king bed was...Needed motel near Galleria for next day seminar. Had no free night stays available nearby so searched online for low price with at least an average rating, free WiFi, and free breakfast. So I made and paid for my reservation. Price was low, WiFi was okay at night but painfully slow to the point of useless at 7:30 a.m. Free breakfast was mostly bread and grain products: dry cereal, bread for toast, waffles, bagels and cream, muffins along with a pitcher of 2% milk, and a bowl of apples and oranges which were past their prime. It's the sort of breakfast a motel can set out early and ignore until 10 a.m. Watched TV news as I drank my coffee and ate my Texas-shaped waffle along with the 3/4s of the orange which still looked edible. No juice, eggs, sausage, or what you'd expect at pricier places. But what do you expect for the price? Desk clerk was very helpful. As I came in when just a few rooms were left, he looked for his top offering and gave me a free upgrade. The room was better than expected. Had large refrigerator, microwave, TV of course, ironing board and iron, hair blower. For a 70's (??) motel it was very well maintained. It was clean, the room (#247) was upstairs, away from the road, and quiet. Smelled better than some higher dollar motels. Best of all, the king bed was perfect!! Best sleep I've had in a long time.  It turned out time-wise to be farther from the Galleria than I'd expected and the traffic was heavier at 8 a.m. than I'd remembered. Give yourself plenty of time to get to wherever you are going in Dallas, as I did. Would I stay at Red Roof Addison again? If I could not find a free stay elsewhere, yes, and especially if a good night's sleep at a cheap price is my priority. Note that electrical outlets for C-PAP, sound machine are inconvenient; you might take an extension cord with a couple outlets on it with you.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>Needed motel near Galleria for next day seminar. Had no free night stays available nearby so searched online for low price with at least an average rating, free WiFi, and free breakfast. So I made and paid for my reservation. 
+Price was low, WiFi was okay at night but painfully slow to the point of useless at 7:30 a.m. Free breakfast was mostly bread and grain products: dry cereal, bread for toast, waffles, bagels and cream, muffins along with a pitcher of 2% milk, and a bowl of apples and oranges which were past their prime. It's the sort of breakfast a motel can set out early and ignore until 10 a.m. Watched TV news as I drank my coffee and ate my Texas-shaped waffle along with the 3/4s of the orange which still looked edible. No juice, eggs, sausage, or what you'd expect at pricier places. But what do you expect for the price? 
+Desk clerk was very helpful. As I came in when just a few rooms were left, he looked for his top offering and gave me a free upgrade. 
+The room was better than expected. Had large refrigerator, microwave, TV of course, ironing board and iron, hair blower. For a 70's (??) motel it was very well maintained. It was clean, the room (#247) was upstairs, away from the road, and quiet. Smelled better than some higher dollar motels. Best of all, the king bed was...Needed motel near Galleria for next day seminar. Had no free night stays available nearby so searched online for low price with at least an average rating, free WiFi, and free breakfast. So I made and paid for my reservation. Price was low, WiFi was okay at night but painfully slow to the point of useless at 7:30 a.m. Free breakfast was mostly bread and grain products: dry cereal, bread for toast, waffles, bagels and cream, muffins along with a pitcher of 2% milk, and a bowl of apples and oranges which were past their prime. It's the sort of breakfast a motel can set out early and ignore until 10 a.m. Watched TV news as I drank my coffee and ate my Texas-shaped waffle along with the 3/4s of the orange which still looked edible. No juice, eggs, sausage, or what you'd expect at pricier places. But what do you expect for the price? Desk clerk was very helpful. As I came in when just a few rooms were left, he looked for his top offering and gave me a free upgrade. The room was better than expected. Had large refrigerator, microwave, TV of course, ironing board and iron, hair blower. For a 70's (??) motel it was very well maintained. It was clean, the room (#247) was upstairs, away from the road, and quiet. Smelled better than some higher dollar motels. Best of all, the king bed was perfect!! Best sleep I've had in a long time.  It turned out time-wise to be farther from the Galleria than I'd expected and the traffic was heavier at 8 a.m. than I'd remembered. Give yourself plenty of time to get to wherever you are going in Dallas, as I did. Would I stay at Red Roof Addison again? If I could not find a free stay elsewhere, yes, and especially if a good night's sleep at a cheap price is my priority. Note that electrical outlets for C-PAP, sound machine are inconvenient; you might take an extension cord with a couple outlets on it with you.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109572-r317322404-Red_Roof_Inn_Suites_Addison-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>317322404</t>
+  </si>
+  <si>
+    <t>10/09/2015</t>
+  </si>
+  <si>
+    <t>Great WiFi</t>
+  </si>
+  <si>
+    <t>Red Roof just finished updating.  It used to be a Quality Inn.  Great improvement. WiFi rocks!  We got 30 megabits or so.  They are doing a good job.  Front desk dude (Curtis) is a gamer.  He bragged on the Internet capacity when I checked in.For the price, best deal in Addison.  MoreShow less</t>
+  </si>
+  <si>
+    <t>Red Roof just finished updating.  It used to be a Quality Inn.  Great improvement. WiFi rocks!  We got 30 megabits or so.  They are doing a good job.  Front desk dude (Curtis) is a gamer.  He bragged on the Internet capacity when I checked in.For the price, best deal in Addison.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109572-r299251891-Red_Roof_Inn_Suites_Addison-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>299251891</t>
+  </si>
+  <si>
+    <t>08/14/2015</t>
+  </si>
+  <si>
+    <t>1 week stay by local resident</t>
+  </si>
+  <si>
+    <t>I stayed here for a week and changed rooms 3 times. The people staying here are trucker types, hispanic workers, and people visiting in town. The hotel itself is pretty accommodating. They have a nice free breakfast with Texas shaped waffles, cereal, bagels, cinnamon rolls, muffins, bread, yogurt, fruit, juice machine, and oatmeal. The linens are clean and each room stayed in was clean. Bugwise, 2 crickets in one room. They have a fridge, microwave, and wifi in the rooms. My rooms were video monitored however with comments and they set the intensity high enough to go through clothes and sheets commenting on body, changing clothes, living there etc realtime. Very upset. The staff member Curtis who is ultra polite otherwise was in full knowledge of these as he made severam statements while there that allowing my room to be monitored was correct as a single and I could change rooms as often as I like but the problem will continue in each room. It did. I already changed hotels 5 times and this was the best deal but the issue was not resolved. Furthermore, there is access to adjacent rooms in some of the rooms which only the office has access to. This was given out and some people I know broke into my room and used a stun gun on me. Two of the men used the other double bed with the woman with them. They moved me...I stayed here for a week and changed rooms 3 times. The people staying here are trucker types, hispanic workers, and people visiting in town. The hotel itself is pretty accommodating. They have a nice free breakfast with Texas shaped waffles, cereal, bagels, cinnamon rolls, muffins, bread, yogurt, fruit, juice machine, and oatmeal. The linens are clean and each room stayed in was clean. Bugwise, 2 crickets in one room. They have a fridge, microwave, and wifi in the rooms. My rooms were video monitored however with comments and they set the intensity high enough to go through clothes and sheets commenting on body, changing clothes, living there etc realtime. Very upset. The staff member Curtis who is ultra polite otherwise was in full knowledge of these as he made severam statements while there that allowing my room to be monitored was correct as a single and I could change rooms as often as I like but the problem will continue in each room. It did. I already changed hotels 5 times and this was the best deal but the issue was not resolved. Furthermore, there is access to adjacent rooms in some of the rooms which only the office has access to. This was given out and some people I know broke into my room and used a stun gun on me. Two of the men used the other double bed with the woman with them. They moved me to the door area. They exited out the front door. The office allowed this invasion of privacy and breakin. I reported it to the manager and police. At least the manager took me seriously but I did not receive a refund. Without these problems I would have extended.my stay. Others I have known have experienced similar problems here.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>I stayed here for a week and changed rooms 3 times. The people staying here are trucker types, hispanic workers, and people visiting in town. The hotel itself is pretty accommodating. They have a nice free breakfast with Texas shaped waffles, cereal, bagels, cinnamon rolls, muffins, bread, yogurt, fruit, juice machine, and oatmeal. The linens are clean and each room stayed in was clean. Bugwise, 2 crickets in one room. They have a fridge, microwave, and wifi in the rooms. My rooms were video monitored however with comments and they set the intensity high enough to go through clothes and sheets commenting on body, changing clothes, living there etc realtime. Very upset. The staff member Curtis who is ultra polite otherwise was in full knowledge of these as he made severam statements while there that allowing my room to be monitored was correct as a single and I could change rooms as often as I like but the problem will continue in each room. It did. I already changed hotels 5 times and this was the best deal but the issue was not resolved. Furthermore, there is access to adjacent rooms in some of the rooms which only the office has access to. This was given out and some people I know broke into my room and used a stun gun on me. Two of the men used the other double bed with the woman with them. They moved me...I stayed here for a week and changed rooms 3 times. The people staying here are trucker types, hispanic workers, and people visiting in town. The hotel itself is pretty accommodating. They have a nice free breakfast with Texas shaped waffles, cereal, bagels, cinnamon rolls, muffins, bread, yogurt, fruit, juice machine, and oatmeal. The linens are clean and each room stayed in was clean. Bugwise, 2 crickets in one room. They have a fridge, microwave, and wifi in the rooms. My rooms were video monitored however with comments and they set the intensity high enough to go through clothes and sheets commenting on body, changing clothes, living there etc realtime. Very upset. The staff member Curtis who is ultra polite otherwise was in full knowledge of these as he made severam statements while there that allowing my room to be monitored was correct as a single and I could change rooms as often as I like but the problem will continue in each room. It did. I already changed hotels 5 times and this was the best deal but the issue was not resolved. Furthermore, there is access to adjacent rooms in some of the rooms which only the office has access to. This was given out and some people I know broke into my room and used a stun gun on me. Two of the men used the other double bed with the woman with them. They moved me to the door area. They exited out the front door. The office allowed this invasion of privacy and breakin. I reported it to the manager and police. At least the manager took me seriously but I did not receive a refund. Without these problems I would have extended.my stay. Others I have known have experienced similar problems here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109572-r279557182-Red_Roof_Inn_Suites_Addison-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>279557182</t>
+  </si>
+  <si>
+    <t>06/11/2015</t>
+  </si>
+  <si>
+    <t>Stay away!!!! Seriously!!!!</t>
+  </si>
+  <si>
+    <t>I had booked this hotel though booking.com for a weeks stay in June to visit my sister. I checked into the hotel and staff didn't even have my reservation properly reserved. We went up to our room and walked back out! It was nasty!!! They even gave us a "remodeled" room. Carpets were stained, pubic hair in the bathroom and just plain Dirty!!! Forgot to mention the prostitutes staying there Gross!!! I asked for my money back and stayed elsewhere!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>Texas45Lodging, General Manager at Red Roof Inn &amp; Suites Addison, responded to this reviewResponded June 15, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 15, 2015</t>
+  </si>
+  <si>
+    <t>I had booked this hotel though booking.com for a weeks stay in June to visit my sister. I checked into the hotel and staff didn't even have my reservation properly reserved. We went up to our room and walked back out! It was nasty!!! They even gave us a "remodeled" room. Carpets were stained, pubic hair in the bathroom and just plain Dirty!!! Forgot to mention the prostitutes staying there Gross!!! I asked for my money back and stayed elsewhere!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109572-r259577614-Red_Roof_Inn_Suites_Addison-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>259577614</t>
+  </si>
+  <si>
+    <t>03/15/2015</t>
+  </si>
+  <si>
+    <t>Paper thin windows = No sleep</t>
+  </si>
+  <si>
+    <t>Unless you will be barhopping in Addison until 2 am, or sleep like the dead, this hotel is not the place to go. Because all the rooms face the walkways, and the windows are so thin they don't cancel out any noise, you can hear every drunk person bumping EDM Or stumbling to their rooms who passes by. This is basically non stop until about 4 AM (we stayed on a Saturday night, BTW.)It's worth paying a little extra money or even staying at a Super 8 if you want to actually sleep. The hotel itself is okay, but basic.Sincerely, Exhausted and Never to Return. MoreShow less</t>
+  </si>
+  <si>
+    <t>Unless you will be barhopping in Addison until 2 am, or sleep like the dead, this hotel is not the place to go. Because all the rooms face the walkways, and the windows are so thin they don't cancel out any noise, you can hear every drunk person bumping EDM Or stumbling to their rooms who passes by. This is basically non stop until about 4 AM (we stayed on a Saturday night, BTW.)It's worth paying a little extra money or even staying at a Super 8 if you want to actually sleep. The hotel itself is okay, but basic.Sincerely, Exhausted and Never to Return. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109572-r257879259-Red_Roof_Inn_Suites_Addison-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>257879259</t>
+  </si>
+  <si>
+    <t>03/05/2015</t>
+  </si>
+  <si>
+    <t>Good Value and Service</t>
+  </si>
+  <si>
+    <t>I was very happy with my stay here. Beds are very comfortable,  room is good, breakfast tasty, and customer service excellent. It is a good value for your money. It is also close to  major routes and easy to get to. Overall, I was very satisfied.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>Texas45Lodging, General Manager at Red Roof Inn &amp; Suites Addison, responded to this reviewResponded March 13, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 13, 2015</t>
+  </si>
+  <si>
+    <t>I was very happy with my stay here. Beds are very comfortable,  room is good, breakfast tasty, and customer service excellent. It is a good value for your money. It is also close to  major routes and easy to get to. Overall, I was very satisfied.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109572-r235769464-Red_Roof_Inn_Suites_Addison-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>235769464</t>
+  </si>
+  <si>
+    <t>10/22/2014</t>
+  </si>
+  <si>
+    <t>VERY FRIENDLY, GREAT SERVICE, NICE LOCATION !</t>
+  </si>
+  <si>
+    <t>When I checking the personal of the hotel very friendly and smiling superwhen I get to my room clean and smelling fresh very nice location to walk and eat in a nice restaurants arrown nice continental breakfast in the morning when u wake up the room service allways ready to help in anything beautiful servicesI am more the happy and I stay week and half days here nice reastaurant in front the FLAVORS restaurant delicious food u have to tray FLAVORS restaurant nothing to complain 100 % satisfaing and Ill come back 1 and more times I recommend this hotel and the services that they give exelent thx !MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>When I checking the personal of the hotel very friendly and smiling superwhen I get to my room clean and smelling fresh very nice location to walk and eat in a nice restaurants arrown nice continental breakfast in the morning when u wake up the room service allways ready to help in anything beautiful servicesI am more the happy and I stay week and half days here nice reastaurant in front the FLAVORS restaurant delicious food u have to tray FLAVORS restaurant nothing to complain 100 % satisfaing and Ill come back 1 and more times I recommend this hotel and the services that they give exelent thx !More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109572-r226162531-Red_Roof_Inn_Suites_Addison-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>226162531</t>
+  </si>
+  <si>
+    <t>09/01/2014</t>
+  </si>
+  <si>
+    <t>Great service and great location</t>
+  </si>
+  <si>
+    <t>When checking in staff is superb and very friendly. Rooms are always clean.  Loved the location- convenient and easy to get to some of the nicest restaurant in the area.  Great place and location with great price. I would recommend staying here to anyone traveling to Addison,TX. MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>When checking in staff is superb and very friendly. Rooms are always clean.  Loved the location- convenient and easy to get to some of the nicest restaurant in the area.  Great place and location with great price. I would recommend staying here to anyone traveling to Addison,TX. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109572-r223296837-Red_Roof_Inn_Suites_Addison-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>223296837</t>
+  </si>
+  <si>
+    <t>08/20/2014</t>
+  </si>
+  <si>
+    <t>Excellent stay I would recommend this hotel to everyone.</t>
+  </si>
+  <si>
+    <t>It was really excellent stay with quality inn and suites addison texas. Very helpful staff and good breakfast. Swimming pool was really clean and they also have hot tub I booked jacuzzi room and it was working good morning breakfast was really good scrambled eggs sausage juices milk coofee was really really good I recommend this hotel to everyone and in that area there are so many different kinds of restaurant and food was great gas station and kroger is walking distance and preety silent outside not like any other places I have been stayed in so many different hotel but this is pretty decentMoreShow less</t>
+  </si>
+  <si>
+    <t>It was really excellent stay with quality inn and suites addison texas. Very helpful staff and good breakfast. Swimming pool was really clean and they also have hot tub I booked jacuzzi room and it was working good morning breakfast was really good scrambled eggs sausage juices milk coofee was really really good I recommend this hotel to everyone and in that area there are so many different kinds of restaurant and food was great gas station and kroger is walking distance and preety silent outside not like any other places I have been stayed in so many different hotel but this is pretty decentMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109572-r202719889-Red_Roof_Inn_Suites_Addison-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>202719889</t>
+  </si>
+  <si>
+    <t>04/25/2014</t>
+  </si>
+  <si>
+    <t>Great location to stay !!!</t>
+  </si>
+  <si>
+    <t>I came here for my business trip from Washington D.C, I stay in room  no 254  upstairs front side of pool. When I enter in room the smell was really nice room was very neat and clean and bed sheet was totally clean which was my first preference,  The bed was comfortable, the pillows were quite soft which i like most but overall the stay was very good  and staff was totally cooperative with during my entire stay they also help me in direction to place which I need to visit. And internet service was very comfortable so I can finish my work in timely manner. However overall experience during my stay was very comfortable and I would like to visit this place again.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>I came here for my business trip from Washington D.C, I stay in room  no 254  upstairs front side of pool. When I enter in room the smell was really nice room was very neat and clean and bed sheet was totally clean which was my first preference,  The bed was comfortable, the pillows were quite soft which i like most but overall the stay was very good  and staff was totally cooperative with during my entire stay they also help me in direction to place which I need to visit. And internet service was very comfortable so I can finish my work in timely manner. However overall experience during my stay was very comfortable and I would like to visit this place again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109572-r195893177-Red_Roof_Inn_Suites_Addison-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>195893177</t>
+  </si>
+  <si>
+    <t>03/02/2014</t>
+  </si>
+  <si>
+    <t>Older property, outside doors to rooms &amp; great location</t>
+  </si>
+  <si>
+    <t>Ok, check in was nice and simple, I was provided room 205, upstairs and facing away from the main street.  This was good, the room has one of those doors that can open to the nearby room, which is not one of my favorite features, something about this is just CREEPY for me. I didn't request for another room, because I was tired, but going forward I ll ask that question to ensure I don't have issues again.  The room appeared to be clean, the rug needs a little cleaning in some areas but it's just normal wear and use, the bathroom should be repainted, it looks a little dark in there. Also, I smelled a slight mildew odor coming from that area, so I whipped out the Lysol and began the spraying &amp; wipe down.  The bed was comfortable, the pillows were quite soft not to my liking but overall the stay was decent.  The room was rather large and there was not a micro/fridge, which I normally have in Quality Inn &amp; Suites locations, so I was somewhat surprised. The walls were rather thin, I could hear someone snoring in the next room, and I heard much discussions, through the adjoining room door, so the rest was not great. The breakfast was the run of the mill, yogurt, fruit, bagels, scrambled eggs &amp; sausage links.  Internet worked just fine w/ out any issues. 
+Over all the price point...Ok, check in was nice and simple, I was provided room 205, upstairs and facing away from the main street.  This was good, the room has one of those doors that can open to the nearby room, which is not one of my favorite features, something about this is just CREEPY for me. I didn't request for another room, because I was tired, but going forward I ll ask that question to ensure I don't have issues again.  The room appeared to be clean, the rug needs a little cleaning in some areas but it's just normal wear and use, the bathroom should be repainted, it looks a little dark in there. Also, I smelled a slight mildew odor coming from that area, so I whipped out the Lysol and began the spraying &amp; wipe down.  The bed was comfortable, the pillows were quite soft not to my liking but overall the stay was decent.  The room was rather large and there was not a micro/fridge, which I normally have in Quality Inn &amp; Suites locations, so I was somewhat surprised. The walls were rather thin, I could hear someone snoring in the next room, and I heard much discussions, through the adjoining room door, so the rest was not great. The breakfast was the run of the mill, yogurt, fruit, bagels, scrambled eggs &amp; sausage links.  Internet worked just fine w/ out any issues. Over all the price point is ok, but I probably would not stay here again, just my preference due to the doors &amp; the slow flushing toilet.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>Ok, check in was nice and simple, I was provided room 205, upstairs and facing away from the main street.  This was good, the room has one of those doors that can open to the nearby room, which is not one of my favorite features, something about this is just CREEPY for me. I didn't request for another room, because I was tired, but going forward I ll ask that question to ensure I don't have issues again.  The room appeared to be clean, the rug needs a little cleaning in some areas but it's just normal wear and use, the bathroom should be repainted, it looks a little dark in there. Also, I smelled a slight mildew odor coming from that area, so I whipped out the Lysol and began the spraying &amp; wipe down.  The bed was comfortable, the pillows were quite soft not to my liking but overall the stay was decent.  The room was rather large and there was not a micro/fridge, which I normally have in Quality Inn &amp; Suites locations, so I was somewhat surprised. The walls were rather thin, I could hear someone snoring in the next room, and I heard much discussions, through the adjoining room door, so the rest was not great. The breakfast was the run of the mill, yogurt, fruit, bagels, scrambled eggs &amp; sausage links.  Internet worked just fine w/ out any issues. 
+Over all the price point...Ok, check in was nice and simple, I was provided room 205, upstairs and facing away from the main street.  This was good, the room has one of those doors that can open to the nearby room, which is not one of my favorite features, something about this is just CREEPY for me. I didn't request for another room, because I was tired, but going forward I ll ask that question to ensure I don't have issues again.  The room appeared to be clean, the rug needs a little cleaning in some areas but it's just normal wear and use, the bathroom should be repainted, it looks a little dark in there. Also, I smelled a slight mildew odor coming from that area, so I whipped out the Lysol and began the spraying &amp; wipe down.  The bed was comfortable, the pillows were quite soft not to my liking but overall the stay was decent.  The room was rather large and there was not a micro/fridge, which I normally have in Quality Inn &amp; Suites locations, so I was somewhat surprised. The walls were rather thin, I could hear someone snoring in the next room, and I heard much discussions, through the adjoining room door, so the rest was not great. The breakfast was the run of the mill, yogurt, fruit, bagels, scrambled eggs &amp; sausage links.  Internet worked just fine w/ out any issues. Over all the price point is ok, but I probably would not stay here again, just my preference due to the doors &amp; the slow flushing toilet.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109572-r188960761-Red_Roof_Inn_Suites_Addison-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>188960761</t>
+  </si>
+  <si>
+    <t>12/29/2013</t>
+  </si>
+  <si>
+    <t>Not impressed in Addison</t>
+  </si>
+  <si>
+    <t>We had an average stay for breakfast and cleanliness.  Below average for internet usage and ambiance.  We asked for assistance with the internet connection a few times and was told it was fine.  However, it continued to be a spotty connection until the third day of our stay and then it was fine with no explanation.  This property seems to be frequented by truck drivers and long-term residents.  There was a domestic disturbance going on in the unit above ours to the point that we feared for our safety.  The management said they were aware of the problem.  One of the guests threw a large container of belongings over the 2nd floor railing and barely missed where our car had been parked just moments before we pulled out to leave for the day.  We are Choice members but will choose a higher level in their system in the future.  The location of this hotel around the 4100 block of Beltline is a few blocks west of all of the good restaurants and the interchange.  If you are looking for easy access to Dallas N Tollway and the Galleria, you should select one in the 4300-4500 block range of Beltline Road.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>We had an average stay for breakfast and cleanliness.  Below average for internet usage and ambiance.  We asked for assistance with the internet connection a few times and was told it was fine.  However, it continued to be a spotty connection until the third day of our stay and then it was fine with no explanation.  This property seems to be frequented by truck drivers and long-term residents.  There was a domestic disturbance going on in the unit above ours to the point that we feared for our safety.  The management said they were aware of the problem.  One of the guests threw a large container of belongings over the 2nd floor railing and barely missed where our car had been parked just moments before we pulled out to leave for the day.  We are Choice members but will choose a higher level in their system in the future.  The location of this hotel around the 4100 block of Beltline is a few blocks west of all of the good restaurants and the interchange.  If you are looking for easy access to Dallas N Tollway and the Galleria, you should select one in the 4300-4500 block range of Beltline Road.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109572-r150671868-Red_Roof_Inn_Suites_Addison-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>150671868</t>
+  </si>
+  <si>
+    <t>01/26/2013</t>
+  </si>
+  <si>
+    <t>Very Family friendly and Conveint</t>
+  </si>
+  <si>
+    <t>Very nice fitted rooms very helpful staff stayed their from 12/01/12-12/10/12 nice pool access and very helpful front desk people. Manager has amazing rates for long staying customers very friendly room service staff. Cheap price hotel rooms to stay in the Addison area very clean.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>Very nice fitted rooms very helpful staff stayed their from 12/01/12-12/10/12 nice pool access and very helpful front desk people. Manager has amazing rates for long staying customers very friendly room service staff. Cheap price hotel rooms to stay in the Addison area very clean.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109572-r143867034-Red_Roof_Inn_Suites_Addison-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>143867034</t>
+  </si>
+  <si>
+    <t>October 27, 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109572-r142728830-Red_Roof_Inn_Suites_Addison-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>142728830</t>
+  </si>
+  <si>
+    <t>October 13, 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109572-r135506333-Red_Roof_Inn_Suites_Addison-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>135506333</t>
+  </si>
+  <si>
+    <t>July 26, 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109572-r133408801-Red_Roof_Inn_Suites_Addison-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>133408801</t>
+  </si>
+  <si>
+    <t>07/03/2012</t>
+  </si>
+  <si>
+    <t>This hotel was most likely awesome in the 1980's and today still has all that same furniture</t>
+  </si>
+  <si>
+    <t>Old School outdoor access rooms. Worn, worn, worn, and ragged out some more. That in itself would be fine but unfortunately the hotel is simply DIRTY. Don't know who is doing the housekeeping around here but it is SAD. Crusty everything. Holes, stains, cracks etc. They should just bulldoze this place and start over, Oddly enough I slept well which is why I didn't give them 1 star. Better choices in Addison.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>Old School outdoor access rooms. Worn, worn, worn, and ragged out some more. That in itself would be fine but unfortunately the hotel is simply DIRTY. Don't know who is doing the housekeeping around here but it is SAD. Crusty everything. Holes, stains, cracks etc. They should just bulldoze this place and start over, Oddly enough I slept well which is why I didn't give them 1 star. Better choices in Addison.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109572-r131850547-Red_Roof_Inn_Suites_Addison-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>131850547</t>
+  </si>
+  <si>
+    <t>06/12/2012</t>
+  </si>
+  <si>
+    <t>The customer is never right...</t>
+  </si>
+  <si>
+    <t>My honest opinion is that this place is "not that bad"..but it's not so good either.
+I booked through a 3rd party site and was told that even though I booked for 2 weeks,
+(because I booked through the other site), I could not have a refrigerator or a microwave
+unless I paid 10 dollars per night.  That is 140 dollars for a refrigerator, that I
+could outright BUY for less!  Supposedly "managements hands were tied", but we all know
+that if they wanted me to have it, they could find a way, without trying to nickel and
+dime me for something that should be in ever hotel room and has been in every other hotel
+room I have ever stayed in.
+The pool is merky and always has leaves and bugs in it, so I never used it and I never
+saw anyone else brave enough to get in it either.  The hot tub is out of water and out
+of order and down right disgusting too.
+Breakfast was actually pretty good though I don't think those are real eggs...but at least
+everything was fresh and didn't taste bad.  (eggs, breakfast sausage links, bagels, Pastries,
+waffles, and an assortment of juices)
+The internet connection was fair.
+The room I saved for last..The moment I walked in to my room my heart sank.  I thought I had
+been magically transported to 1982.  It was awful (decor wise), but I accepted...My honest opinion is that this place is "not that bad"..but it's not so good either.I booked through a 3rd party site and was told that even though I booked for 2 weeks,(because I booked through the other site), I could not have a refrigerator or a microwaveunless I paid 10 dollars per night.  That is 140 dollars for a refrigerator, that Icould outright BUY for less!  Supposedly "managements hands were tied", but we all knowthat if they wanted me to have it, they could find a way, without trying to nickel anddime me for something that should be in ever hotel room and has been in every other hotelroom I have ever stayed in.The pool is merky and always has leaves and bugs in it, so I never used it and I neversaw anyone else brave enough to get in it either.  The hot tub is out of water and outof order and down right disgusting too.Breakfast was actually pretty good though I don't think those are real eggs...but at leasteverything was fresh and didn't taste bad.  (eggs, breakfast sausage links, bagels, Pastries,waffles, and an assortment of juices)The internet connection was fair.The room I saved for last..The moment I walked in to my room my heart sank.  I thought I hadbeen magically transported to 1982.  It was awful (decor wise), but I accepted it because itDID appear to be immaculantly clean.  That was until my son moved the dresser a little toplug his xbox into the tube (crt) type television.Behind the dresser was so much built up dirt, dirty tissues, papers and even someones debit card that expired in 2009..It is now the year 2012.The a/c was awesome, the lighting was minimal and made the room feel even more drab and depressed.The bathroom (that I called the suffocation room), is tiny.  Whether you take a cold or hot shower doesn't matter.  It's suffocating as no air flows through it.  (an no I didn't have the heat lamp on).The queen sized bed though was comfortable enough for a good nights sleep, and the hotel isn't fullof loud obnoxious people.  My guess is they are crying in their hotel rooms hard wooden chairs, as I did.It's good for a day or two..no more than that, and don't expect management to do anything but try to contradictanything you say and rationalize their shortcomings.  He is not interested in your satisfaction.MoreShow less</t>
+  </si>
+  <si>
+    <t>My honest opinion is that this place is "not that bad"..but it's not so good either.
+I booked through a 3rd party site and was told that even though I booked for 2 weeks,
+(because I booked through the other site), I could not have a refrigerator or a microwave
+unless I paid 10 dollars per night.  That is 140 dollars for a refrigerator, that I
+could outright BUY for less!  Supposedly "managements hands were tied", but we all know
+that if they wanted me to have it, they could find a way, without trying to nickel and
+dime me for something that should be in ever hotel room and has been in every other hotel
+room I have ever stayed in.
+The pool is merky and always has leaves and bugs in it, so I never used it and I never
+saw anyone else brave enough to get in it either.  The hot tub is out of water and out
+of order and down right disgusting too.
+Breakfast was actually pretty good though I don't think those are real eggs...but at least
+everything was fresh and didn't taste bad.  (eggs, breakfast sausage links, bagels, Pastries,
+waffles, and an assortment of juices)
+The internet connection was fair.
+The room I saved for last..The moment I walked in to my room my heart sank.  I thought I had
+been magically transported to 1982.  It was awful (decor wise), but I accepted...My honest opinion is that this place is "not that bad"..but it's not so good either.I booked through a 3rd party site and was told that even though I booked for 2 weeks,(because I booked through the other site), I could not have a refrigerator or a microwaveunless I paid 10 dollars per night.  That is 140 dollars for a refrigerator, that Icould outright BUY for less!  Supposedly "managements hands were tied", but we all knowthat if they wanted me to have it, they could find a way, without trying to nickel anddime me for something that should be in ever hotel room and has been in every other hotelroom I have ever stayed in.The pool is merky and always has leaves and bugs in it, so I never used it and I neversaw anyone else brave enough to get in it either.  The hot tub is out of water and outof order and down right disgusting too.Breakfast was actually pretty good though I don't think those are real eggs...but at leasteverything was fresh and didn't taste bad.  (eggs, breakfast sausage links, bagels, Pastries,waffles, and an assortment of juices)The internet connection was fair.The room I saved for last..The moment I walked in to my room my heart sank.  I thought I hadbeen magically transported to 1982.  It was awful (decor wise), but I accepted it because itDID appear to be immaculantly clean.  That was until my son moved the dresser a little toplug his xbox into the tube (crt) type television.Behind the dresser was so much built up dirt, dirty tissues, papers and even someones debit card that expired in 2009..It is now the year 2012.The a/c was awesome, the lighting was minimal and made the room feel even more drab and depressed.The bathroom (that I called the suffocation room), is tiny.  Whether you take a cold or hot shower doesn't matter.  It's suffocating as no air flows through it.  (an no I didn't have the heat lamp on).The queen sized bed though was comfortable enough for a good nights sleep, and the hotel isn't fullof loud obnoxious people.  My guess is they are crying in their hotel rooms hard wooden chairs, as I did.It's good for a day or two..no more than that, and don't expect management to do anything but try to contradictanything you say and rationalize their shortcomings.  He is not interested in your satisfaction.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109572-r75991426-Red_Roof_Inn_Suites_Addison-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>75991426</t>
+  </si>
+  <si>
+    <t>08/19/2010</t>
+  </si>
+  <si>
+    <t>An absolutely hidden gem!!</t>
+  </si>
+  <si>
+    <t>After five previous visits to Texas, each time staying at a Suburban Extended Stay Hotel, I was greatly surprised and incredibly delighted to have found a new, better accommodation for future visits to America. Whilst the Quality Inn may not look like much from outside, the  rooms are sizeable, immaculately clean and comfortable, and come with a variety of amenities such as a microwave and a refrigerator. The free breakfast provided each day has a mass of options to suit any appetite and free coffee is provided all day.The rooms, the pool, hot tub, in fact everywhere I saw was cleaned and maintained every single day by friendly, caring staff who are happy to help with any query or need you may have. I will definitely be recommending this hotel to everyone for future visits to this area and is the only place I will stay on my return to Texas.MoreShow less</t>
+  </si>
+  <si>
+    <t>After five previous visits to Texas, each time staying at a Suburban Extended Stay Hotel, I was greatly surprised and incredibly delighted to have found a new, better accommodation for future visits to America. Whilst the Quality Inn may not look like much from outside, the  rooms are sizeable, immaculately clean and comfortable, and come with a variety of amenities such as a microwave and a refrigerator. The free breakfast provided each day has a mass of options to suit any appetite and free coffee is provided all day.The rooms, the pool, hot tub, in fact everywhere I saw was cleaned and maintained every single day by friendly, caring staff who are happy to help with any query or need you may have. I will definitely be recommending this hotel to everyone for future visits to this area and is the only place I will stay on my return to Texas.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109572-r75100830-Red_Roof_Inn_Suites_Addison-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>75100830</t>
+  </si>
+  <si>
+    <t>08/13/2010</t>
+  </si>
+  <si>
+    <t>They should remove "Quality" from the name</t>
+  </si>
+  <si>
+    <t>I have to admit, I only spend 20 minutes there. But it might have been the LONGEST 20 minutes I ever spent in a motel room. After checking in, we went around the back to our room and saw that it was a bare-bones, very basic room with nothing to put a smile on my face. My wife wouldn't go more than 4 steps and begged me to book something (anything) else. We grabbed our bags and headed for the front desk. When I told them I was canceling, they told me it had been more than 15 minutes so it was considered a "stay" Therefore, no refund. I pleaded my case to no avail. So we went over to the Holiday Inn Express and had a great room. But I learned a lesson and should have looked at the room BEFORE giving them a credit card. For the low price it might be worthwhile if you are "really" desperate, but we weren't. Or take your chances.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2010</t>
+  </si>
+  <si>
+    <t>I have to admit, I only spend 20 minutes there. But it might have been the LONGEST 20 minutes I ever spent in a motel room. After checking in, we went around the back to our room and saw that it was a bare-bones, very basic room with nothing to put a smile on my face. My wife wouldn't go more than 4 steps and begged me to book something (anything) else. We grabbed our bags and headed for the front desk. When I told them I was canceling, they told me it had been more than 15 minutes so it was considered a "stay" Therefore, no refund. I pleaded my case to no avail. So we went over to the Holiday Inn Express and had a great room. But I learned a lesson and should have looked at the room BEFORE giving them a credit card. For the low price it might be worthwhile if you are "really" desperate, but we weren't. Or take your chances.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109572-r63151394-Red_Roof_Inn_Suites_Addison-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>63151394</t>
+  </si>
+  <si>
+    <t>05/03/2010</t>
+  </si>
+  <si>
+    <t>Management and housekeeping A+</t>
+  </si>
+  <si>
+    <t>Thank God for the law firm. johnvmcshane.com  As a friend and guest of this Inn &amp; Suites .And on a long term stay. The front desk. Mr. Patel as well as housekeeping have gone the extra mile.Compared to the other low budget and high priced hotels. I find it a 'point to point' application for my continued stay.The continental breakfast pool and spa  are well maintained. Housekeeping is prompt and on time.From waiting at the front desk at the Ramada (NY) to the hotels in Hawaii ( where I lived for a few years) the fact that my funds drive revenue not to deplete the smile on my face is a given here.I am,Maurice G. MorlanMoreShow less</t>
+  </si>
+  <si>
+    <t>April 2010</t>
+  </si>
+  <si>
+    <t>Thank God for the law firm. johnvmcshane.com  As a friend and guest of this Inn &amp; Suites .And on a long term stay. The front desk. Mr. Patel as well as housekeeping have gone the extra mile.Compared to the other low budget and high priced hotels. I find it a 'point to point' application for my continued stay.The continental breakfast pool and spa  are well maintained. Housekeeping is prompt and on time.From waiting at the front desk at the Ramada (NY) to the hotels in Hawaii ( where I lived for a few years) the fact that my funds drive revenue not to deplete the smile on my face is a given here.I am,Maurice G. MorlanMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109572-r19468952-Red_Roof_Inn_Suites_Addison-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>19468952</t>
+  </si>
+  <si>
+    <t>08/28/2008</t>
+  </si>
+  <si>
+    <t>Great place, great price!</t>
+  </si>
+  <si>
+    <t>My husband and I stayed at the Quality Inn in Addison, and we really enjoyed it! The room was clean, there was a complementary breakfast, and there wasn't a lot of noise even though there was plenty of guests. The location was great, there were plenty of restaurants nearby, and the major roads were just a short distance away. Additional places that are nearby that you should visit:The Galleria MallBJ's RestaurantIkeaMoreShow less</t>
+  </si>
+  <si>
+    <t>August 2008</t>
+  </si>
+  <si>
+    <t>My husband and I stayed at the Quality Inn in Addison, and we really enjoyed it! The room was clean, there was a complementary breakfast, and there wasn't a lot of noise even though there was plenty of guests. The location was great, there were plenty of restaurants nearby, and the major roads were just a short distance away. Additional places that are nearby that you should visit:The Galleria MallBJ's RestaurantIkeaMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109572-r14560617-Red_Roof_Inn_Suites_Addison-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>14560617</t>
+  </si>
+  <si>
+    <t>03/26/2008</t>
+  </si>
+  <si>
+    <t>Would Stay There Again~</t>
+  </si>
+  <si>
+    <t>Went to Addison for daughters wedding. Had many requirements for a hotel &amp; Quality Inns met them all for myself &amp; my family. The staff were so nice so that was an added plus! Great location as well as convenient to everywhere we needed to go the week we were there.I would recommend this hotel to others &amp; would stay there again if I return to the Addison area!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2008</t>
+  </si>
+  <si>
+    <t>Went to Addison for daughters wedding. Had many requirements for a hotel &amp; Quality Inns met them all for myself &amp; my family. The staff were so nice so that was an added plus! Great location as well as convenient to everywhere we needed to go the week we were there.I would recommend this hotel to others &amp; would stay there again if I return to the Addison area!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109572-r10814420-Red_Roof_Inn_Suites_Addison-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>10814420</t>
+  </si>
+  <si>
+    <t>11/14/2007</t>
+  </si>
+  <si>
+    <t>O.K. hotel- it will work in a pinch.</t>
+  </si>
+  <si>
+    <t>Hotel was formerly an apartment complex.  The guy at the front desk is less than helpful.  I asked him to help me set up my internet and he basically refused saying that "no one else complained about it".  The wireless net is not great.  It only works sporadically and I never have problems anywhere else with my wireless card in my laptop.  The bath towels were paper-thin and had stains on them.  The bed was decent as far as comfort is concerned.  The T.V. worked fine in the room.  The location is close to several restaurants and is close enough to the tollway.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2007</t>
+  </si>
+  <si>
+    <t>Hotel was formerly an apartment complex.  The guy at the front desk is less than helpful.  I asked him to help me set up my internet and he basically refused saying that "no one else complained about it".  The wireless net is not great.  It only works sporadically and I never have problems anywhere else with my wireless card in my laptop.  The bath towels were paper-thin and had stains on them.  The bed was decent as far as comfort is concerned.  The T.V. worked fine in the room.  The location is close to several restaurants and is close enough to the tollway.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109572-r7485527-Red_Roof_Inn_Suites_Addison-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>7485527</t>
+  </si>
+  <si>
+    <t>04/29/2007</t>
+  </si>
+  <si>
+    <t>One of the worst places I've ever stayed</t>
+  </si>
+  <si>
+    <t>I went to the Quality Inn in Addison, TX for a weekend with my fiancee. I had called ahead and left his name and personal info with the hotel so he could check in ahead of me, since he would be arriving first. When he got there they wouldnt let him check in and he had to wait in the lobby for me. The 1st room we were given had not actually been cleaned since its last occupant. We got our room switched and expected that would be the last of our trouble. Our new room had a fist-size hole punched in the bathroom door and the light didnt work, but hey, just a weekend right? We could deal with it. The
+internet didnt work which made getting directions around town a bit more difficult but the hotel did give us a map. They also gave us a wake up call at 6am the next morning by mistake. We left for the day and the maid was cleaning the room when we got back. She left and we went in to find that my fiancee's shirt, which he had hung over the bathroom towel rack to un-wrinkle, had somehow gone for a swim in the
+toilet while she was there. At this point we were afraid to even try the laundry facilities so my fiancee just recycled his previous shirt
+the next morning. And the next morning started a bit...I went to the Quality Inn in Addison, TX for a weekend with my fiancee. I had called ahead and left his name and personal info with the hotel so he could check in ahead of me, since he would be arriving first. When he got there they wouldnt let him check in and he had to wait in the lobby for me. The 1st room we were given had not actually been cleaned since its last occupant. We got our room switched and expected that would be the last of our trouble. Our new room had a fist-size hole punched in the bathroom door and the light didnt work, but hey, just a weekend right? We could deal with it. Theinternet didnt work which made getting directions around town a bit more difficult but the hotel did give us a map. They also gave us a wake up call at 6am the next morning by mistake. We left for the day and the maid was cleaning the room when we got back. She left and we went in to find that my fiancee's shirt, which he had hung over the bathroom towel rack to un-wrinkle, had somehow gone for a swim in thetoilet while she was there. At this point we were afraid to even try the laundry facilities so my fiancee just recycled his previous shirtthe next morning. And the next morning started a bit early too, with an automated 8am wake up call reminding us to check out by noon. We were out by 9. For the $56/night we paid to stay there it wasn't worth the headache. We could have gotten a nicer room just about anywhere else.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2007</t>
+  </si>
+  <si>
+    <t>I went to the Quality Inn in Addison, TX for a weekend with my fiancee. I had called ahead and left his name and personal info with the hotel so he could check in ahead of me, since he would be arriving first. When he got there they wouldnt let him check in and he had to wait in the lobby for me. The 1st room we were given had not actually been cleaned since its last occupant. We got our room switched and expected that would be the last of our trouble. Our new room had a fist-size hole punched in the bathroom door and the light didnt work, but hey, just a weekend right? We could deal with it. The
+internet didnt work which made getting directions around town a bit more difficult but the hotel did give us a map. They also gave us a wake up call at 6am the next morning by mistake. We left for the day and the maid was cleaning the room when we got back. She left and we went in to find that my fiancee's shirt, which he had hung over the bathroom towel rack to un-wrinkle, had somehow gone for a swim in the
+toilet while she was there. At this point we were afraid to even try the laundry facilities so my fiancee just recycled his previous shirt
+the next morning. And the next morning started a bit...I went to the Quality Inn in Addison, TX for a weekend with my fiancee. I had called ahead and left his name and personal info with the hotel so he could check in ahead of me, since he would be arriving first. When he got there they wouldnt let him check in and he had to wait in the lobby for me. The 1st room we were given had not actually been cleaned since its last occupant. We got our room switched and expected that would be the last of our trouble. Our new room had a fist-size hole punched in the bathroom door and the light didnt work, but hey, just a weekend right? We could deal with it. Theinternet didnt work which made getting directions around town a bit more difficult but the hotel did give us a map. They also gave us a wake up call at 6am the next morning by mistake. We left for the day and the maid was cleaning the room when we got back. She left and we went in to find that my fiancee's shirt, which he had hung over the bathroom towel rack to un-wrinkle, had somehow gone for a swim in thetoilet while she was there. At this point we were afraid to even try the laundry facilities so my fiancee just recycled his previous shirtthe next morning. And the next morning started a bit early too, with an automated 8am wake up call reminding us to check out by noon. We were out by 9. For the $56/night we paid to stay there it wasn't worth the headache. We could have gotten a nicer room just about anywhere else.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109572-r7432320-Red_Roof_Inn_Suites_Addison-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>7432320</t>
+  </si>
+  <si>
+    <t>04/24/2007</t>
+  </si>
+  <si>
+    <t>Find Another Place</t>
+  </si>
+  <si>
+    <t>I have just returned from a 3 night stay at this motel.  While the rate is tempting I must say, you get what you pay for.  Our room was on the back side of the motel and was quiet for the most part.  Our first night, Saturday night, there was a loud party in the complex and I was disappointed that this behavior was tolerated.The place was clean but worn.  Not enough towels delivered to the room for 2 people and cigarette burned sheets on the bed one night..  If I had to do it all over again, I would stay someplace else.Joan in ColoradoMoreShow less</t>
+  </si>
+  <si>
+    <t>I have just returned from a 3 night stay at this motel.  While the rate is tempting I must say, you get what you pay for.  Our room was on the back side of the motel and was quiet for the most part.  Our first night, Saturday night, there was a loud party in the complex and I was disappointed that this behavior was tolerated.The place was clean but worn.  Not enough towels delivered to the room for 2 people and cigarette burned sheets on the bed one night..  If I had to do it all over again, I would stay someplace else.Joan in ColoradoMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109572-r6337787-Red_Roof_Inn_Suites_Addison-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>6337787</t>
+  </si>
+  <si>
+    <t>12/05/2006</t>
+  </si>
+  <si>
+    <t>Great Deal</t>
+  </si>
+  <si>
+    <t>The Quality Inn Addison is my regular North Dallas hotel.The hotel is older but the rooms and property arfe in great shape.Close to everything in popular North Dallas!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2006</t>
+  </si>
+  <si>
+    <t>The Quality Inn Addison is my regular North Dallas hotel.The hotel is older but the rooms and property arfe in great shape.Close to everything in popular North Dallas!More</t>
   </si>
 </sst>
 </file>
@@ -648,6 +2606,5354 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>3558</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>4</v>
+      </c>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>4</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3558</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>62</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>54</v>
+      </c>
+      <c r="X3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3558</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O4" t="s">
+        <v>69</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1</v>
+      </c>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>1</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>70</v>
+      </c>
+      <c r="X4" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3558</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J5" t="s">
+        <v>75</v>
+      </c>
+      <c r="K5" t="s">
+        <v>76</v>
+      </c>
+      <c r="L5" t="s">
+        <v>77</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>78</v>
+      </c>
+      <c r="O5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="n">
+        <v>4</v>
+      </c>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>4</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>79</v>
+      </c>
+      <c r="X5" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>3558</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>83</v>
+      </c>
+      <c r="J6" t="s">
+        <v>84</v>
+      </c>
+      <c r="K6" t="s">
+        <v>85</v>
+      </c>
+      <c r="L6" t="s">
+        <v>86</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>87</v>
+      </c>
+      <c r="O6" t="s">
+        <v>69</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>2</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>88</v>
+      </c>
+      <c r="X6" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>3558</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>92</v>
+      </c>
+      <c r="J7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K7" t="s">
+        <v>94</v>
+      </c>
+      <c r="L7" t="s">
+        <v>95</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>96</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>97</v>
+      </c>
+      <c r="X7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>3558</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>100</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>101</v>
+      </c>
+      <c r="J8" t="s">
+        <v>102</v>
+      </c>
+      <c r="K8" t="s">
+        <v>103</v>
+      </c>
+      <c r="L8" t="s">
+        <v>104</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>105</v>
+      </c>
+      <c r="O8" t="s">
+        <v>69</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>106</v>
+      </c>
+      <c r="X8" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>3558</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>109</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>110</v>
+      </c>
+      <c r="J9" t="s">
+        <v>111</v>
+      </c>
+      <c r="K9" t="s">
+        <v>112</v>
+      </c>
+      <c r="L9" t="s">
+        <v>113</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>114</v>
+      </c>
+      <c r="O9" t="s">
+        <v>115</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>116</v>
+      </c>
+      <c r="X9" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>3558</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>119</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>120</v>
+      </c>
+      <c r="J10" t="s">
+        <v>121</v>
+      </c>
+      <c r="K10" t="s">
+        <v>122</v>
+      </c>
+      <c r="L10" t="s">
+        <v>123</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>114</v>
+      </c>
+      <c r="O10" t="s">
+        <v>115</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>124</v>
+      </c>
+      <c r="X10" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>3558</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>127</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>128</v>
+      </c>
+      <c r="J11" t="s">
+        <v>129</v>
+      </c>
+      <c r="K11" t="s">
+        <v>130</v>
+      </c>
+      <c r="L11" t="s">
+        <v>131</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>132</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="n">
+        <v>4</v>
+      </c>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>4</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>133</v>
+      </c>
+      <c r="X11" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>3558</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>136</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>137</v>
+      </c>
+      <c r="J12" t="s">
+        <v>129</v>
+      </c>
+      <c r="K12" t="s">
+        <v>138</v>
+      </c>
+      <c r="L12" t="s">
+        <v>139</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="s">
+        <v>132</v>
+      </c>
+      <c r="O12" t="s">
+        <v>140</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="n">
+        <v>4</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>3</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>133</v>
+      </c>
+      <c r="X12" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>3558</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>142</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>143</v>
+      </c>
+      <c r="J13" t="s">
+        <v>144</v>
+      </c>
+      <c r="K13" t="s">
+        <v>145</v>
+      </c>
+      <c r="L13" t="s">
+        <v>146</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>132</v>
+      </c>
+      <c r="O13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>147</v>
+      </c>
+      <c r="X13" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>3558</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>150</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>151</v>
+      </c>
+      <c r="J14" t="s">
+        <v>152</v>
+      </c>
+      <c r="K14" t="s">
+        <v>153</v>
+      </c>
+      <c r="L14" t="s">
+        <v>154</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>155</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="n">
+        <v>5</v>
+      </c>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>156</v>
+      </c>
+      <c r="X14" t="s">
+        <v>157</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>3558</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>159</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>160</v>
+      </c>
+      <c r="J15" t="s">
+        <v>161</v>
+      </c>
+      <c r="K15" t="s">
+        <v>162</v>
+      </c>
+      <c r="L15" t="s">
+        <v>163</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>155</v>
+      </c>
+      <c r="O15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>164</v>
+      </c>
+      <c r="X15" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>3558</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>167</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>168</v>
+      </c>
+      <c r="J16" t="s">
+        <v>169</v>
+      </c>
+      <c r="K16" t="s">
+        <v>170</v>
+      </c>
+      <c r="L16" t="s">
+        <v>171</v>
+      </c>
+      <c r="M16" t="n">
+        <v>3</v>
+      </c>
+      <c r="N16" t="s">
+        <v>172</v>
+      </c>
+      <c r="O16" t="s">
+        <v>140</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>164</v>
+      </c>
+      <c r="X16" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>3558</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>174</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>175</v>
+      </c>
+      <c r="J17" t="s">
+        <v>176</v>
+      </c>
+      <c r="K17" t="s">
+        <v>177</v>
+      </c>
+      <c r="L17" t="s">
+        <v>178</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>179</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>180</v>
+      </c>
+      <c r="X17" t="s">
+        <v>181</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>3558</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>183</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>184</v>
+      </c>
+      <c r="J18" t="s">
+        <v>185</v>
+      </c>
+      <c r="K18" t="s">
+        <v>186</v>
+      </c>
+      <c r="L18" t="s">
+        <v>187</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" t="s">
+        <v>188</v>
+      </c>
+      <c r="O18" t="s">
+        <v>140</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>189</v>
+      </c>
+      <c r="X18" t="s">
+        <v>190</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>3558</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>192</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>193</v>
+      </c>
+      <c r="J19" t="s">
+        <v>185</v>
+      </c>
+      <c r="K19" t="s">
+        <v>194</v>
+      </c>
+      <c r="L19" t="s">
+        <v>195</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>188</v>
+      </c>
+      <c r="O19" t="s">
+        <v>69</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>189</v>
+      </c>
+      <c r="X19" t="s">
+        <v>190</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>3558</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>197</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>198</v>
+      </c>
+      <c r="J20" t="s">
+        <v>199</v>
+      </c>
+      <c r="K20" t="s">
+        <v>200</v>
+      </c>
+      <c r="L20" t="s">
+        <v>201</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>188</v>
+      </c>
+      <c r="O20" t="s">
+        <v>69</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>202</v>
+      </c>
+      <c r="X20" t="s">
+        <v>203</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>3558</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>205</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>206</v>
+      </c>
+      <c r="J21" t="s">
+        <v>207</v>
+      </c>
+      <c r="K21" t="s">
+        <v>208</v>
+      </c>
+      <c r="L21" t="s">
+        <v>209</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>210</v>
+      </c>
+      <c r="O21" t="s">
+        <v>140</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>4</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>211</v>
+      </c>
+      <c r="X21" t="s">
+        <v>212</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>3558</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>214</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>215</v>
+      </c>
+      <c r="J22" t="s">
+        <v>216</v>
+      </c>
+      <c r="K22" t="s">
+        <v>217</v>
+      </c>
+      <c r="L22" t="s">
+        <v>218</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>210</v>
+      </c>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>219</v>
+      </c>
+      <c r="X22" t="s">
+        <v>220</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>3558</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>222</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>223</v>
+      </c>
+      <c r="J23" t="s">
+        <v>224</v>
+      </c>
+      <c r="K23" t="s">
+        <v>225</v>
+      </c>
+      <c r="L23" t="s">
+        <v>226</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>210</v>
+      </c>
+      <c r="O23" t="s">
+        <v>115</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>227</v>
+      </c>
+      <c r="X23" t="s">
+        <v>228</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>3558</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>230</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>231</v>
+      </c>
+      <c r="J24" t="s">
+        <v>232</v>
+      </c>
+      <c r="K24" t="s">
+        <v>233</v>
+      </c>
+      <c r="L24" t="s">
+        <v>234</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" t="s">
+        <v>210</v>
+      </c>
+      <c r="O24" t="s">
+        <v>53</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>235</v>
+      </c>
+      <c r="X24" t="s">
+        <v>236</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>3558</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>238</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>239</v>
+      </c>
+      <c r="J25" t="s">
+        <v>240</v>
+      </c>
+      <c r="K25" t="s">
+        <v>241</v>
+      </c>
+      <c r="L25" t="s">
+        <v>242</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>210</v>
+      </c>
+      <c r="O25" t="s">
+        <v>140</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>243</v>
+      </c>
+      <c r="X25" t="s">
+        <v>244</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>3558</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>246</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>247</v>
+      </c>
+      <c r="J26" t="s">
+        <v>248</v>
+      </c>
+      <c r="K26" t="s">
+        <v>249</v>
+      </c>
+      <c r="L26" t="s">
+        <v>250</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>251</v>
+      </c>
+      <c r="O26" t="s">
+        <v>140</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>252</v>
+      </c>
+      <c r="X26" t="s">
+        <v>253</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>3558</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>255</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>256</v>
+      </c>
+      <c r="J27" t="s">
+        <v>257</v>
+      </c>
+      <c r="K27" t="s">
+        <v>258</v>
+      </c>
+      <c r="L27" t="s">
+        <v>259</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>251</v>
+      </c>
+      <c r="O27" t="s">
+        <v>115</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>260</v>
+      </c>
+      <c r="X27" t="s">
+        <v>261</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>3558</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>263</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>264</v>
+      </c>
+      <c r="J28" t="s">
+        <v>265</v>
+      </c>
+      <c r="K28" t="s">
+        <v>266</v>
+      </c>
+      <c r="L28" t="s">
+        <v>267</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>251</v>
+      </c>
+      <c r="O28" t="s">
+        <v>69</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="n">
+        <v>3</v>
+      </c>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>268</v>
+      </c>
+      <c r="X28" t="s">
+        <v>269</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>3558</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>271</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>272</v>
+      </c>
+      <c r="J29" t="s">
+        <v>273</v>
+      </c>
+      <c r="K29" t="s">
+        <v>274</v>
+      </c>
+      <c r="L29" t="s">
+        <v>275</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>251</v>
+      </c>
+      <c r="O29" t="s">
+        <v>115</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>276</v>
+      </c>
+      <c r="X29" t="s">
+        <v>277</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>3558</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>279</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>280</v>
+      </c>
+      <c r="J30" t="s">
+        <v>281</v>
+      </c>
+      <c r="K30" t="s">
+        <v>282</v>
+      </c>
+      <c r="L30" t="s">
+        <v>283</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>284</v>
+      </c>
+      <c r="O30" t="s">
+        <v>53</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>285</v>
+      </c>
+      <c r="X30" t="s">
+        <v>286</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>3558</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>288</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>289</v>
+      </c>
+      <c r="J31" t="s">
+        <v>290</v>
+      </c>
+      <c r="K31" t="s">
+        <v>291</v>
+      </c>
+      <c r="L31" t="s">
+        <v>292</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>284</v>
+      </c>
+      <c r="O31" t="s">
+        <v>69</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>293</v>
+      </c>
+      <c r="X31" t="s">
+        <v>294</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>3558</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>296</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>297</v>
+      </c>
+      <c r="J32" t="s">
+        <v>298</v>
+      </c>
+      <c r="K32" t="s">
+        <v>299</v>
+      </c>
+      <c r="L32" t="s">
+        <v>300</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>284</v>
+      </c>
+      <c r="O32" t="s">
+        <v>69</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>301</v>
+      </c>
+      <c r="X32" t="s">
+        <v>302</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>3558</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>304</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>305</v>
+      </c>
+      <c r="J33" t="s">
+        <v>298</v>
+      </c>
+      <c r="K33" t="s">
+        <v>306</v>
+      </c>
+      <c r="L33" t="s">
+        <v>307</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>284</v>
+      </c>
+      <c r="O33" t="s">
+        <v>140</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>301</v>
+      </c>
+      <c r="X33" t="s">
+        <v>302</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>3558</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>309</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>310</v>
+      </c>
+      <c r="J34" t="s">
+        <v>311</v>
+      </c>
+      <c r="K34" t="s">
+        <v>312</v>
+      </c>
+      <c r="L34" t="s">
+        <v>313</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>284</v>
+      </c>
+      <c r="O34" t="s">
+        <v>69</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>314</v>
+      </c>
+      <c r="X34" t="s">
+        <v>315</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>3558</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>317</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>318</v>
+      </c>
+      <c r="J35" t="s">
+        <v>319</v>
+      </c>
+      <c r="K35" t="s">
+        <v>320</v>
+      </c>
+      <c r="L35" t="s">
+        <v>321</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>322</v>
+      </c>
+      <c r="O35" t="s">
+        <v>53</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="s"/>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>323</v>
+      </c>
+      <c r="X35" t="s">
+        <v>324</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>3558</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>326</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>327</v>
+      </c>
+      <c r="J36" t="s">
+        <v>328</v>
+      </c>
+      <c r="K36" t="s">
+        <v>329</v>
+      </c>
+      <c r="L36" t="s">
+        <v>330</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>331</v>
+      </c>
+      <c r="O36" t="s">
+        <v>115</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>332</v>
+      </c>
+      <c r="X36" t="s">
+        <v>333</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>3558</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>335</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>336</v>
+      </c>
+      <c r="J37" t="s">
+        <v>337</v>
+      </c>
+      <c r="K37" t="s">
+        <v>338</v>
+      </c>
+      <c r="L37" t="s">
+        <v>339</v>
+      </c>
+      <c r="M37" t="n">
+        <v>3</v>
+      </c>
+      <c r="N37" t="s">
+        <v>331</v>
+      </c>
+      <c r="O37" t="s">
+        <v>115</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="s"/>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>340</v>
+      </c>
+      <c r="X37" t="s">
+        <v>341</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>3558</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>343</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>344</v>
+      </c>
+      <c r="J38" t="s">
+        <v>345</v>
+      </c>
+      <c r="K38" t="s">
+        <v>346</v>
+      </c>
+      <c r="L38" t="s">
+        <v>347</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>348</v>
+      </c>
+      <c r="O38" t="s">
+        <v>69</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="s"/>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>349</v>
+      </c>
+      <c r="X38" t="s">
+        <v>350</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>3558</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>352</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>353</v>
+      </c>
+      <c r="J39" t="s">
+        <v>354</v>
+      </c>
+      <c r="K39" t="s">
+        <v>355</v>
+      </c>
+      <c r="L39" t="s">
+        <v>356</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>331</v>
+      </c>
+      <c r="O39" t="s">
+        <v>115</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>349</v>
+      </c>
+      <c r="X39" t="s">
+        <v>350</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>3558</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>358</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>359</v>
+      </c>
+      <c r="J40" t="s">
+        <v>360</v>
+      </c>
+      <c r="K40" t="s">
+        <v>361</v>
+      </c>
+      <c r="L40" t="s">
+        <v>362</v>
+      </c>
+      <c r="M40" t="n">
+        <v>2</v>
+      </c>
+      <c r="N40" t="s">
+        <v>331</v>
+      </c>
+      <c r="O40" t="s">
+        <v>69</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="s"/>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>363</v>
+      </c>
+      <c r="X40" t="s">
+        <v>364</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>3558</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>366</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>367</v>
+      </c>
+      <c r="J41" t="s">
+        <v>368</v>
+      </c>
+      <c r="K41" t="s">
+        <v>369</v>
+      </c>
+      <c r="L41" t="s">
+        <v>370</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>331</v>
+      </c>
+      <c r="O41" t="s">
+        <v>115</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="s"/>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>371</v>
+      </c>
+      <c r="X41" t="s">
+        <v>372</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>3558</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>374</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>375</v>
+      </c>
+      <c r="J42" t="s">
+        <v>376</v>
+      </c>
+      <c r="K42" t="s">
+        <v>377</v>
+      </c>
+      <c r="L42" t="s">
+        <v>378</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>331</v>
+      </c>
+      <c r="O42" t="s">
+        <v>115</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="s"/>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>379</v>
+      </c>
+      <c r="X42" t="s">
+        <v>380</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>3558</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>382</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>383</v>
+      </c>
+      <c r="J43" t="s">
+        <v>384</v>
+      </c>
+      <c r="K43" t="s">
+        <v>385</v>
+      </c>
+      <c r="L43" t="s">
+        <v>386</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>331</v>
+      </c>
+      <c r="O43" t="s">
+        <v>140</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="s"/>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>379</v>
+      </c>
+      <c r="X43" t="s">
+        <v>380</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>3558</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>388</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>389</v>
+      </c>
+      <c r="J44" t="s">
+        <v>390</v>
+      </c>
+      <c r="K44" t="s">
+        <v>391</v>
+      </c>
+      <c r="L44" t="s">
+        <v>392</v>
+      </c>
+      <c r="M44" t="n">
+        <v>4</v>
+      </c>
+      <c r="N44" t="s">
+        <v>348</v>
+      </c>
+      <c r="O44" t="s">
+        <v>140</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="s"/>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>393</v>
+      </c>
+      <c r="X44" t="s">
+        <v>394</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>3558</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>396</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>397</v>
+      </c>
+      <c r="J45" t="s">
+        <v>398</v>
+      </c>
+      <c r="K45" t="s">
+        <v>399</v>
+      </c>
+      <c r="L45" t="s">
+        <v>400</v>
+      </c>
+      <c r="M45" t="n">
+        <v>3</v>
+      </c>
+      <c r="N45" t="s">
+        <v>348</v>
+      </c>
+      <c r="O45" t="s">
+        <v>69</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="n">
+        <v>3</v>
+      </c>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>2</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>363</v>
+      </c>
+      <c r="X45" t="s">
+        <v>364</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>3558</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>402</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>403</v>
+      </c>
+      <c r="J46" t="s">
+        <v>404</v>
+      </c>
+      <c r="K46" t="s">
+        <v>405</v>
+      </c>
+      <c r="L46" t="s">
+        <v>406</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>348</v>
+      </c>
+      <c r="O46" t="s">
+        <v>140</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>407</v>
+      </c>
+      <c r="X46" t="s">
+        <v>408</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>3558</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>410</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>411</v>
+      </c>
+      <c r="J47" t="s">
+        <v>412</v>
+      </c>
+      <c r="K47" t="s">
+        <v>413</v>
+      </c>
+      <c r="L47" t="s">
+        <v>414</v>
+      </c>
+      <c r="M47" t="n">
+        <v>3</v>
+      </c>
+      <c r="N47" t="s">
+        <v>348</v>
+      </c>
+      <c r="O47" t="s">
+        <v>53</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="n">
+        <v>3</v>
+      </c>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>3</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>415</v>
+      </c>
+      <c r="X47" t="s">
+        <v>416</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>3558</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>418</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>419</v>
+      </c>
+      <c r="J48" t="s">
+        <v>420</v>
+      </c>
+      <c r="K48" t="s">
+        <v>421</v>
+      </c>
+      <c r="L48" t="s">
+        <v>422</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>423</v>
+      </c>
+      <c r="O48" t="s">
+        <v>140</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="s"/>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>424</v>
+      </c>
+      <c r="X48" t="s">
+        <v>425</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>3558</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>427</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>428</v>
+      </c>
+      <c r="J49" t="s">
+        <v>420</v>
+      </c>
+      <c r="K49" t="s">
+        <v>429</v>
+      </c>
+      <c r="L49" t="s">
+        <v>430</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>423</v>
+      </c>
+      <c r="O49" t="s">
+        <v>140</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="s"/>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>431</v>
+      </c>
+      <c r="X49" t="s">
+        <v>425</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>3558</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>433</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>434</v>
+      </c>
+      <c r="J50" t="s">
+        <v>435</v>
+      </c>
+      <c r="K50" t="s">
+        <v>436</v>
+      </c>
+      <c r="L50" t="s">
+        <v>437</v>
+      </c>
+      <c r="M50" t="n">
+        <v>1</v>
+      </c>
+      <c r="N50" t="s">
+        <v>423</v>
+      </c>
+      <c r="O50" t="s">
+        <v>140</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="s"/>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>438</v>
+      </c>
+      <c r="X50" t="s">
+        <v>439</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>3558</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>441</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>442</v>
+      </c>
+      <c r="J51" t="s">
+        <v>435</v>
+      </c>
+      <c r="K51" t="s">
+        <v>443</v>
+      </c>
+      <c r="L51" t="s">
+        <v>444</v>
+      </c>
+      <c r="M51" t="n">
+        <v>3</v>
+      </c>
+      <c r="N51" t="s">
+        <v>445</v>
+      </c>
+      <c r="O51" t="s">
+        <v>53</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="s"/>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>363</v>
+      </c>
+      <c r="X51" t="s">
+        <v>364</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>3558</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>447</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>448</v>
+      </c>
+      <c r="J52" t="s">
+        <v>449</v>
+      </c>
+      <c r="K52" t="s">
+        <v>450</v>
+      </c>
+      <c r="L52" t="s">
+        <v>451</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>452</v>
+      </c>
+      <c r="O52" t="s">
+        <v>69</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="s"/>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>453</v>
+      </c>
+      <c r="X52" t="s">
+        <v>454</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>3558</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>456</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>457</v>
+      </c>
+      <c r="J53" t="s">
+        <v>458</v>
+      </c>
+      <c r="K53" t="s">
+        <v>459</v>
+      </c>
+      <c r="L53" t="s">
+        <v>460</v>
+      </c>
+      <c r="M53" t="n">
+        <v>4</v>
+      </c>
+      <c r="N53" t="s">
+        <v>461</v>
+      </c>
+      <c r="O53" t="s">
+        <v>69</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="s"/>
+      <c r="S53" t="n">
+        <v>4</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>462</v>
+      </c>
+      <c r="X53" t="s">
+        <v>454</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>3558</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>464</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>465</v>
+      </c>
+      <c r="J54" t="s">
+        <v>466</v>
+      </c>
+      <c r="K54" t="s">
+        <v>467</v>
+      </c>
+      <c r="L54" t="s">
+        <v>468</v>
+      </c>
+      <c r="M54" t="n">
+        <v>4</v>
+      </c>
+      <c r="N54" t="s"/>
+      <c r="O54" t="s"/>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="s"/>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="s"/>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>462</v>
+      </c>
+      <c r="X54" t="s">
+        <v>454</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>3558</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>470</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>471</v>
+      </c>
+      <c r="J55" t="s">
+        <v>472</v>
+      </c>
+      <c r="K55" t="s">
+        <v>473</v>
+      </c>
+      <c r="L55" t="s">
+        <v>474</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>461</v>
+      </c>
+      <c r="O55" t="s">
+        <v>69</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="s"/>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>462</v>
+      </c>
+      <c r="X55" t="s">
+        <v>454</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>3558</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>476</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>477</v>
+      </c>
+      <c r="J56" t="s">
+        <v>478</v>
+      </c>
+      <c r="K56" t="s">
+        <v>479</v>
+      </c>
+      <c r="L56" t="s">
+        <v>480</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>481</v>
+      </c>
+      <c r="O56" t="s">
+        <v>115</v>
+      </c>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="s"/>
+      <c r="S56" t="s"/>
+      <c r="T56" t="s"/>
+      <c r="U56" t="s"/>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>462</v>
+      </c>
+      <c r="X56" t="s">
+        <v>454</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>3558</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>483</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>484</v>
+      </c>
+      <c r="J57" t="s">
+        <v>485</v>
+      </c>
+      <c r="K57" t="s">
+        <v>486</v>
+      </c>
+      <c r="L57" t="s">
+        <v>487</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>481</v>
+      </c>
+      <c r="O57" t="s">
+        <v>69</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="s"/>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>462</v>
+      </c>
+      <c r="X57" t="s">
+        <v>454</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>3558</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>489</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>490</v>
+      </c>
+      <c r="J58" t="s">
+        <v>491</v>
+      </c>
+      <c r="K58" t="s">
+        <v>492</v>
+      </c>
+      <c r="L58" t="s">
+        <v>493</v>
+      </c>
+      <c r="M58" t="n">
+        <v>2</v>
+      </c>
+      <c r="N58" t="s">
+        <v>494</v>
+      </c>
+      <c r="O58" t="s">
+        <v>115</v>
+      </c>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="s"/>
+      <c r="S58" t="n">
+        <v>2</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>3</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>495</v>
+      </c>
+      <c r="X58" t="s">
+        <v>454</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>3558</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>497</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>498</v>
+      </c>
+      <c r="J59" t="s">
+        <v>499</v>
+      </c>
+      <c r="K59" t="s">
+        <v>500</v>
+      </c>
+      <c r="L59" t="s">
+        <v>501</v>
+      </c>
+      <c r="M59" t="n">
+        <v>4</v>
+      </c>
+      <c r="N59" t="s">
+        <v>502</v>
+      </c>
+      <c r="O59" t="s">
+        <v>140</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="s"/>
+      <c r="R59" t="s"/>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>462</v>
+      </c>
+      <c r="X59" t="s">
+        <v>454</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>3558</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>504</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>505</v>
+      </c>
+      <c r="J60" t="s">
+        <v>506</v>
+      </c>
+      <c r="K60" t="s">
+        <v>507</v>
+      </c>
+      <c r="L60" t="s">
+        <v>508</v>
+      </c>
+      <c r="M60" t="n">
+        <v>4</v>
+      </c>
+      <c r="N60" t="s">
+        <v>502</v>
+      </c>
+      <c r="O60" t="s">
+        <v>140</v>
+      </c>
+      <c r="P60" t="s"/>
+      <c r="Q60" t="s"/>
+      <c r="R60" t="s"/>
+      <c r="S60" t="s"/>
+      <c r="T60" t="s"/>
+      <c r="U60" t="s"/>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>462</v>
+      </c>
+      <c r="X60" t="s">
+        <v>454</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>3558</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>510</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>511</v>
+      </c>
+      <c r="J61" t="s">
+        <v>512</v>
+      </c>
+      <c r="K61" t="s">
+        <v>513</v>
+      </c>
+      <c r="L61" t="s">
+        <v>514</v>
+      </c>
+      <c r="M61" t="n">
+        <v>3</v>
+      </c>
+      <c r="N61" t="s">
+        <v>515</v>
+      </c>
+      <c r="O61" t="s">
+        <v>69</v>
+      </c>
+      <c r="P61" t="s"/>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="s"/>
+      <c r="S61" t="s"/>
+      <c r="T61" t="s"/>
+      <c r="U61" t="s"/>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>462</v>
+      </c>
+      <c r="X61" t="s">
+        <v>454</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>3558</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>517</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>518</v>
+      </c>
+      <c r="J62" t="s">
+        <v>519</v>
+      </c>
+      <c r="K62" t="s">
+        <v>520</v>
+      </c>
+      <c r="L62" t="s">
+        <v>521</v>
+      </c>
+      <c r="M62" t="n">
+        <v>1</v>
+      </c>
+      <c r="N62" t="s">
+        <v>522</v>
+      </c>
+      <c r="O62" t="s">
+        <v>53</v>
+      </c>
+      <c r="P62" t="s"/>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="s"/>
+      <c r="S62" t="n">
+        <v>1</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="s"/>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>523</v>
+      </c>
+      <c r="X62" t="s">
+        <v>524</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>3558</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>526</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>527</v>
+      </c>
+      <c r="J63" t="s">
+        <v>528</v>
+      </c>
+      <c r="K63" t="s">
+        <v>529</v>
+      </c>
+      <c r="L63" t="s">
+        <v>530</v>
+      </c>
+      <c r="M63" t="n">
+        <v>2</v>
+      </c>
+      <c r="N63" t="s"/>
+      <c r="O63" t="s"/>
+      <c r="P63" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>3</v>
+      </c>
+      <c r="R63" t="n">
+        <v>2</v>
+      </c>
+      <c r="S63" t="n">
+        <v>3</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>2</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>462</v>
+      </c>
+      <c r="X63" t="s">
+        <v>454</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>3558</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>532</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>533</v>
+      </c>
+      <c r="J64" t="s">
+        <v>534</v>
+      </c>
+      <c r="K64" t="s">
+        <v>535</v>
+      </c>
+      <c r="L64" t="s">
+        <v>536</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>537</v>
+      </c>
+      <c r="O64" t="s">
+        <v>69</v>
+      </c>
+      <c r="P64" t="s"/>
+      <c r="Q64" t="s"/>
+      <c r="R64" t="s"/>
+      <c r="S64" t="s"/>
+      <c r="T64" t="s"/>
+      <c r="U64" t="s"/>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>538</v>
+      </c>
+      <c r="X64" t="s">
+        <v>539</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>3558</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>541</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>542</v>
+      </c>
+      <c r="J65" t="s">
+        <v>543</v>
+      </c>
+      <c r="K65" t="s">
+        <v>544</v>
+      </c>
+      <c r="L65" t="s">
+        <v>545</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>546</v>
+      </c>
+      <c r="O65" t="s">
+        <v>53</v>
+      </c>
+      <c r="P65" t="s"/>
+      <c r="Q65" t="s"/>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>4</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>462</v>
+      </c>
+      <c r="X65" t="s">
+        <v>454</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>3558</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>548</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>549</v>
+      </c>
+      <c r="J66" t="s">
+        <v>550</v>
+      </c>
+      <c r="K66" t="s">
+        <v>551</v>
+      </c>
+      <c r="L66" t="s">
+        <v>552</v>
+      </c>
+      <c r="M66" t="n">
+        <v>4</v>
+      </c>
+      <c r="N66" t="s">
+        <v>553</v>
+      </c>
+      <c r="O66" t="s">
+        <v>53</v>
+      </c>
+      <c r="P66" t="s"/>
+      <c r="Q66" t="s"/>
+      <c r="R66" t="s"/>
+      <c r="S66" t="s"/>
+      <c r="T66" t="s"/>
+      <c r="U66" t="s"/>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>462</v>
+      </c>
+      <c r="X66" t="s">
+        <v>454</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>3558</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>555</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>556</v>
+      </c>
+      <c r="J67" t="s">
+        <v>557</v>
+      </c>
+      <c r="K67" t="s">
+        <v>558</v>
+      </c>
+      <c r="L67" t="s">
+        <v>559</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s"/>
+      <c r="O67" t="s"/>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>462</v>
+      </c>
+      <c r="X67" t="s">
+        <v>454</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>3558</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>561</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>562</v>
+      </c>
+      <c r="J68" t="s">
+        <v>563</v>
+      </c>
+      <c r="K68" t="s">
+        <v>564</v>
+      </c>
+      <c r="L68" t="s">
+        <v>565</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>566</v>
+      </c>
+      <c r="O68" t="s">
+        <v>140</v>
+      </c>
+      <c r="P68" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>5</v>
+      </c>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>462</v>
+      </c>
+      <c r="X68" t="s">
+        <v>454</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>3558</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>568</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>569</v>
+      </c>
+      <c r="J69" t="s">
+        <v>570</v>
+      </c>
+      <c r="K69" t="s">
+        <v>571</v>
+      </c>
+      <c r="L69" t="s">
+        <v>572</v>
+      </c>
+      <c r="M69" t="n">
+        <v>3</v>
+      </c>
+      <c r="N69" t="s">
+        <v>573</v>
+      </c>
+      <c r="O69" t="s">
+        <v>69</v>
+      </c>
+      <c r="P69" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>3</v>
+      </c>
+      <c r="R69" t="n">
+        <v>4</v>
+      </c>
+      <c r="S69" t="n">
+        <v>3</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>3</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>462</v>
+      </c>
+      <c r="X69" t="s">
+        <v>454</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>3558</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>575</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>576</v>
+      </c>
+      <c r="J70" t="s">
+        <v>577</v>
+      </c>
+      <c r="K70" t="s">
+        <v>578</v>
+      </c>
+      <c r="L70" t="s">
+        <v>579</v>
+      </c>
+      <c r="M70" t="n">
+        <v>3</v>
+      </c>
+      <c r="N70" t="s">
+        <v>580</v>
+      </c>
+      <c r="O70" t="s">
+        <v>53</v>
+      </c>
+      <c r="P70" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>4</v>
+      </c>
+      <c r="R70" t="n">
+        <v>3</v>
+      </c>
+      <c r="S70" t="n">
+        <v>4</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>3</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>462</v>
+      </c>
+      <c r="X70" t="s">
+        <v>454</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>3558</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>582</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>583</v>
+      </c>
+      <c r="J71" t="s">
+        <v>584</v>
+      </c>
+      <c r="K71" t="s">
+        <v>585</v>
+      </c>
+      <c r="L71" t="s">
+        <v>586</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s">
+        <v>587</v>
+      </c>
+      <c r="O71" t="s">
+        <v>53</v>
+      </c>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>5</v>
+      </c>
+      <c r="R71" t="n">
+        <v>5</v>
+      </c>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>462</v>
+      </c>
+      <c r="X71" t="s">
+        <v>454</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>3558</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>589</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>590</v>
+      </c>
+      <c r="J72" t="s">
+        <v>591</v>
+      </c>
+      <c r="K72" t="s"/>
+      <c r="L72" t="s"/>
+      <c r="M72" t="s"/>
+      <c r="N72" t="s"/>
+      <c r="O72" t="s"/>
+      <c r="P72" t="s"/>
+      <c r="Q72" t="s"/>
+      <c r="R72" t="s"/>
+      <c r="S72" t="s"/>
+      <c r="T72" t="s"/>
+      <c r="U72" t="s"/>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>3558</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>592</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>593</v>
+      </c>
+      <c r="J73" t="s">
+        <v>594</v>
+      </c>
+      <c r="K73" t="s"/>
+      <c r="L73" t="s"/>
+      <c r="M73" t="s"/>
+      <c r="N73" t="s"/>
+      <c r="O73" t="s"/>
+      <c r="P73" t="s"/>
+      <c r="Q73" t="s"/>
+      <c r="R73" t="s"/>
+      <c r="S73" t="s"/>
+      <c r="T73" t="s"/>
+      <c r="U73" t="s"/>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>3558</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>595</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>596</v>
+      </c>
+      <c r="J74" t="s">
+        <v>597</v>
+      </c>
+      <c r="K74" t="s"/>
+      <c r="L74" t="s"/>
+      <c r="M74" t="s"/>
+      <c r="N74" t="s"/>
+      <c r="O74" t="s"/>
+      <c r="P74" t="s"/>
+      <c r="Q74" t="s"/>
+      <c r="R74" t="s"/>
+      <c r="S74" t="s"/>
+      <c r="T74" t="s"/>
+      <c r="U74" t="s"/>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>3558</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>598</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>599</v>
+      </c>
+      <c r="J75" t="s">
+        <v>600</v>
+      </c>
+      <c r="K75" t="s">
+        <v>601</v>
+      </c>
+      <c r="L75" t="s">
+        <v>602</v>
+      </c>
+      <c r="M75" t="n">
+        <v>2</v>
+      </c>
+      <c r="N75" t="s">
+        <v>603</v>
+      </c>
+      <c r="O75" t="s">
+        <v>140</v>
+      </c>
+      <c r="P75" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>1</v>
+      </c>
+      <c r="R75" t="n">
+        <v>4</v>
+      </c>
+      <c r="S75" t="n">
+        <v>1</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>3</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>462</v>
+      </c>
+      <c r="X75" t="s">
+        <v>454</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>3558</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>605</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>606</v>
+      </c>
+      <c r="J76" t="s">
+        <v>607</v>
+      </c>
+      <c r="K76" t="s">
+        <v>608</v>
+      </c>
+      <c r="L76" t="s">
+        <v>609</v>
+      </c>
+      <c r="M76" t="n">
+        <v>2</v>
+      </c>
+      <c r="N76" t="s">
+        <v>603</v>
+      </c>
+      <c r="O76" t="s">
+        <v>53</v>
+      </c>
+      <c r="P76" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>2</v>
+      </c>
+      <c r="R76" t="n">
+        <v>5</v>
+      </c>
+      <c r="S76" t="n">
+        <v>4</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>1</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>462</v>
+      </c>
+      <c r="X76" t="s">
+        <v>454</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>3558</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>611</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>612</v>
+      </c>
+      <c r="J77" t="s">
+        <v>613</v>
+      </c>
+      <c r="K77" t="s">
+        <v>614</v>
+      </c>
+      <c r="L77" t="s">
+        <v>615</v>
+      </c>
+      <c r="M77" t="n">
+        <v>5</v>
+      </c>
+      <c r="N77" t="s"/>
+      <c r="O77" t="s"/>
+      <c r="P77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>5</v>
+      </c>
+      <c r="R77" t="n">
+        <v>5</v>
+      </c>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>495</v>
+      </c>
+      <c r="X77" t="s">
+        <v>454</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>3558</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>617</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>618</v>
+      </c>
+      <c r="J78" t="s">
+        <v>619</v>
+      </c>
+      <c r="K78" t="s">
+        <v>620</v>
+      </c>
+      <c r="L78" t="s">
+        <v>621</v>
+      </c>
+      <c r="M78" t="n">
+        <v>2</v>
+      </c>
+      <c r="N78" t="s">
+        <v>622</v>
+      </c>
+      <c r="O78" t="s">
+        <v>115</v>
+      </c>
+      <c r="P78" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>2</v>
+      </c>
+      <c r="R78" t="n">
+        <v>3</v>
+      </c>
+      <c r="S78" t="n">
+        <v>3</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>1</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>462</v>
+      </c>
+      <c r="X78" t="s">
+        <v>454</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>3558</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>624</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>625</v>
+      </c>
+      <c r="J79" t="s">
+        <v>626</v>
+      </c>
+      <c r="K79" t="s">
+        <v>627</v>
+      </c>
+      <c r="L79" t="s">
+        <v>628</v>
+      </c>
+      <c r="M79" t="n">
+        <v>5</v>
+      </c>
+      <c r="N79" t="s">
+        <v>629</v>
+      </c>
+      <c r="O79" t="s">
+        <v>140</v>
+      </c>
+      <c r="P79" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>5</v>
+      </c>
+      <c r="R79" t="n">
+        <v>5</v>
+      </c>
+      <c r="S79" t="n">
+        <v>5</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>462</v>
+      </c>
+      <c r="X79" t="s">
+        <v>454</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>3558</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>631</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>632</v>
+      </c>
+      <c r="J80" t="s">
+        <v>633</v>
+      </c>
+      <c r="K80" t="s">
+        <v>634</v>
+      </c>
+      <c r="L80" t="s">
+        <v>635</v>
+      </c>
+      <c r="M80" t="n">
+        <v>5</v>
+      </c>
+      <c r="N80" t="s">
+        <v>636</v>
+      </c>
+      <c r="O80" t="s">
+        <v>115</v>
+      </c>
+      <c r="P80" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>5</v>
+      </c>
+      <c r="R80" t="n">
+        <v>5</v>
+      </c>
+      <c r="S80" t="n">
+        <v>5</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s">
+        <v>462</v>
+      </c>
+      <c r="X80" t="s">
+        <v>454</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>3558</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>638</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>639</v>
+      </c>
+      <c r="J81" t="s">
+        <v>640</v>
+      </c>
+      <c r="K81" t="s">
+        <v>641</v>
+      </c>
+      <c r="L81" t="s">
+        <v>642</v>
+      </c>
+      <c r="M81" t="n">
+        <v>4</v>
+      </c>
+      <c r="N81" t="s">
+        <v>643</v>
+      </c>
+      <c r="O81" t="s">
+        <v>53</v>
+      </c>
+      <c r="P81" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>4</v>
+      </c>
+      <c r="R81" t="n">
+        <v>5</v>
+      </c>
+      <c r="S81" t="n">
+        <v>4</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s">
+        <v>462</v>
+      </c>
+      <c r="X81" t="s">
+        <v>454</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>3558</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>645</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>646</v>
+      </c>
+      <c r="J82" t="s">
+        <v>647</v>
+      </c>
+      <c r="K82" t="s">
+        <v>648</v>
+      </c>
+      <c r="L82" t="s">
+        <v>649</v>
+      </c>
+      <c r="M82" t="n">
+        <v>2</v>
+      </c>
+      <c r="N82" t="s">
+        <v>650</v>
+      </c>
+      <c r="O82" t="s">
+        <v>140</v>
+      </c>
+      <c r="P82" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>2</v>
+      </c>
+      <c r="R82" t="n">
+        <v>4</v>
+      </c>
+      <c r="S82" t="n">
+        <v>2</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>2</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s">
+        <v>462</v>
+      </c>
+      <c r="X82" t="s">
+        <v>454</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>3558</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>652</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>653</v>
+      </c>
+      <c r="J83" t="s">
+        <v>654</v>
+      </c>
+      <c r="K83" t="s">
+        <v>655</v>
+      </c>
+      <c r="L83" t="s">
+        <v>656</v>
+      </c>
+      <c r="M83" t="n">
+        <v>1</v>
+      </c>
+      <c r="N83" t="s">
+        <v>657</v>
+      </c>
+      <c r="O83" t="s">
+        <v>115</v>
+      </c>
+      <c r="P83" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>2</v>
+      </c>
+      <c r="R83" t="n">
+        <v>3</v>
+      </c>
+      <c r="S83" t="n">
+        <v>1</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>1</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s">
+        <v>462</v>
+      </c>
+      <c r="X83" t="s">
+        <v>454</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>3558</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>659</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>660</v>
+      </c>
+      <c r="J84" t="s">
+        <v>661</v>
+      </c>
+      <c r="K84" t="s">
+        <v>662</v>
+      </c>
+      <c r="L84" t="s">
+        <v>663</v>
+      </c>
+      <c r="M84" t="n">
+        <v>2</v>
+      </c>
+      <c r="N84" t="s">
+        <v>657</v>
+      </c>
+      <c r="O84" t="s">
+        <v>115</v>
+      </c>
+      <c r="P84" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>2</v>
+      </c>
+      <c r="R84" t="n">
+        <v>4</v>
+      </c>
+      <c r="S84" t="n">
+        <v>2</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>2</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s">
+        <v>462</v>
+      </c>
+      <c r="X84" t="s">
+        <v>454</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>3558</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>665</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>666</v>
+      </c>
+      <c r="J85" t="s">
+        <v>667</v>
+      </c>
+      <c r="K85" t="s">
+        <v>668</v>
+      </c>
+      <c r="L85" t="s">
+        <v>669</v>
+      </c>
+      <c r="M85" t="n">
+        <v>5</v>
+      </c>
+      <c r="N85" t="s">
+        <v>670</v>
+      </c>
+      <c r="O85" t="s">
+        <v>140</v>
+      </c>
+      <c r="P85" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>4</v>
+      </c>
+      <c r="R85" t="n">
+        <v>5</v>
+      </c>
+      <c r="S85" t="n">
+        <v>5</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s">
+        <v>462</v>
+      </c>
+      <c r="X85" t="s">
+        <v>454</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>671</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Dallas/Dallas_shard_638.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_638.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="672">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="756">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>FlyAway186</t>
+  </si>
+  <si>
     <t>06/16/2018</t>
   </si>
   <si>
@@ -189,6 +192,9 @@
     <t>We were looking for a place to stay for 2 nights while we visited family outside of Dallas Texas for the weekend.  We wanted safe, affordable, clean, and comfortable and the Red Roof Addison fit the bill completely.  This was a perfect option for us.  It is located in a good neighborhood for a price that was half of what other hotels charge in the same area.  Our room was very clean.  Beds were comfortable.  The continental breakfast was even better than expected with coffee, juice, bagels &amp; cream cheese, toast, sweet rolls, cold cereal, fruit.  You could make your own waffles shaped like the state of Texas or a have a hot bowl of instant oatmeal.  We will book here again on our next visit.More</t>
   </si>
   <si>
+    <t>toxxik214</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109572-r574233559-Red_Roof_Inn_Suites_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -210,6 +216,9 @@
     <t>Great place and even better staff. Especially Micky and the housekeeping staff. Every visit has been over the top!?! And I enjoy every day of my stay at this location. Thanks for everything!?!Staff @ Red Roof Inn Addison, TXMore</t>
   </si>
   <si>
+    <t>JoeVanBiker</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109572-r573846099-Red_Roof_Inn_Suites_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -237,6 +246,9 @@
     <t>I have stayed here several times and will continue as it is a nice property. The staff there is always at their best.   Harry checks me when I get there late as usual and is a refreshing, attentive person to work with.  He knows what I like for rooms there too.  All the others there have been great as well.  It is one of few remaining outside entry hotels that is still in good shape.  I like the outside entry style.    The rooms have a great layout with nice desk, small frig, microwave, hair dryer, coffee maker and a big cozy chair.  Right in the great Addison area I like too.  Thank you RR I love the place!More</t>
   </si>
   <si>
+    <t>thefisherman2</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109572-r558389878-Red_Roof_Inn_Suites_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -264,6 +276,9 @@
     <t>Hotel experience was good, clean room, fridge worked great. Liked the area lots of places to eat and shopping. Hotel felt safe. breakfast was okay, nice to have something there, have coffee makers in rooms with coffee, nice plus.Front desk  attendant very nice and polite, think her name was Georgie, hope that is correct?  She made the stay more enjoyable.Planning on returning back there again soon.  I would recommend this hotel for a stay if your in area.More</t>
   </si>
   <si>
+    <t>drewindallas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109572-r552753846-Red_Roof_Inn_Suites_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -291,6 +306,9 @@
     <t>I think this hotel is very nice for the price- as a matter of fact, I don't think it can be beat on price-per-value.  The check in experience was very nice with a lovely friendly woman at the desk who got me in in a minute.  No complaints about the room either; clean as a pin and set up with everything you need.  It was really nice.  I booked to stay for two nights, last Friday and Saturday and at about 1 oclock on Saturday afternoon I got a call from home that there was a family emergency and I had to leave.  I gathered my things as quickly as i could and went to the front office to check out where i informed the - this time not so friendly or nice- front desk clerk about my dilemma.   I told her I would understand a penalty of some sort for checking out 3 hours later than stated, however I did not think i should be charged for the entire night (company policy allows you to cancel until 6 pm).  She didnt even look and me and just said "oh they are going to charge you the whole night". This little exchange with no regard to my situation ruined my stay and made me unhappy with the whole experience and unable to recommend this hotel to friends.More</t>
   </si>
   <si>
+    <t>SimonOnvacation</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109572-r550757759-Red_Roof_Inn_Suites_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -318,6 +336,9 @@
     <t>Check in was a breeze; just pulled up my reservations, and was handed my keys in minutes. Breakfast was just okay, oatmeal, bread, the usual.The room was spacious, however, we had to ask for additional towels and soap, there was no pen and paper available in the room.Wi-fi connection was decent, and TV selections were ample, especially news and sports channels are a lot.Overall, if you are looking for a decent place to stay for a short while, you can still here, lots of food places to go to at walking distance...More</t>
   </si>
   <si>
+    <t>buddysmith198503</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109572-r532375850-Red_Roof_Inn_Suites_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -345,6 +366,9 @@
     <t>i been to this location a few times, every time i go i never have an issue. rooms are always neat and clean. very friendly front staff.  They offer smoking/non smoking rooms.nearby restaurants and close to highways and mallMore</t>
   </si>
   <si>
+    <t>saraherman92</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109572-r526710371-Red_Roof_Inn_Suites_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -375,6 +399,9 @@
     <t>So I stay here about a week and a half ago maybe a little over I really enjoyed my 3 days here was very pleased with staff rooms were clean the front desk girls Kirsten and alisha were just amazing I really appreciate hood customer service thanks u guys More</t>
   </si>
   <si>
+    <t>kacie79</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109572-r526403764-Red_Roof_Inn_Suites_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -399,6 +426,9 @@
     <t>Any company in the world would be lucky to employ Kirsten!!!  Checked in for 2 nights and had a little issue with our room (ac)  and was quick to get moved to another with zero issue or problems! Her professionalism alone is the reason we will be back!!! Give this girl a promotion and raise!!! Also room is cleaner then any thing else you find in this area and budget!!!!More</t>
   </si>
   <si>
+    <t>Finley T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109572-r517829308-Red_Roof_Inn_Suites_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -426,6 +456,9 @@
     <t>So I Stayed at the Red Roof Inn about 2 weeks ago or so....I was greeted by a very wonderful girl at the front desk her name was Kristen.....She answered all the questions I had and told me all the info I needed to know that I didn't ask about....Then when i got to the room it was as clean as could be I was impressed I have stayed at other Red Roofs before and I would have to say this is one of the nicest ones i have stayed at ....They also serve breakfast which was delicious but the don't have any meat Or even eggs but I lived and also enjoyed it...I WILL DEFINETLY BE STAYING AGAIN!!!!....TY RED ROOF TEAM U DID A GOOD JOB!!!!More</t>
   </si>
   <si>
+    <t>BHEBfoodie</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109572-r517773724-Red_Roof_Inn_Suites_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -444,6 +477,9 @@
     <t>Spent three nights here, and the rooms are clean, beds are comfortable, bathroom adequate. The towels are not so great, somewhat rough to the skin. However this is a price conscious motel group, so one can't complain too much.There was a coffee maker but no glass pot to catch the coffee, instead you improvise by using a cup. Plenty of parking out front. Breakfast is the usual rubbish all the motels offer these days, I wish I could understand why they buy these pastries. There were cereals and pancake batter, the coffee was not pleasant. There is a small pool, no one used it to my knowledge, but I was out all day.More</t>
   </si>
   <si>
+    <t>shhparents</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109572-r516902243-Red_Roof_Inn_Suites_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -468,6 +504,9 @@
     <t>We decided on the spur of the moment to go Dallas for the weekend. We always like to bring out fur babies. There is plenty of places to eat around this red roof inn and they have a courtyard with a bag holder to clean up after your pets. We always carry our own but it's a awesome idea. Weather wasn't real great when we went but we managed to get to swim and go to Farmer's market. Club/restaurant across the road was a little loud. But once the storms started rolling in you couldn't hear it anymore. Just a great place to go to get away.More</t>
   </si>
   <si>
+    <t>U1251RQwilliamj</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109572-r503591641-Red_Roof_Inn_Suites_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -495,6 +534,9 @@
     <t>Upon checkin, Kirsten advised how to reserve the room for two nights even if we were unsure - all connected to our situation regarding a medical procedure the next day.  So checkin was a breeze and then our car was broken down in the fire lane and would not move.  No problem, Kirsten assured us that everything would be all right.  I rented a car and called a tow truck to move ours out of the firelane and low and behold the towtruck driver knew what our problem was and referred  us to someone who would fix it right there, guy came, fixed linkage =&gt; all right there at the Red Roof Inn in Addison and Kirsten was right, everything turned out fine, we returned the next afternoon and recuperated in our comfortable room.  From previous experience I should mention that this motel is also pet-friendly.  Thanks for providing great service.More</t>
   </si>
   <si>
+    <t>Michael K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109572-r498719999-Red_Roof_Inn_Suites_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -519,6 +561,9 @@
     <t>The hotel was an absolute hit from the start. Kirstan at the front desk was more than helpful when I was checking in. She suggested some options to me that were not made available when I booked the room. She was absolutely on point.More</t>
   </si>
   <si>
+    <t>Kimberly K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109572-r497302548-Red_Roof_Inn_Suites_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -540,6 +585,9 @@
     <t>In a pinch, I picked this place and it was okay for the price and my needs at the time. Kirsten at the front desk was amazingly helpful during my entire stay. Excellent customer service, which can sometimes be lacking in these places. But not here! Kirsten was inviting and friendly. She was very helpful and accommodating to my needs. She went out of her way to make my stay exactly the way it needed to be. Thank you, Kirsten!More</t>
   </si>
   <si>
+    <t>garyhC8137ZN</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109572-r473493489-Red_Roof_Inn_Suites_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -567,6 +615,9 @@
     <t>The crews working the front desk were all helpful. The entrance to the hotel is a little tricky to find.   I found an old bar of soap in the bathroom that the cleaning person missed. We will stay here again when we visit family in the area.More</t>
   </si>
   <si>
+    <t>calhoon16</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109572-r471603601-Red_Roof_Inn_Suites_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -594,6 +645,9 @@
     <t>Great Location in Addison, TX which is in the middle of everything. Poor Room Quality regardless of the price paid. Would recommend staying at the Hilton Garden Inn just around the corner or looking into a hotel further outMore</t>
   </si>
   <si>
+    <t>ldelap_115381</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109572-r471598052-Red_Roof_Inn_Suites_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -609,6 +663,9 @@
     <t>Clean Comfortable and  quiet also includes breakfast in mornings the staff os friendly and the housekeeping is at service. i had a nice stay here and will definitely come.back i definitely recommend to stay More</t>
   </si>
   <si>
+    <t>216caseys</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109572-r469819667-Red_Roof_Inn_Suites_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -633,6 +690,9 @@
     <t>Good location, clean rooms and helpful staff. It was close to many amenities. I liked the location. Downtown Dallas was a short drive away. When I was there it was quite most of the time. I stayed for a week. More</t>
   </si>
   <si>
+    <t>JimNtexas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109572-r468086192-Red_Roof_Inn_Suites_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -660,6 +720,9 @@
     <t>I usually stay at Holiday Inn Express when traveling on business, but on this trip the Red Roof was very close to where I would be working so I booked here.The price was very low, so I didn't have high expectations.  I was very pleasantly surprised when this room was pretty much a clone of a typical Holiday Inn Express room.  The only real difference was there were fewer electrical outlets than what most HI's have these days.  The other difference was that as far as I could tell there was no elevator, so I had to drag my bag up the stairs. Everything was clean, a good TV with plenty of channels, and excellent wifi.I don't typically eat motel breakfast, I've never found any that were very good.  This motel was surrounded by dozens of eating places, you won't go hungry.Recommended.More</t>
   </si>
   <si>
+    <t>francie006</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109572-r466096403-Red_Roof_Inn_Suites_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -684,6 +747,9 @@
     <t>Clean rooms, nice front desk and Indian food door! It was great! They have a pool but we didn't get to use it then! I plan to make this a good place to stay every time I come to town! Only suggestion is to stay longer!More</t>
   </si>
   <si>
+    <t>Qmd0005</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109572-r462066590-Red_Roof_Inn_Suites_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -708,6 +774,9 @@
     <t>Great surrounding around and enjoyable breakfast. Price is reasonable and it nice when you have the rewards card. I enjoyed the comdeybdone the street and the food and the Melting Pot. Was able to pay for trip cause of a reasonable hotel cost. More</t>
   </si>
   <si>
+    <t>146nancia</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109572-r460329894-Red_Roof_Inn_Suites_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -732,6 +801,9 @@
     <t>Terrible experience ever, I booked my reservation on-line and everything was pretty fast although I was not comfortable providing my card information I did. It was not suppose to be charge, it was only a requirement for booking. I was going to pay cash at the property. I got into some trouble and end up canceling my reservation. I just found out the I was charge 2 times on my card and end up paying full charge without even staying in!!! I was supposed to pay only a fee for cancelling not the whole amount!!! just terrible experience.More</t>
   </si>
   <si>
+    <t>mghelix</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109572-r459989257-Red_Roof_Inn_Suites_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -756,6 +828,9 @@
     <t>Nice room with plenty of space. Clean, enough lights, water pressure not an issue and the heater/air unit works just like it's supposed to work. Staff as all been friendly and helpful Mikii was super help at the desk. Se really knew exactly what she was doing and made my stay even easier. More</t>
   </si>
   <si>
+    <t>KarenMacintosh</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109572-r454865907-Red_Roof_Inn_Suites_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -783,6 +858,9 @@
     <t>Enjoyed my stay very much. I would say that again. And I recommend. it. Got the room on short notice. And he was just what I was looking for. I look forward to staying there again thanks for the great night. Right in the middle of MadisonMore</t>
   </si>
   <si>
+    <t>ctred2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109572-r454545558-Red_Roof_Inn_Suites_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -807,6 +885,9 @@
     <t>We stay at Red Roof on cross country trips, a few each year. This was a great stop-- convenient to the sporting event we were trying to catch-- clean, well-maintained and well-run. I love the location and plan to stay there again.More</t>
   </si>
   <si>
+    <t>Eric B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109572-r452885695-Red_Roof_Inn_Suites_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -831,6 +912,9 @@
     <t>This motel is great. Clean room, nice amenities, smells good, outside looks great, everything is new, and the customer service is awesome. They have a front desk clerk by the name of Christina, probably by far 1 of the best front desk clerks I've ever come across. Pleasant, friendly and even a bit funny, definitely made me feel even better if that were even possible in which she made it so, about my stay here at this Blessed motel. 5 Stars, it was 4 but Christina made it 5!!More</t>
   </si>
   <si>
+    <t>Christina S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109572-r449540234-Red_Roof_Inn_Suites_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -855,6 +939,9 @@
     <t>We were in town to attend the Cotton Bowl.  We chose this Red Roof since it was away from downtown.  We were not disappointed.  It was close to major highways, restaurants, and shopping.  It was easy to find our way around.More</t>
   </si>
   <si>
+    <t>SonyaP19</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109572-r446632724-Red_Roof_Inn_Suites_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -882,6 +969,9 @@
     <t>EXCELLENT!!! The hospitality was so great,  felt like a true guest. The rooms were very nice, beds, bathrooms, AC, absolutely no complaints. Very close to everything also! Clean, and no noise complaints! More</t>
   </si>
   <si>
+    <t>yybarr_107948</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109572-r444016883-Red_Roof_Inn_Suites_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -906,6 +996,9 @@
     <t>The room was comfy &amp; clean. I just didn't like that I had to reserve the room online to get a decent price. The difference in prices was so dramatic that it almost seemed like they were taking advantage... More</t>
   </si>
   <si>
+    <t>Georgia P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109572-r443265942-Red_Roof_Inn_Suites_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -930,6 +1023,9 @@
     <t>I came for the first time to Red Roof for a nights stay. Checking in and out was easy, no problem. But the lady at the front desk, Christy, she had exceptional customer service, a wonderful smile, the best that I've seen in the hotel business. You can tell she enjoys what she does. She was very helpful in my situation. The room was clean and cozy. Thank you so much. I needed the rest and that great service!More</t>
   </si>
   <si>
+    <t>Mon444444</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109572-r443259819-Red_Roof_Inn_Suites_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -945,6 +1041,9 @@
     <t>Very nice front desk greeting... The lady working the check in named Christina was very helpful with all my questions... room was very clean... my check out was just as nice with a lady working the front desk name Nikki was also very nice...More</t>
   </si>
   <si>
+    <t>Nikki F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109572-r443199528-Red_Roof_Inn_Suites_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -969,6 +1068,9 @@
     <t>Christina has been at the front desk both this evening, and on my previous stay at this location. She is extremely professional, friendly, and courteous. The rooms are clean, neat, and comfortable, with all amenities at your fingertips, as well as a wonderful selection of local eateries, both dine in and delivery. I will definitely be staying at this location on future trips.More</t>
   </si>
   <si>
+    <t>Rebecca W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109572-r434336851-Red_Roof_Inn_Suites_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -996,6 +1098,9 @@
     <t>We only wish they had an indoor pool and spa. That was the only thing we did not get to experience.The continental breakfast was small but very good. Just the basics. The rooms had refrigerators and microwave, coffee maker, iron and ironing board. Such a nice place.More</t>
   </si>
   <si>
+    <t>Sregit02</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109572-r434032078-Red_Roof_Inn_Suites_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -1023,6 +1128,9 @@
     <t>The staff was very nice and efficient!  Clean lobby , clean room.  Bedding was comfortable and ac unit was not overly loud.  The breakfast was mainly finger foods and juices.  More of a snack but the food tasted good on my way to work.  I would stay here again for sure!More</t>
   </si>
   <si>
+    <t>trishsh</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109572-r432551474-Red_Roof_Inn_Suites_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -1047,6 +1155,9 @@
     <t>Room was clean. Staff are friendly.  We've stayed there at least 6 times in this last year.  Last time the little refrigerator/freezer would not cool enough to freeze ice.  We've used working freezers we have had in the past to help keep the ice overnight.  It is no frills.  Toilet paper was one ply and the Kleenex supplied was a small packet.  But we weren't paying luxury prices.  They also have a nice breakfast buffet with mostly cold pastries and coffee.More</t>
   </si>
   <si>
+    <t>217johnnyq</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109572-r431705219-Red_Roof_Inn_Suites_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -1074,6 +1185,9 @@
     <t>A very nice staff and clean rooms with a great price are even better with this great location close to many restaurants and things to do in Dallas. I like that it's way from the busy traffic areas yet still close to the places I go to see.More</t>
   </si>
   <si>
+    <t>KerryandTim</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109572-r430990370-Red_Roof_Inn_Suites_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -1092,6 +1206,9 @@
     <t>I normally think of Red Roof Inn as being a budget hotel, so I was pleasantly surprised by all aspects of this hotel. The room was nice, the bed was comfortable, and everything worked just like it was supposed to. For the price, it couldn't be beat.I had messed up the reservation that I made for this hotel, and I thought I might end up having to pay for a room I didn't need, but the front desk folks were so very accommodating.  I couldn't have been happier with how they changed my reservation without a penalty and without making me feel foolish for having made it incorrectly to begin with.More</t>
   </si>
   <si>
+    <t>acealmightyy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109572-r430628072-Red_Roof_Inn_Suites_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -1116,6 +1233,9 @@
     <t>I arrived to check in and told the front desk attendant --I think his name was Bobby or something like that--I would be paying cash. Bobby tells me there's an additional $50 deposit if I pay in cash. I figured that was standard. No big deal, so I told him I was going to run to the bank and just deposit the money into my account so I could just use my card. I guess he didn't believe me because he made the obvious statement of "well the name on the card has to match the name on the ID". As if I would be using someone else's card like I couldn't possibly have my own AS IF I DIDNT JUST SAY I WAS GOING TO THE BANK TO MAKE A DEPOSIT. I told him yeah, I assumed the name on both cards would have to match. He then proceeds to ask me to show him my debit card and ID so I don't "waste my time" as if I were lying about having a valid ID and debit card. He then explains "oh I just wanted to make sure it were an actual debit card because some people try to use green dot or other prepaid cards" AS IF I COULDNT OWN A REAL DEBIT CARD. So I left, made the deposit, came back, gave him my card and explained that the magnetic strip on my card is worn...I arrived to check in and told the front desk attendant --I think his name was Bobby or something like that--I would be paying cash. Bobby tells me there's an additional $50 deposit if I pay in cash. I figured that was standard. No big deal, so I told him I was going to run to the bank and just deposit the money into my account so I could just use my card. I guess he didn't believe me because he made the obvious statement of "well the name on the card has to match the name on the ID". As if I would be using someone else's card like I couldn't possibly have my own AS IF I DIDNT JUST SAY I WAS GOING TO THE BANK TO MAKE A DEPOSIT. I told him yeah, I assumed the name on both cards would have to match. He then proceeds to ask me to show him my debit card and ID so I don't "waste my time" as if I were lying about having a valid ID and debit card. He then explains "oh I just wanted to make sure it were an actual debit card because some people try to use green dot or other prepaid cards" AS IF I COULDNT OWN A REAL DEBIT CARD. So I left, made the deposit, came back, gave him my card and explained that the magnetic strip on my card is worn down and that he would have to punch the numbers into the system to process the payment. I knew this was possible because I stayed here 2 nights prior and the nice lady from St. Louis who was working that night accomadted me with no issue. But Bobby here tells me "we can't do that" I said yes you can I know it because they just did it for me two nights ago so why are you lying! So he says "oh" types my info in and tells me "your card got declined". At this point I was fed up because from the moment I walked in the door this man acted like I was trying to get over on the hotel, like I didn't have money or a real debit card, was incapable of paying for my room and he had no way to process my card. So, knowing that I just went to the bank to make that deposit and had plenty money in my account I demanded that he try again! And I told him if it didn't work that time he needed to get someone to help him who could successfully process my payment. He told me "well it's not that hard" I'm like yeah that's what I thought but you've made this whole process hard for me since the moment I walked in. So he processed the payment successfully and I stayed because the rooms are nice and the pool area is pretty. If I ever come back and see Bobby at the front desk I'm just gonna go spend my money somewhere else.More</t>
   </si>
   <si>
+    <t>patricem4</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109572-r428279683-Red_Roof_Inn_Suites_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -1140,6 +1260,9 @@
     <t>We had to check in later than expected &amp; the lady at the front was very nice &amp; helpful. The room was very clean &amp; the bed was so the absolute best. We will definitely be staying again. Love our stayMore</t>
   </si>
   <si>
+    <t>Nicole R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109572-r427217100-Red_Roof_Inn_Suites_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -1164,6 +1287,9 @@
     <t>The rooms are cleaned daily and Miki and KC are very professional and they make my stay pleasant as always. Miki tell you what to expect on your stay so there are no surprises. I think they should get raises because when you have a great staff you will have happy customers.More</t>
   </si>
   <si>
+    <t>dkseete</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109572-r426969718-Red_Roof_Inn_Suites_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -1182,6 +1308,9 @@
     <t>Rooms are clean.. they are very thorough with housekeeping....Fast check in.. clean pool during the  season...i believe the young lady who helped me named Malika has great customer service.  Would definitely stay here again.  More</t>
   </si>
   <si>
+    <t>Brian F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109572-r420555435-Red_Roof_Inn_Suites_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -1204,6 +1333,9 @@
   </si>
   <si>
     <t>Right in the heart of Addison's entertainment district, close to everything from McDonald's to Houstons--many places in easy walking distance even.  The property itself is pretty well maintained, especially for a budget motel.  Helpful, friendly staff and surprisingly quiet.  I was here for five nights and only heard people a couple of times even though I know they were sold out all weekend.  This is my new favorite place to stay in North Dallas!  PS, smoking rooms available!!More</t>
+  </si>
+  <si>
+    <t>Samantha G</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109572-r419814591-Red_Roof_Inn_Suites_Addison-Addison_Texas.html</t>
@@ -1232,6 +1364,9 @@
 On the positive side of putting her in day care it cleared the room to be cleaned by someone not me. As I typically do- hotel staff is not always pet friendly which is understandable. So I generally leave the don't disturb sign on the door when the dog is in the room and take care of getting new towels and taking out trash. In...To be fair rather than just flame this hotel as I feel like doing I want to give the positive and negative. Or as someone has already mentioned "the good the bad and the ugly".If I could do half stars it would be more of a 2 1/2.Location location location. Please remember this is a budget place. I have stayed in better and much worse. Yes there are certain things wrong with this place. Example- being in construction I can tell when something is patched (badly). The bathroom door is cracked on the bottom. The bathtub had hair in it (too long to be mine). That said I have no issue with getting a sanitary wipe and wiping it down. It is a bit on the outdated side- but remember Budget. The AC began to make that running water sound. Had to take the dog out of the room and put her in dog day care as I couldn't take her everywhere with me and I didn't know when they would be there.On the positive side of putting her in day care it cleared the room to be cleaned by someone not me. As I typically do- hotel staff is not always pet friendly which is understandable. So I generally leave the don't disturb sign on the door when the dog is in the room and take care of getting new towels and taking out trash. In some cases as needed I get clean sheets. But I was raised to take care of myself and do things myself.If things were different this would be a positive review. But they messed up. The first time in my room in a week the housekeepers decided to strip the whole bed- due to dog hair. Unfortunately that whole strip included my curved memory foam pillow. The case was white- since I've been on the road living out of the same bags packed in January for work the pillow case had splatters of blood from my dog's ear when the tip got caught on something. We all know that even when washed and bleached (to an inch of its life) white still shows blood. Maybe the housekeeping thought they were being nice. I'm told maybe they thought it was one of theirs- hard to believe when my pillow vs. hotel pillows. On getting back I discover that my case is gone and is replaced with a hotel case. Which wouldn't be a big issue- but a friend of mine had made me a sleep blessing/well wishes letter. Weird  yes- but made with good thoughts and intentions in mind. The letter was in a sealed envelop inside my pillow case.That letter apparently disappeared with my case. On going to the front desk and explaining the issue (more than a few times) the gentleman called the manager on a Saturday late afternoon. My not being very happy may have caused me to be more on the blunt polite side. But all I got from him was that he would try. What happened to yes ma'am I'll find out and get back to you.He did get back to me around 8ish that same night. After again explaining that he couldn't  get in touch with anyone and didn't know anything. I love the use of the word TRY. As I explained to him it didn't make me feel like he wanted to succeed. Still no answer in the morning. Around 9 on Sunday (housekeeping already on site and laundry already started) I go to the front desk again. Explaining that I still haven't heard anything. The gentleman (same as last night) says he's going to go talk to housekeeping again asking what it was that I needed. He goes and comes back with no answer. I insist on calling the manager. He does and lets me know that he will be here around 11. So now I have to scrap my whole morning schedule to wait. I ask the front desk for the manager over the one coming in. He doesn't have a number. He refuses to call the other manager back. On pointing my finger at him (which was taken badly on his end). I basically tell him that he's refusing service. I'm told to sit down and wait for the manager. Not the best customer service. I was so upset that I was shaking. On asking for the number for corporate again he doesn't have it. He gives me a card with the current location number. I get on my phone and search for it. Unfortunately guest services is closed on Sunday. I have to call tomorrow. For any wanting guest service contact info (1800-554-4555). This whole incident could have been entirely unavoidable if they left a personal pillow case alone. This whole incident could have possibly had a better ending if they would have let me search the laundry last night when I asked. Because by now it has surly been washed if it hadn't already been. On a different line of thought- this place is in a good location for multiple restaurants and grocery stores. The room itself is spacious (king bed). Bed is comfortable. As I booked for 2 weeks the full fridge and microwave are nice. They do have breakfast and coffee on site. Again- budget guys. Not the best in the world but not the worst. I do hope to update this in the future if the issue is addressed and fixed.More</t>
   </si>
   <si>
+    <t>apurcell105</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109572-r419003180-Red_Roof_Inn_Suites_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -1256,6 +1391,9 @@
     <t>Brenda was behind the front desk with a nice smile and more than motivated to help me with all my needs, this hotel is very well located close to a nice restaurants and all attractions at an affordable price, Excellent stay.More</t>
   </si>
   <si>
+    <t>bestteachermom</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109572-r415162614-Red_Roof_Inn_Suites_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -1280,6 +1418,9 @@
     <t>We recently went to the Dallas area to visit our son and daughter-in-law and since our usual hotel had gone WAY UP in their prices, we decided to try the Red Roof Inn.  We were greeted very nicely when we checked in late Saturday night (after 10:30 PM) and were given 1 room key (not even asked if we would like 2), and shown a map where our room was.  We were also told what time breakfast was available. We walked into our room, which we were guaranteed was a "non-smoking" room and were greeted with a "funky" smell.  My husband has a very sensitive nose, so I was surprised he didn't say anything about it.  Then the noise started.  It sounded like a child running back and forth across the floor (quite loudly) directly above us - it's now after 11:00PM! This kept up for a good 45 minutes.  It finally stopped, and we were able to get some sleep.  The bed was OK, but less supportive than I'm used to, so I didn't sleep very well.  The A/C was very loud, but worked to cool the room down.  The water pressure was good and we were able to take nice showers the next morning.  Towels were a little skimpy - both in texture and size and we only got a set apiece, so I had no towel for my hair.  When we walked into the lobby for breakfast...We recently went to the Dallas area to visit our son and daughter-in-law and since our usual hotel had gone WAY UP in their prices, we decided to try the Red Roof Inn.  We were greeted very nicely when we checked in late Saturday night (after 10:30 PM) and were given 1 room key (not even asked if we would like 2), and shown a map where our room was.  We were also told what time breakfast was available. We walked into our room, which we were guaranteed was a "non-smoking" room and were greeted with a "funky" smell.  My husband has a very sensitive nose, so I was surprised he didn't say anything about it.  Then the noise started.  It sounded like a child running back and forth across the floor (quite loudly) directly above us - it's now after 11:00PM! This kept up for a good 45 minutes.  It finally stopped, and we were able to get some sleep.  The bed was OK, but less supportive than I'm used to, so I didn't sleep very well.  The A/C was very loud, but worked to cool the room down.  The water pressure was good and we were able to take nice showers the next morning.  Towels were a little skimpy - both in texture and size and we only got a set apiece, so I had no towel for my hair.  When we walked into the lobby for breakfast the next morning, before church, we were told by other diners there was no more batter for the waffles - so we ended up making toast. (no fruit available) but my husband was able to get his tea and I ended up with juice.  The lobby area only has 4 tables, so since there was no place to sit, we took our breakfast back to our room and (of course) the toast was cold by then.  Returning Sunday evening (fairly late - after 11:00PM) we were again greeted with the funky smell in our room (my husband had identified it by this time as cigarette smoke/musty odor) and the child running to and fro above our heads.  We were able to finally have a quiet night about 30 minutes later when the child quit running around.Monday morning breakfast was probably more of the same, but we decided to go out to eat breakfast with our kids. As we were checking out, we made mention of the fact of the child running around over our heads late at night, and the clerk told us the manager stayed up there, so we can only assume it was his/her child.Needless to say, we'll not be staying there again.  I guess the saying is true - "you get what you pay for" although, I assumed that since this hotel charged what our former hotel in the area charged at both last Christmas and last April when we visited, I was expecting a bit MORE.More</t>
   </si>
   <si>
+    <t>KeithConlan</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109572-r414389405-Red_Roof_Inn_Suites_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -1307,6 +1448,9 @@
     <t>I stayed at the Red Roof Inn for a week while I was relocating to the area and searching for apartments. I was pleasantly surprised with the professionalism of all of the staff I dealt with, especially Brenda, (I think that was her name, maybe Barbara?) The rooms were nice and clean and the location was very convenient. I highly recommend staying here as the price is very affordable for the value you get. If I had to complain about anything, it's the breakfast. I just wish there were a few more options and maybe some eggs as it is very carb-heavy. I'll definitely be recommending friends to stay there when they visit the area.More</t>
   </si>
   <si>
+    <t>John C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109572-r414267662-Red_Roof_Inn_Suites_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -1323,6 +1467,9 @@
   </si>
   <si>
     <t>This is very upscale for red roof, this property is very nice. The rooms are large, nicely equipped with 40" HD tv's. Lots of great eating places within walking distance. So if you are looking to be cost effective this is a nice place to stay.More</t>
+  </si>
+  <si>
+    <t>EbonieP1</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109572-r405531101-Red_Roof_Inn_Suites_Addison-Addison_Texas.html</t>
@@ -1367,6 +1514,9 @@
 I was forced to stay in a urinated saturated room or sleep in my car and miss the interview i came to this area for !!! I checked in at about 11:00pm and was giving room 231!!! Once I opened the door i was assaulted with what smelled like a 80yr old drunken sailor's urine!!!! I immediately called the front desk clerk and explained the problem she asked if she could place me on hold while she checked to see if she could find me another room!!! After being on hold for 20 min !!!I left the room and drove back to the front when she seen me she picked up the phone and acted as if she was trying to call someone!! I sat in the lobby for 10 minutes and approached the front desk and then she said the manager would be down in about 20 minutes !!! I told her i would go to the store to give them time!!! I came back 40 minutes later , when i walked in the manager was standing there talking to the female desk clerk who i will refer to as...REVIEWS ARE NOT TRUE THIS IS A DUMP**********GIVE RUN DOWN ROOMS TO THOSE WHO BOOK ON EXPEDIA/CHEAPTICKETS *****MICROWAVE &amp; REFRIGERATOR FROMS THE 80S***** FILTHY VENTS****** HUGE ROACHES***** URINE STAINED SHOWER CURTAIN *****URINE STAINED MATTRESS *****FILTHY CARPERT***** ONLY 1 SMALL DRYER &amp; 2 SMALL WASHERI was forced to stay in a urinated saturated room or sleep in my car and miss the interview i came to this area for !!! I checked in at about 11:00pm and was giving room 231!!! Once I opened the door i was assaulted with what smelled like a 80yr old drunken sailor's urine!!!! I immediately called the front desk clerk and explained the problem she asked if she could place me on hold while she checked to see if she could find me another room!!! After being on hold for 20 min !!!I left the room and drove back to the front when she seen me she picked up the phone and acted as if she was trying to call someone!! I sat in the lobby for 10 minutes and approached the front desk and then she said the manager would be down in about 20 minutes !!! I told her i would go to the store to give them time!!! I came back 40 minutes later , when i walked in the manager was standing there talking to the female desk clerk who i will refer to as T.Y.T(Tired Young Thot) Smart Mouth but cant find a simple solution !!! HE BOLTED FASTER THAN ALADDIN'S CARPERT AS SOON AS HE SEEN ME!!! She told me there was nothing they could do because i booked on Expedia!!! Clearly you can see that all of these rooms are not occupied but i could pay for a double bed room !!! I then asked could i get a shower curtain since the urine was saturated on the shower curtain 5 and T.Y.T told me she does not have access to that and she can try to call Mr. MARK the mantaince but she can make him come down because he off!!! MR.MARK agreed to bring the shower curtain but i would have to put it up myself!!!! T.Y.T got mad when i told her i would like to speak with this manger/owner !!! She told me to just give her the rooms keys and leave because they couldn't please me... They never tried to accommodate me even the shower curtain was my idea!!! Keep in mind it 12:45am !! Oh and i need to contact expedia for a refund!!!! I have pictures and videos that i will be posting!!!More</t>
   </si>
   <si>
+    <t>13bedbugz</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109572-r405217599-Red_Roof_Inn_Suites_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -1387,6 +1537,9 @@
 My life is falling apart because of this,  I have no money, no food,  My possessions...I hate this and it is killing me,  first off many know that I have actually lived at the Red Roof for the past 3 months and I have been so happy there.  The staff is amazing (more like family) the grounds are gorgeous and well kept,  the pool stays clean and sparkling,  and the rooms are the cleanest I have ever seen.  But there are alot of hazards there too that are not addressed and now my life has fallen apart because of it.  While doing landscaping there all of the rusky metal borders were pulled up and piled in front of my car some were even spikes up.  I tripped and fell one night on these rupturing 2 disk in my lower back and I may even have to have surgery..... 85% chance of it.  It has been over a week now and I am homeless due to not being able to work and pay room rent.  What is sad the metal laid out there 3 more days and the maid had to ask the manager if she should move them!   Timedated Pix attached.  The Hot Tub is Empty and anyone could fall in there,  The railing to the pool is loose, A guy tried to break into my room at 2 in the afternoon and No one even checked the cameras!My life is falling apart because of this,  I have no money, no food,  My possessions are still over there because I cant afford any help getting them. I have avoided getting an attorney because I did not want anyone in trouble but now it looks like I will have to.  I know it was just a freak accident but so much damage is done.More</t>
   </si>
   <si>
+    <t>screennamequeenB</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109572-r395621373-Red_Roof_Inn_Suites_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -1414,6 +1567,9 @@
     <t>Let start with this: i am in hotels almost constantly. I've only stayed in two red roof hotels prior to this stay. This one was not what I had expected. Especially the interior of the room. But let me begin at the beginning. When I arrived to check in there were a couple of folks In line before me. Usually, this is a clue my blood to really begin boil. Mostly due to the heat index that I've been driving around In on a hot Texas day. Waiting in line is misery when your hot and waiting  for a cool place to just rest. At least you hope it's going good to be cool. This is what I'm fully prepared for, based on what I paid for the reservation. I was all geared for mad. But Diana, at the front desk just wouldn't give me an excuse be miserable, even with the heat index. She greeted me with hello that was so friendly that I actually wondered for a second if it was intended to me. It sounded like someone greeting a good friend. I took a seat expecting it to be a while. I noticed the people that were in inexpensive before me . Not one person appearing to be aggitated. Huh. Diana is actually being friendly while being productive. Before I could even get comfy in my seat, it was my turn. Even with the FedEx guy coming...Let start with this: i am in hotels almost constantly. I've only stayed in two red roof hotels prior to this stay. This one was not what I had expected. Especially the interior of the room. But let me begin at the beginning. When I arrived to check in there were a couple of folks In line before me. Usually, this is a clue my blood to really begin boil. Mostly due to the heat index that I've been driving around In on a hot Texas day. Waiting in line is misery when your hot and waiting  for a cool place to just rest. At least you hope it's going good to be cool. This is what I'm fully prepared for, based on what I paid for the reservation. I was all geared for mad. But Diana, at the front desk just wouldn't give me an excuse be miserable, even with the heat index. She greeted me with hello that was so friendly that I actually wondered for a second if it was intended to me. It sounded like someone greeting a good friend. I took a seat expecting it to be a while. I noticed the people that were in inexpensive before me . Not one person appearing to be aggitated. Huh. Diana is actually being friendly while being productive. Before I could even get comfy in my seat, it was my turn. Even with the FedEx guy coming and going. Now I don't know what the FedEx situation was. I never noticed Diana acknowledge  him, she was paying attention to her guest. I know she must have dealt with  him. I could tell he had unfinished business. She greeted me again    I said do you need to finish with FedEx. And she said it. No attitude of condescension. Perfectly politely. And directly to me. You're my priority. Enough said. The rest of the staff and the upkeep and Condition also get a+ ratings and I had intended to rave about them all. But I'm out of time for now. I am planning to stay there again this week.  I'm looking forward to another great stay.More</t>
   </si>
   <si>
+    <t>Ann K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109572-r361548830-Red_Roof_Inn_Suites_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -1438,6 +1594,9 @@
     <t>I stayed here for three nights and booked through the Red Roof Inn website.  Was looking for a reasonably priced motel near Dallas, and this fit the bill.  My room was wonderful - newly remodeled, comfortable bed, nice sitting chair and ottoman, tv was new, and the wi-fi worked well.  Steve checked me in, he was very nice and helped me out with information regarding Dallas' public transportation location in Addison.  The only problem with the room was the door kept sticking and was hard to open most of the time (Room 106). Coffee was excellent and breakfast was good.  They do need to work on keeping the tables in the breakfast room wiped off after they've been used. Some of the breakfast room chairs could also use cleaning.  They are still remodeling rooms.  Very convenient to a lot of restaurants.  If I'm ever back in the area, I would definitely stay again.More</t>
   </si>
   <si>
+    <t>Matt M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109572-r357852569-Red_Roof_Inn_Suites_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -1456,6 +1615,9 @@
     <t>I booked through a third party site that did not have it's stuff together.  However, upon arrival, the front desk and manager were able to correct and accommodate me completely.  I appreciate their efforts.  Right price, right area, quiet facility.More</t>
   </si>
   <si>
+    <t>Ms-No_Bed_Bugs</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109572-r355866860-Red_Roof_Inn_Suites_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -1474,6 +1636,9 @@
     <t>Stayed two nights here. First room was a standard King and it was nice. Modern decor and under $70. Second night was a deluxe king room. It was ok. Not as nice or modern and more expensive. I say stick with a standard room. Great customer service from the gentleman at the front desk. He was extremely helpful. Added bonus was the waffle maker for breakfast along with bagels and pastries. Overall I enjoyed my stay and will definitely stay here again.More</t>
   </si>
   <si>
+    <t>James W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109572-r331775244-Red_Roof_Inn_Suites_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -1495,6 +1660,9 @@
     <t>My girlfriend and I stayed at the Red Roof Inn for 4 days. We have stayed in alot of hotels considering that's where we meet. The manger was awesome. We had some small money issues and he took care of us the whole time. Everything in room was perfect and clean. We have gotten the same room twice. I would recommend this hotel under this management to anyone and we will for sure be back. Thanks to all the staff.                                                                                   Thanks again,                                               James &amp; SarahMore</t>
   </si>
   <si>
+    <t>Richard H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109572-r331534043-Red_Roof_Inn_Suites_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -1513,6 +1681,9 @@
     <t>The hospitality and the general manager here take care to see you are comfortable and provided for.  I would recommend this hotel to anyone that is looking to have a great nights sleep, and a very comfortable stay.More</t>
   </si>
   <si>
+    <t>SmilingBig</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109572-r328088956-Red_Roof_Inn_Suites_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -1535,6 +1706,9 @@
   </si>
   <si>
     <t>Since my wife had to be at Love Field early this morning we decided to get a hotel for the night.  While searching for a hotel I noticed that many hotels around Dallas Love Field were in a "shaddy" neighborhood. So, I decided to go further north thinking my choices would prove more desirable. Hmmm, this hotel was not DESIRABLE after the fact.  Here are the 3 areas I consider when reviewing hotels. #1 Is the hotel CLEAN? #2 Is it in a SAFE area? and #3 Are the BEDS comfortable?  Last night we found Red stuff in the shower area/as well it was dirty; ( my wife would not use the shower) there were people up late outside of our door drinking, smoking and talking loudly.  Did I sleep well? No, the cleanliness and safety of the area determine how one sleeps regardless of how comfortable the bed.  Would I recommend this hotel? Absolutely NO.More</t>
+  </si>
+  <si>
+    <t>David C</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109572-r319449994-Red_Roof_Inn_Suites_Addison-Addison_Texas.html</t>
@@ -1564,6 +1738,9 @@
 The room was better than expected. Had large refrigerator, microwave, TV of course, ironing board and iron, hair blower. For a 70's (??) motel it was very well maintained. It was clean, the room (#247) was upstairs, away from the road, and quiet. Smelled better than some higher dollar motels. Best of all, the king bed was...Needed motel near Galleria for next day seminar. Had no free night stays available nearby so searched online for low price with at least an average rating, free WiFi, and free breakfast. So I made and paid for my reservation. Price was low, WiFi was okay at night but painfully slow to the point of useless at 7:30 a.m. Free breakfast was mostly bread and grain products: dry cereal, bread for toast, waffles, bagels and cream, muffins along with a pitcher of 2% milk, and a bowl of apples and oranges which were past their prime. It's the sort of breakfast a motel can set out early and ignore until 10 a.m. Watched TV news as I drank my coffee and ate my Texas-shaped waffle along with the 3/4s of the orange which still looked edible. No juice, eggs, sausage, or what you'd expect at pricier places. But what do you expect for the price? Desk clerk was very helpful. As I came in when just a few rooms were left, he looked for his top offering and gave me a free upgrade. The room was better than expected. Had large refrigerator, microwave, TV of course, ironing board and iron, hair blower. For a 70's (??) motel it was very well maintained. It was clean, the room (#247) was upstairs, away from the road, and quiet. Smelled better than some higher dollar motels. Best of all, the king bed was perfect!! Best sleep I've had in a long time.  It turned out time-wise to be farther from the Galleria than I'd expected and the traffic was heavier at 8 a.m. than I'd remembered. Give yourself plenty of time to get to wherever you are going in Dallas, as I did. Would I stay at Red Roof Addison again? If I could not find a free stay elsewhere, yes, and especially if a good night's sleep at a cheap price is my priority. Note that electrical outlets for C-PAP, sound machine are inconvenient; you might take an extension cord with a couple outlets on it with you.More</t>
   </si>
   <si>
+    <t>Bobby V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109572-r317322404-Red_Roof_Inn_Suites_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -1582,6 +1759,9 @@
     <t>Red Roof just finished updating.  It used to be a Quality Inn.  Great improvement. WiFi rocks!  We got 30 megabits or so.  They are doing a good job.  Front desk dude (Curtis) is a gamer.  He bragged on the Internet capacity when I checked in.For the price, best deal in Addison.  More</t>
   </si>
   <si>
+    <t>HotelPro20152016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109572-r299251891-Red_Roof_Inn_Suites_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -1603,6 +1783,9 @@
     <t>I stayed here for a week and changed rooms 3 times. The people staying here are trucker types, hispanic workers, and people visiting in town. The hotel itself is pretty accommodating. They have a nice free breakfast with Texas shaped waffles, cereal, bagels, cinnamon rolls, muffins, bread, yogurt, fruit, juice machine, and oatmeal. The linens are clean and each room stayed in was clean. Bugwise, 2 crickets in one room. They have a fridge, microwave, and wifi in the rooms. My rooms were video monitored however with comments and they set the intensity high enough to go through clothes and sheets commenting on body, changing clothes, living there etc realtime. Very upset. The staff member Curtis who is ultra polite otherwise was in full knowledge of these as he made severam statements while there that allowing my room to be monitored was correct as a single and I could change rooms as often as I like but the problem will continue in each room. It did. I already changed hotels 5 times and this was the best deal but the issue was not resolved. Furthermore, there is access to adjacent rooms in some of the rooms which only the office has access to. This was given out and some people I know broke into my room and used a stun gun on me. Two of the men used the other double bed with the woman with them. They moved me...I stayed here for a week and changed rooms 3 times. The people staying here are trucker types, hispanic workers, and people visiting in town. The hotel itself is pretty accommodating. They have a nice free breakfast with Texas shaped waffles, cereal, bagels, cinnamon rolls, muffins, bread, yogurt, fruit, juice machine, and oatmeal. The linens are clean and each room stayed in was clean. Bugwise, 2 crickets in one room. They have a fridge, microwave, and wifi in the rooms. My rooms were video monitored however with comments and they set the intensity high enough to go through clothes and sheets commenting on body, changing clothes, living there etc realtime. Very upset. The staff member Curtis who is ultra polite otherwise was in full knowledge of these as he made severam statements while there that allowing my room to be monitored was correct as a single and I could change rooms as often as I like but the problem will continue in each room. It did. I already changed hotels 5 times and this was the best deal but the issue was not resolved. Furthermore, there is access to adjacent rooms in some of the rooms which only the office has access to. This was given out and some people I know broke into my room and used a stun gun on me. Two of the men used the other double bed with the woman with them. They moved me to the door area. They exited out the front door. The office allowed this invasion of privacy and breakin. I reported it to the manager and police. At least the manager took me seriously but I did not receive a refund. Without these problems I would have extended.my stay. Others I have known have experienced similar problems here.More</t>
   </si>
   <si>
+    <t>Alice G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109572-r279557182-Red_Roof_Inn_Suites_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -1630,6 +1813,9 @@
     <t>I had booked this hotel though booking.com for a weeks stay in June to visit my sister. I checked into the hotel and staff didn't even have my reservation properly reserved. We went up to our room and walked back out! It was nasty!!! They even gave us a "remodeled" room. Carpets were stained, pubic hair in the bathroom and just plain Dirty!!! Forgot to mention the prostitutes staying there Gross!!! I asked for my money back and stayed elsewhere!!!More</t>
   </si>
   <si>
+    <t>Grace C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109572-r259577614-Red_Roof_Inn_Suites_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -1648,6 +1834,9 @@
     <t>Unless you will be barhopping in Addison until 2 am, or sleep like the dead, this hotel is not the place to go. Because all the rooms face the walkways, and the windows are so thin they don't cancel out any noise, you can hear every drunk person bumping EDM Or stumbling to their rooms who passes by. This is basically non stop until about 4 AM (we stayed on a Saturday night, BTW.)It's worth paying a little extra money or even staying at a Super 8 if you want to actually sleep. The hotel itself is okay, but basic.Sincerely, Exhausted and Never to Return. More</t>
   </si>
   <si>
+    <t>jawarhino</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109572-r257879259-Red_Roof_Inn_Suites_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -1675,6 +1864,9 @@
     <t>I was very happy with my stay here. Beds are very comfortable,  room is good, breakfast tasty, and customer service excellent. It is a good value for your money. It is also close to  major routes and easy to get to. Overall, I was very satisfied.More</t>
   </si>
   <si>
+    <t>Paulina I</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109572-r235769464-Red_Roof_Inn_Suites_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -1696,6 +1888,9 @@
     <t>When I checking the personal of the hotel very friendly and smiling superwhen I get to my room clean and smelling fresh very nice location to walk and eat in a nice restaurants arrown nice continental breakfast in the morning when u wake up the room service allways ready to help in anything beautiful servicesI am more the happy and I stay week and half days here nice reastaurant in front the FLAVORS restaurant delicious food u have to tray FLAVORS restaurant nothing to complain 100 % satisfaing and Ill come back 1 and more times I recommend this hotel and the services that they give exelent thx !More</t>
   </si>
   <si>
+    <t>Vandana B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109572-r226162531-Red_Roof_Inn_Suites_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -1717,6 +1912,9 @@
     <t>When checking in staff is superb and very friendly. Rooms are always clean.  Loved the location- convenient and easy to get to some of the nicest restaurant in the area.  Great place and location with great price. I would recommend staying here to anyone traveling to Addison,TX. More</t>
   </si>
   <si>
+    <t>domnp17</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109572-r223296837-Red_Roof_Inn_Suites_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -1735,6 +1933,9 @@
     <t>It was really excellent stay with quality inn and suites addison texas. Very helpful staff and good breakfast. Swimming pool was really clean and they also have hot tub I booked jacuzzi room and it was working good morning breakfast was really good scrambled eggs sausage juices milk coofee was really really good I recommend this hotel to everyone and in that area there are so many different kinds of restaurant and food was great gas station and kroger is walking distance and preety silent outside not like any other places I have been stayed in so many different hotel but this is pretty decentMore</t>
   </si>
   <si>
+    <t>Punit M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109572-r202719889-Red_Roof_Inn_Suites_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -1754,6 +1955,9 @@
   </si>
   <si>
     <t>I came here for my business trip from Washington D.C, I stay in room  no 254  upstairs front side of pool. When I enter in room the smell was really nice room was very neat and clean and bed sheet was totally clean which was my first preference,  The bed was comfortable, the pillows were quite soft which i like most but overall the stay was very good  and staff was totally cooperative with during my entire stay they also help me in direction to place which I need to visit. And internet service was very comfortable so I can finish my work in timely manner. However overall experience during my stay was very comfortable and I would like to visit this place again.More</t>
+  </si>
+  <si>
+    <t>jfcdallas</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109572-r195893177-Red_Roof_Inn_Suites_Addison-Addison_Texas.html</t>
@@ -1779,6 +1983,9 @@
 Over all the price point...Ok, check in was nice and simple, I was provided room 205, upstairs and facing away from the main street.  This was good, the room has one of those doors that can open to the nearby room, which is not one of my favorite features, something about this is just CREEPY for me. I didn't request for another room, because I was tired, but going forward I ll ask that question to ensure I don't have issues again.  The room appeared to be clean, the rug needs a little cleaning in some areas but it's just normal wear and use, the bathroom should be repainted, it looks a little dark in there. Also, I smelled a slight mildew odor coming from that area, so I whipped out the Lysol and began the spraying &amp; wipe down.  The bed was comfortable, the pillows were quite soft not to my liking but overall the stay was decent.  The room was rather large and there was not a micro/fridge, which I normally have in Quality Inn &amp; Suites locations, so I was somewhat surprised. The walls were rather thin, I could hear someone snoring in the next room, and I heard much discussions, through the adjoining room door, so the rest was not great. The breakfast was the run of the mill, yogurt, fruit, bagels, scrambled eggs &amp; sausage links.  Internet worked just fine w/ out any issues. Over all the price point is ok, but I probably would not stay here again, just my preference due to the doors &amp; the slow flushing toilet.More</t>
   </si>
   <si>
+    <t>candminw</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109572-r188960761-Red_Roof_Inn_Suites_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -1800,6 +2007,9 @@
     <t>We had an average stay for breakfast and cleanliness.  Below average for internet usage and ambiance.  We asked for assistance with the internet connection a few times and was told it was fine.  However, it continued to be a spotty connection until the third day of our stay and then it was fine with no explanation.  This property seems to be frequented by truck drivers and long-term residents.  There was a domestic disturbance going on in the unit above ours to the point that we feared for our safety.  The management said they were aware of the problem.  One of the guests threw a large container of belongings over the 2nd floor railing and barely missed where our car had been parked just moments before we pulled out to leave for the day.  We are Choice members but will choose a higher level in their system in the future.  The location of this hotel around the 4100 block of Beltline is a few blocks west of all of the good restaurants and the interchange.  If you are looking for easy access to Dallas N Tollway and the Galleria, you should select one in the 4300-4500 block range of Beltline Road.More</t>
   </si>
   <si>
+    <t>GloriaJacobo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109572-r150671868-Red_Roof_Inn_Suites_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -1821,6 +2031,9 @@
     <t>Very nice fitted rooms very helpful staff stayed their from 12/01/12-12/10/12 nice pool access and very helpful front desk people. Manager has amazing rates for long staying customers very friendly room service staff. Cheap price hotel rooms to stay in the Addison area very clean.More</t>
   </si>
   <si>
+    <t>Gary C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109572-r143867034-Red_Roof_Inn_Suites_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -1830,6 +2043,9 @@
     <t>October 27, 2012</t>
   </si>
   <si>
+    <t>streetperformer</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109572-r142728830-Red_Roof_Inn_Suites_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -1839,6 +2055,9 @@
     <t>October 13, 2012</t>
   </si>
   <si>
+    <t>Bloody William A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109572-r135506333-Red_Roof_Inn_Suites_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -1848,6 +2067,9 @@
     <t>July 26, 2012</t>
   </si>
   <si>
+    <t>GermanFarmBoy B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109572-r133408801-Red_Roof_Inn_Suites_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -1867,6 +2089,9 @@
   </si>
   <si>
     <t>Old School outdoor access rooms. Worn, worn, worn, and ragged out some more. That in itself would be fine but unfortunately the hotel is simply DIRTY. Don't know who is doing the housekeeping around here but it is SAD. Crusty everything. Holes, stains, cracks etc. They should just bulldoze this place and start over, Oddly enough I slept well which is why I didn't give them 1 star. Better choices in Addison.More</t>
+  </si>
+  <si>
+    <t>tinkerbtch</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109572-r131850547-Red_Roof_Inn_Suites_Addison-Addison_Texas.html</t>
@@ -1919,6 +2144,9 @@
 been magically transported to 1982.  It was awful (decor wise), but I accepted...My honest opinion is that this place is "not that bad"..but it's not so good either.I booked through a 3rd party site and was told that even though I booked for 2 weeks,(because I booked through the other site), I could not have a refrigerator or a microwaveunless I paid 10 dollars per night.  That is 140 dollars for a refrigerator, that Icould outright BUY for less!  Supposedly "managements hands were tied", but we all knowthat if they wanted me to have it, they could find a way, without trying to nickel anddime me for something that should be in ever hotel room and has been in every other hotelroom I have ever stayed in.The pool is merky and always has leaves and bugs in it, so I never used it and I neversaw anyone else brave enough to get in it either.  The hot tub is out of water and outof order and down right disgusting too.Breakfast was actually pretty good though I don't think those are real eggs...but at leasteverything was fresh and didn't taste bad.  (eggs, breakfast sausage links, bagels, Pastries,waffles, and an assortment of juices)The internet connection was fair.The room I saved for last..The moment I walked in to my room my heart sank.  I thought I hadbeen magically transported to 1982.  It was awful (decor wise), but I accepted it because itDID appear to be immaculantly clean.  That was until my son moved the dresser a little toplug his xbox into the tube (crt) type television.Behind the dresser was so much built up dirt, dirty tissues, papers and even someones debit card that expired in 2009..It is now the year 2012.The a/c was awesome, the lighting was minimal and made the room feel even more drab and depressed.The bathroom (that I called the suffocation room), is tiny.  Whether you take a cold or hot shower doesn't matter.  It's suffocating as no air flows through it.  (an no I didn't have the heat lamp on).The queen sized bed though was comfortable enough for a good nights sleep, and the hotel isn't fullof loud obnoxious people.  My guess is they are crying in their hotel rooms hard wooden chairs, as I did.It's good for a day or two..no more than that, and don't expect management to do anything but try to contradictanything you say and rationalize their shortcomings.  He is not interested in your satisfaction.More</t>
   </si>
   <si>
+    <t>Foxybones</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109572-r75991426-Red_Roof_Inn_Suites_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -1937,6 +2165,9 @@
     <t>After five previous visits to Texas, each time staying at a Suburban Extended Stay Hotel, I was greatly surprised and incredibly delighted to have found a new, better accommodation for future visits to America. Whilst the Quality Inn may not look like much from outside, the  rooms are sizeable, immaculately clean and comfortable, and come with a variety of amenities such as a microwave and a refrigerator. The free breakfast provided each day has a mass of options to suit any appetite and free coffee is provided all day.The rooms, the pool, hot tub, in fact everywhere I saw was cleaned and maintained every single day by friendly, caring staff who are happy to help with any query or need you may have. I will definitely be recommending this hotel to everyone for future visits to this area and is the only place I will stay on my return to Texas.More</t>
   </si>
   <si>
+    <t>jph948</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109572-r75100830-Red_Roof_Inn_Suites_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -1958,6 +2189,9 @@
     <t>I have to admit, I only spend 20 minutes there. But it might have been the LONGEST 20 minutes I ever spent in a motel room. After checking in, we went around the back to our room and saw that it was a bare-bones, very basic room with nothing to put a smile on my face. My wife wouldn't go more than 4 steps and begged me to book something (anything) else. We grabbed our bags and headed for the front desk. When I told them I was canceling, they told me it had been more than 15 minutes so it was considered a "stay" Therefore, no refund. I pleaded my case to no avail. So we went over to the Holiday Inn Express and had a great room. But I learned a lesson and should have looked at the room BEFORE giving them a credit card. For the low price it might be worthwhile if you are "really" desperate, but we weren't. Or take your chances.More</t>
   </si>
   <si>
+    <t>maurice30141</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109572-r63151394-Red_Roof_Inn_Suites_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -1979,6 +2213,9 @@
     <t>Thank God for the law firm. johnvmcshane.com  As a friend and guest of this Inn &amp; Suites .And on a long term stay. The front desk. Mr. Patel as well as housekeeping have gone the extra mile.Compared to the other low budget and high priced hotels. I find it a 'point to point' application for my continued stay.The continental breakfast pool and spa  are well maintained. Housekeeping is prompt and on time.From waiting at the front desk at the Ramada (NY) to the hotels in Hawaii ( where I lived for a few years) the fact that my funds drive revenue not to deplete the smile on my face is a given here.I am,Maurice G. MorlanMore</t>
   </si>
   <si>
+    <t>tarellano</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109572-r19468952-Red_Roof_Inn_Suites_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -2000,6 +2237,9 @@
     <t>My husband and I stayed at the Quality Inn in Addison, and we really enjoyed it! The room was clean, there was a complementary breakfast, and there wasn't a lot of noise even though there was plenty of guests. The location was great, there were plenty of restaurants nearby, and the major roads were just a short distance away. Additional places that are nearby that you should visit:The Galleria MallBJ's RestaurantIkeaMore</t>
   </si>
   <si>
+    <t>MelLV</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109572-r14560617-Red_Roof_Inn_Suites_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -2021,6 +2261,9 @@
     <t>Went to Addison for daughters wedding. Had many requirements for a hotel &amp; Quality Inns met them all for myself &amp; my family. The staff were so nice so that was an added plus! Great location as well as convenient to everywhere we needed to go the week we were there.I would recommend this hotel to others &amp; would stay there again if I return to the Addison area!More</t>
   </si>
   <si>
+    <t>rbaron721</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109572-r10814420-Red_Roof_Inn_Suites_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -2040,6 +2283,9 @@
   </si>
   <si>
     <t>Hotel was formerly an apartment complex.  The guy at the front desk is less than helpful.  I asked him to help me set up my internet and he basically refused saying that "no one else complained about it".  The wireless net is not great.  It only works sporadically and I never have problems anywhere else with my wireless card in my laptop.  The bath towels were paper-thin and had stains on them.  The bed was decent as far as comfort is concerned.  The T.V. worked fine in the room.  The location is close to several restaurants and is close enough to the tollway.More</t>
+  </si>
+  <si>
+    <t>GIjaneOmaha</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109572-r7485527-Red_Roof_Inn_Suites_Addison-Addison_Texas.html</t>
@@ -2069,6 +2315,9 @@
 the next morning. And the next morning started a bit...I went to the Quality Inn in Addison, TX for a weekend with my fiancee. I had called ahead and left his name and personal info with the hotel so he could check in ahead of me, since he would be arriving first. When he got there they wouldnt let him check in and he had to wait in the lobby for me. The 1st room we were given had not actually been cleaned since its last occupant. We got our room switched and expected that would be the last of our trouble. Our new room had a fist-size hole punched in the bathroom door and the light didnt work, but hey, just a weekend right? We could deal with it. Theinternet didnt work which made getting directions around town a bit more difficult but the hotel did give us a map. They also gave us a wake up call at 6am the next morning by mistake. We left for the day and the maid was cleaning the room when we got back. She left and we went in to find that my fiancee's shirt, which he had hung over the bathroom towel rack to un-wrinkle, had somehow gone for a swim in thetoilet while she was there. At this point we were afraid to even try the laundry facilities so my fiancee just recycled his previous shirtthe next morning. And the next morning started a bit early too, with an automated 8am wake up call reminding us to check out by noon. We were out by 9. For the $56/night we paid to stay there it wasn't worth the headache. We could have gotten a nicer room just about anywhere else.More</t>
   </si>
   <si>
+    <t>CENCO</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109572-r7432320-Red_Roof_Inn_Suites_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -2085,6 +2334,9 @@
   </si>
   <si>
     <t>I have just returned from a 3 night stay at this motel.  While the rate is tempting I must say, you get what you pay for.  Our room was on the back side of the motel and was quiet for the most part.  Our first night, Saturday night, there was a loud party in the complex and I was disappointed that this behavior was tolerated.The place was clean but worn.  Not enough towels delivered to the room for 2 people and cigarette burned sheets on the bed one night..  If I had to do it all over again, I would stay someplace else.Joan in ColoradoMore</t>
+  </si>
+  <si>
+    <t>JA007</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109572-r6337787-Red_Roof_Inn_Suites_Addison-Addison_Texas.html</t>
@@ -2610,43 +2862,47 @@
       <c r="A2" t="n">
         <v>3558</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>174917</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="n">
         <v>5</v>
@@ -2664,56 +2920,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>3558</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>174918</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -2725,56 +2985,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>3558</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>174919</v>
+      </c>
+      <c r="C4" t="s">
+        <v>66</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="J4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="L4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P4" t="n">
         <v>1</v>
@@ -2792,56 +3056,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="X4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="Y4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>3558</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>174920</v>
+      </c>
+      <c r="C5" t="s">
+        <v>76</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="J5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="K5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="L5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="M5" t="n">
         <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P5" t="n">
         <v>4</v>
@@ -2859,56 +3127,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="X5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="Y5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>3558</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>174921</v>
+      </c>
+      <c r="C6" t="s">
+        <v>86</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="J6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="K6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="L6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="M6" t="n">
         <v>3</v>
       </c>
       <c r="N6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="O6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -2924,56 +3196,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="X6" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="Y6" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>3558</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>174922</v>
+      </c>
+      <c r="C7" t="s">
+        <v>96</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="J7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="K7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="L7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="M7" t="n">
         <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="O7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P7" t="n">
         <v>5</v>
@@ -2991,56 +3267,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="X7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="Y7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>3558</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>174923</v>
+      </c>
+      <c r="C8" t="s">
+        <v>106</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="J8" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="K8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="L8" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="O8" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="n">
@@ -3058,56 +3338,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="X8" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="Y8" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>3558</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>174924</v>
+      </c>
+      <c r="C9" t="s">
+        <v>116</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="J9" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="K9" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="L9" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="O9" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -3119,56 +3403,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="X9" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="Y9" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>3558</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>174925</v>
+      </c>
+      <c r="C10" t="s">
+        <v>127</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="J10" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="K10" t="s">
+        <v>131</v>
+      </c>
+      <c r="L10" t="s">
+        <v>132</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
         <v>122</v>
       </c>
-      <c r="L10" t="s">
+      <c r="O10" t="s">
         <v>123</v>
-      </c>
-      <c r="M10" t="n">
-        <v>5</v>
-      </c>
-      <c r="N10" t="s">
-        <v>114</v>
-      </c>
-      <c r="O10" t="s">
-        <v>115</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -3180,56 +3468,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="X10" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="Y10" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>3558</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>174926</v>
+      </c>
+      <c r="C11" t="s">
+        <v>136</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="J11" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="K11" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="L11" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="M11" t="n">
         <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="O11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="n">
@@ -3245,56 +3537,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="X11" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="Y11" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>3558</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>174927</v>
+      </c>
+      <c r="C12" t="s">
+        <v>146</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="J12" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="K12" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="L12" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="M12" t="n">
         <v>3</v>
       </c>
       <c r="N12" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="O12" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -3310,56 +3606,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="X12" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="Y12" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>3558</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>132363</v>
+      </c>
+      <c r="C13" t="s">
+        <v>153</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
+        <v>154</v>
+      </c>
+      <c r="G13" t="s">
+        <v>47</v>
+      </c>
+      <c r="H13" t="s">
+        <v>48</v>
+      </c>
+      <c r="I13" t="s">
+        <v>155</v>
+      </c>
+      <c r="J13" t="s">
+        <v>156</v>
+      </c>
+      <c r="K13" t="s">
+        <v>157</v>
+      </c>
+      <c r="L13" t="s">
+        <v>158</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
         <v>142</v>
       </c>
-      <c r="G13" t="s">
-        <v>46</v>
-      </c>
-      <c r="H13" t="s">
-        <v>47</v>
-      </c>
-      <c r="I13" t="s">
-        <v>143</v>
-      </c>
-      <c r="J13" t="s">
-        <v>144</v>
-      </c>
-      <c r="K13" t="s">
-        <v>145</v>
-      </c>
-      <c r="L13" t="s">
-        <v>146</v>
-      </c>
-      <c r="M13" t="n">
-        <v>5</v>
-      </c>
-      <c r="N13" t="s">
-        <v>132</v>
-      </c>
       <c r="O13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -3371,56 +3671,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="X13" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="Y13" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>3558</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>174928</v>
+      </c>
+      <c r="C14" t="s">
+        <v>162</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="J14" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="K14" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="L14" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="O14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="n">
@@ -3438,56 +3742,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="X14" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="Y14" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>3558</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>11920</v>
+      </c>
+      <c r="C15" t="s">
+        <v>172</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="J15" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="K15" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="L15" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="O15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="n">
@@ -3503,56 +3811,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="X15" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="Y15" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>3558</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>4308</v>
+      </c>
+      <c r="C16" t="s">
+        <v>181</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="J16" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="K16" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="L16" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="M16" t="n">
         <v>3</v>
       </c>
       <c r="N16" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="O16" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -3564,56 +3876,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="X16" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="Y16" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>3558</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>174929</v>
+      </c>
+      <c r="C17" t="s">
+        <v>189</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="J17" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="K17" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="L17" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="M17" t="n">
         <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="O17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -3625,56 +3941,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="X17" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="Y17" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>3558</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>174930</v>
+      </c>
+      <c r="C18" t="s">
+        <v>199</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="J18" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="K18" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="L18" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="M18" t="n">
         <v>2</v>
       </c>
       <c r="N18" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="O18" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -3686,56 +4006,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="X18" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="Y18" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>3558</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>174931</v>
+      </c>
+      <c r="C19" t="s">
+        <v>209</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="J19" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="K19" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="L19" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="O19" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -3747,56 +4071,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="X19" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="Y19" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>3558</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>174932</v>
+      </c>
+      <c r="C20" t="s">
+        <v>215</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="J20" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="K20" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="L20" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="O20" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -3808,56 +4136,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="X20" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="Y20" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>3558</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>174933</v>
+      </c>
+      <c r="C21" t="s">
+        <v>224</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="J21" t="s">
-        <v>207</v>
+        <v>227</v>
       </c>
       <c r="K21" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="L21" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="O21" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="P21" t="n">
         <v>5</v>
@@ -3875,56 +4207,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="X21" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="Y21" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>3558</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>174934</v>
+      </c>
+      <c r="C22" t="s">
+        <v>234</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>214</v>
+        <v>235</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="J22" t="s">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="K22" t="s">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="L22" t="s">
-        <v>218</v>
+        <v>239</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="O22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -3936,56 +4272,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="X22" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="Y22" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>3558</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>174935</v>
+      </c>
+      <c r="C23" t="s">
+        <v>243</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>222</v>
+        <v>244</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>223</v>
+        <v>245</v>
       </c>
       <c r="J23" t="s">
-        <v>224</v>
+        <v>246</v>
       </c>
       <c r="K23" t="s">
-        <v>225</v>
+        <v>247</v>
       </c>
       <c r="L23" t="s">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="O23" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -3997,56 +4337,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>227</v>
+        <v>249</v>
       </c>
       <c r="X23" t="s">
-        <v>228</v>
+        <v>250</v>
       </c>
       <c r="Y23" t="s">
-        <v>229</v>
+        <v>251</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>3558</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>174936</v>
+      </c>
+      <c r="C24" t="s">
+        <v>252</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>230</v>
+        <v>253</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>231</v>
+        <v>254</v>
       </c>
       <c r="J24" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="K24" t="s">
-        <v>233</v>
+        <v>256</v>
       </c>
       <c r="L24" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
       <c r="N24" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="O24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -4058,56 +4402,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>235</v>
+        <v>258</v>
       </c>
       <c r="X24" t="s">
-        <v>236</v>
+        <v>259</v>
       </c>
       <c r="Y24" t="s">
-        <v>237</v>
+        <v>260</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>3558</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>174937</v>
+      </c>
+      <c r="C25" t="s">
+        <v>261</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>238</v>
+        <v>262</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>239</v>
+        <v>263</v>
       </c>
       <c r="J25" t="s">
-        <v>240</v>
+        <v>264</v>
       </c>
       <c r="K25" t="s">
-        <v>241</v>
+        <v>265</v>
       </c>
       <c r="L25" t="s">
-        <v>242</v>
+        <v>266</v>
       </c>
       <c r="M25" t="n">
         <v>4</v>
       </c>
       <c r="N25" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="O25" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -4119,56 +4467,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>243</v>
+        <v>267</v>
       </c>
       <c r="X25" t="s">
-        <v>244</v>
+        <v>268</v>
       </c>
       <c r="Y25" t="s">
-        <v>245</v>
+        <v>269</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>3558</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>174938</v>
+      </c>
+      <c r="C26" t="s">
+        <v>270</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>246</v>
+        <v>271</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>247</v>
+        <v>272</v>
       </c>
       <c r="J26" t="s">
-        <v>248</v>
+        <v>273</v>
       </c>
       <c r="K26" t="s">
-        <v>249</v>
+        <v>274</v>
       </c>
       <c r="L26" t="s">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>251</v>
+        <v>276</v>
       </c>
       <c r="O26" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -4180,56 +4532,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>252</v>
+        <v>277</v>
       </c>
       <c r="X26" t="s">
-        <v>253</v>
+        <v>278</v>
       </c>
       <c r="Y26" t="s">
-        <v>254</v>
+        <v>279</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>3558</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>174939</v>
+      </c>
+      <c r="C27" t="s">
+        <v>280</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>255</v>
+        <v>281</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>256</v>
+        <v>282</v>
       </c>
       <c r="J27" t="s">
-        <v>257</v>
+        <v>283</v>
       </c>
       <c r="K27" t="s">
-        <v>258</v>
+        <v>284</v>
       </c>
       <c r="L27" t="s">
-        <v>259</v>
+        <v>285</v>
       </c>
       <c r="M27" t="n">
         <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>251</v>
+        <v>276</v>
       </c>
       <c r="O27" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -4241,56 +4597,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>260</v>
+        <v>286</v>
       </c>
       <c r="X27" t="s">
-        <v>261</v>
+        <v>287</v>
       </c>
       <c r="Y27" t="s">
-        <v>262</v>
+        <v>288</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>3558</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>1515</v>
+      </c>
+      <c r="C28" t="s">
+        <v>289</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>263</v>
+        <v>290</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>264</v>
+        <v>291</v>
       </c>
       <c r="J28" t="s">
-        <v>265</v>
+        <v>292</v>
       </c>
       <c r="K28" t="s">
-        <v>266</v>
+        <v>293</v>
       </c>
       <c r="L28" t="s">
-        <v>267</v>
+        <v>294</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>251</v>
+        <v>276</v>
       </c>
       <c r="O28" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P28" t="n">
         <v>5</v>
@@ -4308,56 +4668,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>268</v>
+        <v>295</v>
       </c>
       <c r="X28" t="s">
-        <v>269</v>
+        <v>296</v>
       </c>
       <c r="Y28" t="s">
-        <v>270</v>
+        <v>297</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>3558</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>11777</v>
+      </c>
+      <c r="C29" t="s">
+        <v>298</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>271</v>
+        <v>299</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
       <c r="J29" t="s">
-        <v>273</v>
+        <v>301</v>
       </c>
       <c r="K29" t="s">
-        <v>274</v>
+        <v>302</v>
       </c>
       <c r="L29" t="s">
-        <v>275</v>
+        <v>303</v>
       </c>
       <c r="M29" t="n">
         <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>251</v>
+        <v>276</v>
       </c>
       <c r="O29" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -4369,56 +4733,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>276</v>
+        <v>304</v>
       </c>
       <c r="X29" t="s">
-        <v>277</v>
+        <v>305</v>
       </c>
       <c r="Y29" t="s">
-        <v>278</v>
+        <v>306</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>3558</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>174940</v>
+      </c>
+      <c r="C30" t="s">
+        <v>307</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>279</v>
+        <v>308</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>280</v>
+        <v>309</v>
       </c>
       <c r="J30" t="s">
-        <v>281</v>
+        <v>310</v>
       </c>
       <c r="K30" t="s">
-        <v>282</v>
+        <v>311</v>
       </c>
       <c r="L30" t="s">
-        <v>283</v>
+        <v>312</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>284</v>
+        <v>313</v>
       </c>
       <c r="O30" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
@@ -4430,56 +4798,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>285</v>
+        <v>314</v>
       </c>
       <c r="X30" t="s">
-        <v>286</v>
+        <v>315</v>
       </c>
       <c r="Y30" t="s">
-        <v>287</v>
+        <v>316</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>3558</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>174941</v>
+      </c>
+      <c r="C31" t="s">
+        <v>317</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>288</v>
+        <v>318</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>289</v>
+        <v>319</v>
       </c>
       <c r="J31" t="s">
-        <v>290</v>
+        <v>320</v>
       </c>
       <c r="K31" t="s">
-        <v>291</v>
+        <v>321</v>
       </c>
       <c r="L31" t="s">
-        <v>292</v>
+        <v>322</v>
       </c>
       <c r="M31" t="n">
         <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>284</v>
+        <v>313</v>
       </c>
       <c r="O31" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -4491,56 +4863,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>293</v>
+        <v>323</v>
       </c>
       <c r="X31" t="s">
-        <v>294</v>
+        <v>324</v>
       </c>
       <c r="Y31" t="s">
-        <v>295</v>
+        <v>325</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>3558</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>40693</v>
+      </c>
+      <c r="C32" t="s">
+        <v>326</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>296</v>
+        <v>327</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>297</v>
+        <v>328</v>
       </c>
       <c r="J32" t="s">
-        <v>298</v>
+        <v>329</v>
       </c>
       <c r="K32" t="s">
-        <v>299</v>
+        <v>330</v>
       </c>
       <c r="L32" t="s">
-        <v>300</v>
+        <v>331</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>284</v>
+        <v>313</v>
       </c>
       <c r="O32" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
@@ -4552,56 +4928,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>301</v>
+        <v>332</v>
       </c>
       <c r="X32" t="s">
-        <v>302</v>
+        <v>333</v>
       </c>
       <c r="Y32" t="s">
-        <v>303</v>
+        <v>334</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>3558</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>174942</v>
+      </c>
+      <c r="C33" t="s">
+        <v>335</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>304</v>
+        <v>336</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>305</v>
+        <v>337</v>
       </c>
       <c r="J33" t="s">
-        <v>298</v>
+        <v>329</v>
       </c>
       <c r="K33" t="s">
-        <v>306</v>
+        <v>338</v>
       </c>
       <c r="L33" t="s">
-        <v>307</v>
+        <v>339</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>284</v>
+        <v>313</v>
       </c>
       <c r="O33" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
@@ -4613,56 +4993,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>301</v>
+        <v>332</v>
       </c>
       <c r="X33" t="s">
-        <v>302</v>
+        <v>333</v>
       </c>
       <c r="Y33" t="s">
-        <v>308</v>
+        <v>340</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>3558</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>10030</v>
+      </c>
+      <c r="C34" t="s">
+        <v>341</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>309</v>
+        <v>342</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>310</v>
+        <v>343</v>
       </c>
       <c r="J34" t="s">
-        <v>311</v>
+        <v>344</v>
       </c>
       <c r="K34" t="s">
-        <v>312</v>
+        <v>345</v>
       </c>
       <c r="L34" t="s">
-        <v>313</v>
+        <v>346</v>
       </c>
       <c r="M34" t="n">
         <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>284</v>
+        <v>313</v>
       </c>
       <c r="O34" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
@@ -4678,56 +5062,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>314</v>
+        <v>347</v>
       </c>
       <c r="X34" t="s">
-        <v>315</v>
+        <v>348</v>
       </c>
       <c r="Y34" t="s">
-        <v>316</v>
+        <v>349</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>3558</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>20609</v>
+      </c>
+      <c r="C35" t="s">
+        <v>350</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>317</v>
+        <v>351</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>318</v>
+        <v>352</v>
       </c>
       <c r="J35" t="s">
-        <v>319</v>
+        <v>353</v>
       </c>
       <c r="K35" t="s">
-        <v>320</v>
+        <v>354</v>
       </c>
       <c r="L35" t="s">
-        <v>321</v>
+        <v>355</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="O35" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
@@ -4739,56 +5127,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>323</v>
+        <v>357</v>
       </c>
       <c r="X35" t="s">
-        <v>324</v>
+        <v>358</v>
       </c>
       <c r="Y35" t="s">
-        <v>325</v>
+        <v>359</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>3558</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>174943</v>
+      </c>
+      <c r="C36" t="s">
+        <v>360</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>326</v>
+        <v>361</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>327</v>
+        <v>362</v>
       </c>
       <c r="J36" t="s">
-        <v>328</v>
+        <v>363</v>
       </c>
       <c r="K36" t="s">
-        <v>329</v>
+        <v>364</v>
       </c>
       <c r="L36" t="s">
-        <v>330</v>
+        <v>365</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>331</v>
+        <v>366</v>
       </c>
       <c r="O36" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
@@ -4800,56 +5192,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>332</v>
+        <v>367</v>
       </c>
       <c r="X36" t="s">
-        <v>333</v>
+        <v>368</v>
       </c>
       <c r="Y36" t="s">
-        <v>334</v>
+        <v>369</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>3558</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>174944</v>
+      </c>
+      <c r="C37" t="s">
+        <v>370</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>336</v>
+        <v>372</v>
       </c>
       <c r="J37" t="s">
-        <v>337</v>
+        <v>373</v>
       </c>
       <c r="K37" t="s">
-        <v>338</v>
+        <v>374</v>
       </c>
       <c r="L37" t="s">
-        <v>339</v>
+        <v>375</v>
       </c>
       <c r="M37" t="n">
         <v>3</v>
       </c>
       <c r="N37" t="s">
-        <v>331</v>
+        <v>366</v>
       </c>
       <c r="O37" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
@@ -4861,56 +5257,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>340</v>
+        <v>376</v>
       </c>
       <c r="X37" t="s">
-        <v>341</v>
+        <v>377</v>
       </c>
       <c r="Y37" t="s">
-        <v>342</v>
+        <v>378</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>3558</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>174945</v>
+      </c>
+      <c r="C38" t="s">
+        <v>379</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>343</v>
+        <v>380</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>344</v>
+        <v>381</v>
       </c>
       <c r="J38" t="s">
-        <v>345</v>
+        <v>382</v>
       </c>
       <c r="K38" t="s">
-        <v>346</v>
+        <v>383</v>
       </c>
       <c r="L38" t="s">
-        <v>347</v>
+        <v>384</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>348</v>
+        <v>385</v>
       </c>
       <c r="O38" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
@@ -4922,56 +5322,60 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>349</v>
+        <v>386</v>
       </c>
       <c r="X38" t="s">
-        <v>350</v>
+        <v>387</v>
       </c>
       <c r="Y38" t="s">
-        <v>351</v>
+        <v>388</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>3558</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>174946</v>
+      </c>
+      <c r="C39" t="s">
+        <v>389</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>352</v>
+        <v>390</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>353</v>
+        <v>391</v>
       </c>
       <c r="J39" t="s">
-        <v>354</v>
+        <v>392</v>
       </c>
       <c r="K39" t="s">
-        <v>355</v>
+        <v>393</v>
       </c>
       <c r="L39" t="s">
-        <v>356</v>
+        <v>394</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>331</v>
+        <v>366</v>
       </c>
       <c r="O39" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="n">
@@ -4989,56 +5393,60 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>349</v>
+        <v>386</v>
       </c>
       <c r="X39" t="s">
-        <v>350</v>
+        <v>387</v>
       </c>
       <c r="Y39" t="s">
-        <v>357</v>
+        <v>395</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>3558</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>174947</v>
+      </c>
+      <c r="C40" t="s">
+        <v>396</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>358</v>
+        <v>397</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>359</v>
+        <v>398</v>
       </c>
       <c r="J40" t="s">
-        <v>360</v>
+        <v>399</v>
       </c>
       <c r="K40" t="s">
-        <v>361</v>
+        <v>400</v>
       </c>
       <c r="L40" t="s">
-        <v>362</v>
+        <v>401</v>
       </c>
       <c r="M40" t="n">
         <v>2</v>
       </c>
       <c r="N40" t="s">
-        <v>331</v>
+        <v>366</v>
       </c>
       <c r="O40" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="s"/>
@@ -5050,56 +5458,60 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>363</v>
+        <v>402</v>
       </c>
       <c r="X40" t="s">
-        <v>364</v>
+        <v>403</v>
       </c>
       <c r="Y40" t="s">
-        <v>365</v>
+        <v>404</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>3558</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>174948</v>
+      </c>
+      <c r="C41" t="s">
+        <v>405</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
+        <v>406</v>
+      </c>
+      <c r="G41" t="s">
+        <v>47</v>
+      </c>
+      <c r="H41" t="s">
+        <v>48</v>
+      </c>
+      <c r="I41" t="s">
+        <v>407</v>
+      </c>
+      <c r="J41" t="s">
+        <v>408</v>
+      </c>
+      <c r="K41" t="s">
+        <v>409</v>
+      </c>
+      <c r="L41" t="s">
+        <v>410</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
         <v>366</v>
       </c>
-      <c r="G41" t="s">
-        <v>46</v>
-      </c>
-      <c r="H41" t="s">
-        <v>47</v>
-      </c>
-      <c r="I41" t="s">
-        <v>367</v>
-      </c>
-      <c r="J41" t="s">
-        <v>368</v>
-      </c>
-      <c r="K41" t="s">
-        <v>369</v>
-      </c>
-      <c r="L41" t="s">
-        <v>370</v>
-      </c>
-      <c r="M41" t="n">
-        <v>5</v>
-      </c>
-      <c r="N41" t="s">
-        <v>331</v>
-      </c>
       <c r="O41" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="s"/>
@@ -5111,56 +5523,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>371</v>
+        <v>411</v>
       </c>
       <c r="X41" t="s">
-        <v>372</v>
+        <v>412</v>
       </c>
       <c r="Y41" t="s">
-        <v>373</v>
+        <v>413</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>3558</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>1618</v>
+      </c>
+      <c r="C42" t="s">
+        <v>414</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>374</v>
+        <v>415</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>375</v>
+        <v>416</v>
       </c>
       <c r="J42" t="s">
-        <v>376</v>
+        <v>417</v>
       </c>
       <c r="K42" t="s">
-        <v>377</v>
+        <v>418</v>
       </c>
       <c r="L42" t="s">
-        <v>378</v>
+        <v>419</v>
       </c>
       <c r="M42" t="n">
         <v>4</v>
       </c>
       <c r="N42" t="s">
-        <v>331</v>
+        <v>366</v>
       </c>
       <c r="O42" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="s"/>
@@ -5172,56 +5588,60 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>379</v>
+        <v>420</v>
       </c>
       <c r="X42" t="s">
-        <v>380</v>
+        <v>421</v>
       </c>
       <c r="Y42" t="s">
-        <v>381</v>
+        <v>422</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>3558</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>174949</v>
+      </c>
+      <c r="C43" t="s">
+        <v>423</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>382</v>
+        <v>424</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>383</v>
+        <v>425</v>
       </c>
       <c r="J43" t="s">
-        <v>384</v>
+        <v>426</v>
       </c>
       <c r="K43" t="s">
-        <v>385</v>
+        <v>427</v>
       </c>
       <c r="L43" t="s">
-        <v>386</v>
+        <v>428</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>331</v>
+        <v>366</v>
       </c>
       <c r="O43" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="P43" t="s"/>
       <c r="Q43" t="s"/>
@@ -5233,56 +5653,60 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>379</v>
+        <v>420</v>
       </c>
       <c r="X43" t="s">
-        <v>380</v>
+        <v>421</v>
       </c>
       <c r="Y43" t="s">
-        <v>387</v>
+        <v>429</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>3558</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>10713</v>
+      </c>
+      <c r="C44" t="s">
+        <v>430</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>388</v>
+        <v>431</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>389</v>
+        <v>432</v>
       </c>
       <c r="J44" t="s">
-        <v>390</v>
+        <v>433</v>
       </c>
       <c r="K44" t="s">
-        <v>391</v>
+        <v>434</v>
       </c>
       <c r="L44" t="s">
-        <v>392</v>
+        <v>435</v>
       </c>
       <c r="M44" t="n">
         <v>4</v>
       </c>
       <c r="N44" t="s">
-        <v>348</v>
+        <v>385</v>
       </c>
       <c r="O44" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="P44" t="s"/>
       <c r="Q44" t="s"/>
@@ -5294,56 +5718,60 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>393</v>
+        <v>436</v>
       </c>
       <c r="X44" t="s">
-        <v>394</v>
+        <v>437</v>
       </c>
       <c r="Y44" t="s">
-        <v>395</v>
+        <v>438</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>3558</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>23423</v>
+      </c>
+      <c r="C45" t="s">
+        <v>439</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>396</v>
+        <v>440</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>397</v>
+        <v>441</v>
       </c>
       <c r="J45" t="s">
-        <v>398</v>
+        <v>442</v>
       </c>
       <c r="K45" t="s">
-        <v>399</v>
+        <v>443</v>
       </c>
       <c r="L45" t="s">
-        <v>400</v>
+        <v>444</v>
       </c>
       <c r="M45" t="n">
         <v>3</v>
       </c>
       <c r="N45" t="s">
-        <v>348</v>
+        <v>385</v>
       </c>
       <c r="O45" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P45" t="s"/>
       <c r="Q45" t="n">
@@ -5359,56 +5787,60 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>363</v>
+        <v>402</v>
       </c>
       <c r="X45" t="s">
-        <v>364</v>
+        <v>403</v>
       </c>
       <c r="Y45" t="s">
-        <v>401</v>
+        <v>445</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>3558</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>174950</v>
+      </c>
+      <c r="C46" t="s">
+        <v>446</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>402</v>
+        <v>447</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>403</v>
+        <v>448</v>
       </c>
       <c r="J46" t="s">
-        <v>404</v>
+        <v>449</v>
       </c>
       <c r="K46" t="s">
-        <v>405</v>
+        <v>450</v>
       </c>
       <c r="L46" t="s">
-        <v>406</v>
+        <v>451</v>
       </c>
       <c r="M46" t="n">
         <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>348</v>
+        <v>385</v>
       </c>
       <c r="O46" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="P46" t="n">
         <v>5</v>
@@ -5426,56 +5858,60 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>407</v>
+        <v>452</v>
       </c>
       <c r="X46" t="s">
-        <v>408</v>
+        <v>453</v>
       </c>
       <c r="Y46" t="s">
-        <v>409</v>
+        <v>454</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>3558</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>174951</v>
+      </c>
+      <c r="C47" t="s">
+        <v>455</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>410</v>
+        <v>456</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>411</v>
+        <v>457</v>
       </c>
       <c r="J47" t="s">
-        <v>412</v>
+        <v>458</v>
       </c>
       <c r="K47" t="s">
-        <v>413</v>
+        <v>459</v>
       </c>
       <c r="L47" t="s">
-        <v>414</v>
+        <v>460</v>
       </c>
       <c r="M47" t="n">
         <v>3</v>
       </c>
       <c r="N47" t="s">
-        <v>348</v>
+        <v>385</v>
       </c>
       <c r="O47" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P47" t="s"/>
       <c r="Q47" t="n">
@@ -5491,56 +5927,60 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>415</v>
+        <v>461</v>
       </c>
       <c r="X47" t="s">
-        <v>416</v>
+        <v>462</v>
       </c>
       <c r="Y47" t="s">
-        <v>417</v>
+        <v>463</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>3558</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>174952</v>
+      </c>
+      <c r="C48" t="s">
+        <v>464</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>418</v>
+        <v>465</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>419</v>
+        <v>466</v>
       </c>
       <c r="J48" t="s">
-        <v>420</v>
+        <v>467</v>
       </c>
       <c r="K48" t="s">
-        <v>421</v>
+        <v>468</v>
       </c>
       <c r="L48" t="s">
-        <v>422</v>
+        <v>469</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>423</v>
+        <v>470</v>
       </c>
       <c r="O48" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="P48" t="s"/>
       <c r="Q48" t="s"/>
@@ -5552,56 +5992,60 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>424</v>
+        <v>471</v>
       </c>
       <c r="X48" t="s">
-        <v>425</v>
+        <v>472</v>
       </c>
       <c r="Y48" t="s">
-        <v>426</v>
+        <v>473</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>3558</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>364</v>
+      </c>
+      <c r="C49" t="s">
+        <v>474</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>427</v>
+        <v>475</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>428</v>
+        <v>476</v>
       </c>
       <c r="J49" t="s">
-        <v>420</v>
+        <v>467</v>
       </c>
       <c r="K49" t="s">
-        <v>429</v>
+        <v>477</v>
       </c>
       <c r="L49" t="s">
-        <v>430</v>
+        <v>478</v>
       </c>
       <c r="M49" t="n">
         <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>423</v>
+        <v>470</v>
       </c>
       <c r="O49" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="P49" t="s"/>
       <c r="Q49" t="s"/>
@@ -5613,56 +6057,60 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>431</v>
+        <v>479</v>
       </c>
       <c r="X49" t="s">
-        <v>425</v>
+        <v>472</v>
       </c>
       <c r="Y49" t="s">
-        <v>432</v>
+        <v>480</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>3558</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>174953</v>
+      </c>
+      <c r="C50" t="s">
+        <v>481</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>433</v>
+        <v>482</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>434</v>
+        <v>483</v>
       </c>
       <c r="J50" t="s">
-        <v>435</v>
+        <v>484</v>
       </c>
       <c r="K50" t="s">
-        <v>436</v>
+        <v>485</v>
       </c>
       <c r="L50" t="s">
-        <v>437</v>
+        <v>486</v>
       </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
       <c r="N50" t="s">
-        <v>423</v>
+        <v>470</v>
       </c>
       <c r="O50" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="P50" t="s"/>
       <c r="Q50" t="s"/>
@@ -5674,56 +6122,60 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>438</v>
+        <v>487</v>
       </c>
       <c r="X50" t="s">
-        <v>439</v>
+        <v>488</v>
       </c>
       <c r="Y50" t="s">
-        <v>440</v>
+        <v>489</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>3558</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>119689</v>
+      </c>
+      <c r="C51" t="s">
+        <v>490</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>441</v>
+        <v>491</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>442</v>
+        <v>492</v>
       </c>
       <c r="J51" t="s">
-        <v>435</v>
+        <v>484</v>
       </c>
       <c r="K51" t="s">
-        <v>443</v>
+        <v>493</v>
       </c>
       <c r="L51" t="s">
-        <v>444</v>
+        <v>494</v>
       </c>
       <c r="M51" t="n">
         <v>3</v>
       </c>
       <c r="N51" t="s">
-        <v>445</v>
+        <v>495</v>
       </c>
       <c r="O51" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P51" t="s"/>
       <c r="Q51" t="s"/>
@@ -5735,56 +6187,60 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>363</v>
+        <v>402</v>
       </c>
       <c r="X51" t="s">
-        <v>364</v>
+        <v>403</v>
       </c>
       <c r="Y51" t="s">
-        <v>446</v>
+        <v>496</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>3558</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>174954</v>
+      </c>
+      <c r="C52" t="s">
+        <v>497</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>447</v>
+        <v>498</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>448</v>
+        <v>499</v>
       </c>
       <c r="J52" t="s">
-        <v>449</v>
+        <v>500</v>
       </c>
       <c r="K52" t="s">
-        <v>450</v>
+        <v>501</v>
       </c>
       <c r="L52" t="s">
-        <v>451</v>
+        <v>502</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>452</v>
+        <v>503</v>
       </c>
       <c r="O52" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P52" t="s"/>
       <c r="Q52" t="s"/>
@@ -5796,56 +6252,60 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>453</v>
+        <v>504</v>
       </c>
       <c r="X52" t="s">
-        <v>454</v>
+        <v>505</v>
       </c>
       <c r="Y52" t="s">
-        <v>455</v>
+        <v>506</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>3558</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>9399</v>
+      </c>
+      <c r="C53" t="s">
+        <v>507</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>456</v>
+        <v>508</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>457</v>
+        <v>509</v>
       </c>
       <c r="J53" t="s">
-        <v>458</v>
+        <v>510</v>
       </c>
       <c r="K53" t="s">
-        <v>459</v>
+        <v>511</v>
       </c>
       <c r="L53" t="s">
-        <v>460</v>
+        <v>512</v>
       </c>
       <c r="M53" t="n">
         <v>4</v>
       </c>
       <c r="N53" t="s">
-        <v>461</v>
+        <v>513</v>
       </c>
       <c r="O53" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P53" t="s"/>
       <c r="Q53" t="n">
@@ -5863,47 +6323,51 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>462</v>
+        <v>514</v>
       </c>
       <c r="X53" t="s">
-        <v>454</v>
+        <v>505</v>
       </c>
       <c r="Y53" t="s">
-        <v>463</v>
+        <v>515</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>3558</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>12010</v>
+      </c>
+      <c r="C54" t="s">
+        <v>516</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>464</v>
+        <v>517</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>465</v>
+        <v>518</v>
       </c>
       <c r="J54" t="s">
-        <v>466</v>
+        <v>519</v>
       </c>
       <c r="K54" t="s">
-        <v>467</v>
+        <v>520</v>
       </c>
       <c r="L54" t="s">
-        <v>468</v>
+        <v>521</v>
       </c>
       <c r="M54" t="n">
         <v>4</v>
@@ -5920,56 +6384,60 @@
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>462</v>
+        <v>514</v>
       </c>
       <c r="X54" t="s">
-        <v>454</v>
+        <v>505</v>
       </c>
       <c r="Y54" t="s">
-        <v>469</v>
+        <v>522</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>3558</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>174955</v>
+      </c>
+      <c r="C55" t="s">
+        <v>523</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>470</v>
+        <v>524</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>471</v>
+        <v>525</v>
       </c>
       <c r="J55" t="s">
-        <v>472</v>
+        <v>526</v>
       </c>
       <c r="K55" t="s">
-        <v>473</v>
+        <v>527</v>
       </c>
       <c r="L55" t="s">
-        <v>474</v>
+        <v>528</v>
       </c>
       <c r="M55" t="n">
         <v>5</v>
       </c>
       <c r="N55" t="s">
-        <v>461</v>
+        <v>513</v>
       </c>
       <c r="O55" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P55" t="s"/>
       <c r="Q55" t="s"/>
@@ -5981,56 +6449,60 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>462</v>
+        <v>514</v>
       </c>
       <c r="X55" t="s">
-        <v>454</v>
+        <v>505</v>
       </c>
       <c r="Y55" t="s">
-        <v>475</v>
+        <v>529</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>3558</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>2409</v>
+      </c>
+      <c r="C56" t="s">
+        <v>530</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>476</v>
+        <v>531</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>477</v>
+        <v>532</v>
       </c>
       <c r="J56" t="s">
-        <v>478</v>
+        <v>533</v>
       </c>
       <c r="K56" t="s">
-        <v>479</v>
+        <v>534</v>
       </c>
       <c r="L56" t="s">
-        <v>480</v>
+        <v>535</v>
       </c>
       <c r="M56" t="n">
         <v>5</v>
       </c>
       <c r="N56" t="s">
-        <v>481</v>
+        <v>536</v>
       </c>
       <c r="O56" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="P56" t="s"/>
       <c r="Q56" t="s"/>
@@ -6042,56 +6514,60 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>462</v>
+        <v>514</v>
       </c>
       <c r="X56" t="s">
-        <v>454</v>
+        <v>505</v>
       </c>
       <c r="Y56" t="s">
-        <v>482</v>
+        <v>537</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>3558</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>289</v>
+      </c>
+      <c r="C57" t="s">
+        <v>538</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>483</v>
+        <v>539</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>484</v>
+        <v>540</v>
       </c>
       <c r="J57" t="s">
-        <v>485</v>
+        <v>541</v>
       </c>
       <c r="K57" t="s">
-        <v>486</v>
+        <v>542</v>
       </c>
       <c r="L57" t="s">
-        <v>487</v>
+        <v>543</v>
       </c>
       <c r="M57" t="n">
         <v>5</v>
       </c>
       <c r="N57" t="s">
-        <v>481</v>
+        <v>536</v>
       </c>
       <c r="O57" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P57" t="n">
         <v>5</v>
@@ -6109,56 +6585,60 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>462</v>
+        <v>514</v>
       </c>
       <c r="X57" t="s">
-        <v>454</v>
+        <v>505</v>
       </c>
       <c r="Y57" t="s">
-        <v>488</v>
+        <v>544</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>3558</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>174956</v>
+      </c>
+      <c r="C58" t="s">
+        <v>545</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>489</v>
+        <v>546</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>490</v>
+        <v>547</v>
       </c>
       <c r="J58" t="s">
-        <v>491</v>
+        <v>548</v>
       </c>
       <c r="K58" t="s">
-        <v>492</v>
+        <v>549</v>
       </c>
       <c r="L58" t="s">
-        <v>493</v>
+        <v>550</v>
       </c>
       <c r="M58" t="n">
         <v>2</v>
       </c>
       <c r="N58" t="s">
-        <v>494</v>
+        <v>551</v>
       </c>
       <c r="O58" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="P58" t="s"/>
       <c r="Q58" t="s"/>
@@ -6174,56 +6654,60 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>495</v>
+        <v>552</v>
       </c>
       <c r="X58" t="s">
-        <v>454</v>
+        <v>505</v>
       </c>
       <c r="Y58" t="s">
-        <v>496</v>
+        <v>553</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>3558</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>520</v>
+      </c>
+      <c r="C59" t="s">
+        <v>554</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>497</v>
+        <v>555</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>498</v>
+        <v>556</v>
       </c>
       <c r="J59" t="s">
-        <v>499</v>
+        <v>557</v>
       </c>
       <c r="K59" t="s">
-        <v>500</v>
+        <v>558</v>
       </c>
       <c r="L59" t="s">
-        <v>501</v>
+        <v>559</v>
       </c>
       <c r="M59" t="n">
         <v>4</v>
       </c>
       <c r="N59" t="s">
-        <v>502</v>
+        <v>560</v>
       </c>
       <c r="O59" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="P59" t="n">
         <v>5</v>
@@ -6241,56 +6725,60 @@
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>462</v>
+        <v>514</v>
       </c>
       <c r="X59" t="s">
-        <v>454</v>
+        <v>505</v>
       </c>
       <c r="Y59" t="s">
-        <v>503</v>
+        <v>561</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>3558</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>174957</v>
+      </c>
+      <c r="C60" t="s">
+        <v>562</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>504</v>
+        <v>563</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>505</v>
+        <v>564</v>
       </c>
       <c r="J60" t="s">
-        <v>506</v>
+        <v>565</v>
       </c>
       <c r="K60" t="s">
-        <v>507</v>
+        <v>566</v>
       </c>
       <c r="L60" t="s">
-        <v>508</v>
+        <v>567</v>
       </c>
       <c r="M60" t="n">
         <v>4</v>
       </c>
       <c r="N60" t="s">
-        <v>502</v>
+        <v>560</v>
       </c>
       <c r="O60" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="P60" t="s"/>
       <c r="Q60" t="s"/>
@@ -6302,56 +6790,60 @@
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>462</v>
+        <v>514</v>
       </c>
       <c r="X60" t="s">
-        <v>454</v>
+        <v>505</v>
       </c>
       <c r="Y60" t="s">
-        <v>509</v>
+        <v>568</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>3558</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>174958</v>
+      </c>
+      <c r="C61" t="s">
+        <v>569</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>510</v>
+        <v>570</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>511</v>
+        <v>571</v>
       </c>
       <c r="J61" t="s">
-        <v>512</v>
+        <v>572</v>
       </c>
       <c r="K61" t="s">
-        <v>513</v>
+        <v>573</v>
       </c>
       <c r="L61" t="s">
-        <v>514</v>
+        <v>574</v>
       </c>
       <c r="M61" t="n">
         <v>3</v>
       </c>
       <c r="N61" t="s">
-        <v>515</v>
+        <v>575</v>
       </c>
       <c r="O61" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P61" t="s"/>
       <c r="Q61" t="s"/>
@@ -6363,56 +6855,60 @@
         <v>0</v>
       </c>
       <c r="W61" t="s">
-        <v>462</v>
+        <v>514</v>
       </c>
       <c r="X61" t="s">
-        <v>454</v>
+        <v>505</v>
       </c>
       <c r="Y61" t="s">
-        <v>516</v>
+        <v>576</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>3558</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>33656</v>
+      </c>
+      <c r="C62" t="s">
+        <v>577</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>517</v>
+        <v>578</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>518</v>
+        <v>579</v>
       </c>
       <c r="J62" t="s">
-        <v>519</v>
+        <v>580</v>
       </c>
       <c r="K62" t="s">
-        <v>520</v>
+        <v>581</v>
       </c>
       <c r="L62" t="s">
-        <v>521</v>
+        <v>582</v>
       </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
       <c r="N62" t="s">
-        <v>522</v>
+        <v>583</v>
       </c>
       <c r="O62" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P62" t="s"/>
       <c r="Q62" t="s"/>
@@ -6426,47 +6922,51 @@
         <v>0</v>
       </c>
       <c r="W62" t="s">
-        <v>523</v>
+        <v>584</v>
       </c>
       <c r="X62" t="s">
-        <v>524</v>
+        <v>585</v>
       </c>
       <c r="Y62" t="s">
-        <v>525</v>
+        <v>586</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>3558</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>63359</v>
+      </c>
+      <c r="C63" t="s">
+        <v>587</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>526</v>
+        <v>588</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>527</v>
+        <v>589</v>
       </c>
       <c r="J63" t="s">
-        <v>528</v>
+        <v>590</v>
       </c>
       <c r="K63" t="s">
-        <v>529</v>
+        <v>591</v>
       </c>
       <c r="L63" t="s">
-        <v>530</v>
+        <v>592</v>
       </c>
       <c r="M63" t="n">
         <v>2</v>
@@ -6493,56 +6993,60 @@
         <v>0</v>
       </c>
       <c r="W63" t="s">
-        <v>462</v>
+        <v>514</v>
       </c>
       <c r="X63" t="s">
-        <v>454</v>
+        <v>505</v>
       </c>
       <c r="Y63" t="s">
-        <v>531</v>
+        <v>593</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>3558</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>174959</v>
+      </c>
+      <c r="C64" t="s">
+        <v>594</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>532</v>
+        <v>595</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>533</v>
+        <v>596</v>
       </c>
       <c r="J64" t="s">
-        <v>534</v>
+        <v>597</v>
       </c>
       <c r="K64" t="s">
-        <v>535</v>
+        <v>598</v>
       </c>
       <c r="L64" t="s">
-        <v>536</v>
+        <v>599</v>
       </c>
       <c r="M64" t="n">
         <v>5</v>
       </c>
       <c r="N64" t="s">
-        <v>537</v>
+        <v>600</v>
       </c>
       <c r="O64" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P64" t="s"/>
       <c r="Q64" t="s"/>
@@ -6554,56 +7058,60 @@
         <v>0</v>
       </c>
       <c r="W64" t="s">
-        <v>538</v>
+        <v>601</v>
       </c>
       <c r="X64" t="s">
-        <v>539</v>
+        <v>602</v>
       </c>
       <c r="Y64" t="s">
-        <v>540</v>
+        <v>603</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>3558</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>91756</v>
+      </c>
+      <c r="C65" t="s">
+        <v>604</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>541</v>
+        <v>605</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>542</v>
+        <v>606</v>
       </c>
       <c r="J65" t="s">
-        <v>543</v>
+        <v>607</v>
       </c>
       <c r="K65" t="s">
-        <v>544</v>
+        <v>608</v>
       </c>
       <c r="L65" t="s">
-        <v>545</v>
+        <v>609</v>
       </c>
       <c r="M65" t="n">
         <v>5</v>
       </c>
       <c r="N65" t="s">
-        <v>546</v>
+        <v>610</v>
       </c>
       <c r="O65" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P65" t="s"/>
       <c r="Q65" t="s"/>
@@ -6621,56 +7129,60 @@
         <v>0</v>
       </c>
       <c r="W65" t="s">
-        <v>462</v>
+        <v>514</v>
       </c>
       <c r="X65" t="s">
-        <v>454</v>
+        <v>505</v>
       </c>
       <c r="Y65" t="s">
-        <v>547</v>
+        <v>611</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>3558</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>174960</v>
+      </c>
+      <c r="C66" t="s">
+        <v>612</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>548</v>
+        <v>613</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>549</v>
+        <v>614</v>
       </c>
       <c r="J66" t="s">
-        <v>550</v>
+        <v>615</v>
       </c>
       <c r="K66" t="s">
-        <v>551</v>
+        <v>616</v>
       </c>
       <c r="L66" t="s">
-        <v>552</v>
+        <v>617</v>
       </c>
       <c r="M66" t="n">
         <v>4</v>
       </c>
       <c r="N66" t="s">
-        <v>553</v>
+        <v>618</v>
       </c>
       <c r="O66" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P66" t="s"/>
       <c r="Q66" t="s"/>
@@ -6682,47 +7194,51 @@
         <v>0</v>
       </c>
       <c r="W66" t="s">
-        <v>462</v>
+        <v>514</v>
       </c>
       <c r="X66" t="s">
-        <v>454</v>
+        <v>505</v>
       </c>
       <c r="Y66" t="s">
-        <v>554</v>
+        <v>619</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>3558</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>174961</v>
+      </c>
+      <c r="C67" t="s">
+        <v>620</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>555</v>
+        <v>621</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>556</v>
+        <v>622</v>
       </c>
       <c r="J67" t="s">
-        <v>557</v>
+        <v>623</v>
       </c>
       <c r="K67" t="s">
-        <v>558</v>
+        <v>624</v>
       </c>
       <c r="L67" t="s">
-        <v>559</v>
+        <v>625</v>
       </c>
       <c r="M67" t="n">
         <v>5</v>
@@ -6749,56 +7265,60 @@
         <v>0</v>
       </c>
       <c r="W67" t="s">
-        <v>462</v>
+        <v>514</v>
       </c>
       <c r="X67" t="s">
-        <v>454</v>
+        <v>505</v>
       </c>
       <c r="Y67" t="s">
-        <v>560</v>
+        <v>626</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>3558</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>174962</v>
+      </c>
+      <c r="C68" t="s">
+        <v>627</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>561</v>
+        <v>628</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>562</v>
+        <v>629</v>
       </c>
       <c r="J68" t="s">
-        <v>563</v>
+        <v>630</v>
       </c>
       <c r="K68" t="s">
-        <v>564</v>
+        <v>631</v>
       </c>
       <c r="L68" t="s">
-        <v>565</v>
+        <v>632</v>
       </c>
       <c r="M68" t="n">
         <v>5</v>
       </c>
       <c r="N68" t="s">
-        <v>566</v>
+        <v>633</v>
       </c>
       <c r="O68" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="P68" t="n">
         <v>4</v>
@@ -6820,56 +7340,60 @@
         <v>0</v>
       </c>
       <c r="W68" t="s">
-        <v>462</v>
+        <v>514</v>
       </c>
       <c r="X68" t="s">
-        <v>454</v>
+        <v>505</v>
       </c>
       <c r="Y68" t="s">
-        <v>567</v>
+        <v>634</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>3558</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>174963</v>
+      </c>
+      <c r="C69" t="s">
+        <v>635</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>568</v>
+        <v>636</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>569</v>
+        <v>637</v>
       </c>
       <c r="J69" t="s">
-        <v>570</v>
+        <v>638</v>
       </c>
       <c r="K69" t="s">
-        <v>571</v>
+        <v>639</v>
       </c>
       <c r="L69" t="s">
-        <v>572</v>
+        <v>640</v>
       </c>
       <c r="M69" t="n">
         <v>3</v>
       </c>
       <c r="N69" t="s">
-        <v>573</v>
+        <v>641</v>
       </c>
       <c r="O69" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P69" t="n">
         <v>2</v>
@@ -6891,56 +7415,60 @@
         <v>0</v>
       </c>
       <c r="W69" t="s">
-        <v>462</v>
+        <v>514</v>
       </c>
       <c r="X69" t="s">
-        <v>454</v>
+        <v>505</v>
       </c>
       <c r="Y69" t="s">
-        <v>574</v>
+        <v>642</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>3558</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>174964</v>
+      </c>
+      <c r="C70" t="s">
+        <v>643</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>575</v>
+        <v>644</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>576</v>
+        <v>645</v>
       </c>
       <c r="J70" t="s">
-        <v>577</v>
+        <v>646</v>
       </c>
       <c r="K70" t="s">
-        <v>578</v>
+        <v>647</v>
       </c>
       <c r="L70" t="s">
-        <v>579</v>
+        <v>648</v>
       </c>
       <c r="M70" t="n">
         <v>3</v>
       </c>
       <c r="N70" t="s">
-        <v>580</v>
+        <v>649</v>
       </c>
       <c r="O70" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P70" t="n">
         <v>3</v>
@@ -6962,56 +7490,60 @@
         <v>0</v>
       </c>
       <c r="W70" t="s">
-        <v>462</v>
+        <v>514</v>
       </c>
       <c r="X70" t="s">
-        <v>454</v>
+        <v>505</v>
       </c>
       <c r="Y70" t="s">
-        <v>581</v>
+        <v>650</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>3558</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>174965</v>
+      </c>
+      <c r="C71" t="s">
+        <v>651</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>582</v>
+        <v>652</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>583</v>
+        <v>653</v>
       </c>
       <c r="J71" t="s">
-        <v>584</v>
+        <v>654</v>
       </c>
       <c r="K71" t="s">
-        <v>585</v>
+        <v>655</v>
       </c>
       <c r="L71" t="s">
-        <v>586</v>
+        <v>656</v>
       </c>
       <c r="M71" t="n">
         <v>5</v>
       </c>
       <c r="N71" t="s">
-        <v>587</v>
+        <v>657</v>
       </c>
       <c r="O71" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P71" t="n">
         <v>5</v>
@@ -7033,41 +7565,45 @@
         <v>0</v>
       </c>
       <c r="W71" t="s">
-        <v>462</v>
+        <v>514</v>
       </c>
       <c r="X71" t="s">
-        <v>454</v>
+        <v>505</v>
       </c>
       <c r="Y71" t="s">
-        <v>588</v>
+        <v>658</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>3558</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>6371</v>
+      </c>
+      <c r="C72" t="s">
+        <v>659</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>589</v>
+        <v>660</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>590</v>
+        <v>661</v>
       </c>
       <c r="J72" t="s">
-        <v>591</v>
+        <v>662</v>
       </c>
       <c r="K72" t="s"/>
       <c r="L72" t="s"/>
@@ -7083,36 +7619,37 @@
       <c r="V72" t="n">
         <v>0</v>
       </c>
-      <c r="W72" t="s"/>
-      <c r="X72" t="s"/>
-      <c r="Y72" t="s"/>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>3558</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>174966</v>
+      </c>
+      <c r="C73" t="s">
+        <v>663</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>592</v>
+        <v>664</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>593</v>
+        <v>665</v>
       </c>
       <c r="J73" t="s">
-        <v>594</v>
+        <v>666</v>
       </c>
       <c r="K73" t="s"/>
       <c r="L73" t="s"/>
@@ -7128,36 +7665,37 @@
       <c r="V73" t="n">
         <v>0</v>
       </c>
-      <c r="W73" t="s"/>
-      <c r="X73" t="s"/>
-      <c r="Y73" t="s"/>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>3558</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>174967</v>
+      </c>
+      <c r="C74" t="s">
+        <v>667</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>595</v>
+        <v>668</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>596</v>
+        <v>669</v>
       </c>
       <c r="J74" t="s">
-        <v>597</v>
+        <v>670</v>
       </c>
       <c r="K74" t="s"/>
       <c r="L74" t="s"/>
@@ -7173,51 +7711,52 @@
       <c r="V74" t="n">
         <v>0</v>
       </c>
-      <c r="W74" t="s"/>
-      <c r="X74" t="s"/>
-      <c r="Y74" t="s"/>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>3558</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>174968</v>
+      </c>
+      <c r="C75" t="s">
+        <v>671</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>598</v>
+        <v>672</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>599</v>
+        <v>673</v>
       </c>
       <c r="J75" t="s">
-        <v>600</v>
+        <v>674</v>
       </c>
       <c r="K75" t="s">
-        <v>601</v>
+        <v>675</v>
       </c>
       <c r="L75" t="s">
-        <v>602</v>
+        <v>676</v>
       </c>
       <c r="M75" t="n">
         <v>2</v>
       </c>
       <c r="N75" t="s">
-        <v>603</v>
+        <v>677</v>
       </c>
       <c r="O75" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="P75" t="n">
         <v>3</v>
@@ -7239,56 +7778,60 @@
         <v>0</v>
       </c>
       <c r="W75" t="s">
-        <v>462</v>
+        <v>514</v>
       </c>
       <c r="X75" t="s">
-        <v>454</v>
+        <v>505</v>
       </c>
       <c r="Y75" t="s">
-        <v>604</v>
+        <v>678</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>3558</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>174969</v>
+      </c>
+      <c r="C76" t="s">
+        <v>679</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>605</v>
+        <v>680</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>606</v>
+        <v>681</v>
       </c>
       <c r="J76" t="s">
-        <v>607</v>
+        <v>682</v>
       </c>
       <c r="K76" t="s">
-        <v>608</v>
+        <v>683</v>
       </c>
       <c r="L76" t="s">
-        <v>609</v>
+        <v>684</v>
       </c>
       <c r="M76" t="n">
         <v>2</v>
       </c>
       <c r="N76" t="s">
-        <v>603</v>
+        <v>677</v>
       </c>
       <c r="O76" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P76" t="n">
         <v>3</v>
@@ -7310,47 +7853,51 @@
         <v>0</v>
       </c>
       <c r="W76" t="s">
-        <v>462</v>
+        <v>514</v>
       </c>
       <c r="X76" t="s">
-        <v>454</v>
+        <v>505</v>
       </c>
       <c r="Y76" t="s">
-        <v>610</v>
+        <v>685</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>3558</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>174970</v>
+      </c>
+      <c r="C77" t="s">
+        <v>686</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>611</v>
+        <v>687</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>612</v>
+        <v>688</v>
       </c>
       <c r="J77" t="s">
-        <v>613</v>
+        <v>689</v>
       </c>
       <c r="K77" t="s">
-        <v>614</v>
+        <v>690</v>
       </c>
       <c r="L77" t="s">
-        <v>615</v>
+        <v>691</v>
       </c>
       <c r="M77" t="n">
         <v>5</v>
@@ -7377,56 +7924,60 @@
         <v>0</v>
       </c>
       <c r="W77" t="s">
-        <v>495</v>
+        <v>552</v>
       </c>
       <c r="X77" t="s">
-        <v>454</v>
+        <v>505</v>
       </c>
       <c r="Y77" t="s">
-        <v>616</v>
+        <v>692</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>3558</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>174971</v>
+      </c>
+      <c r="C78" t="s">
+        <v>693</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>617</v>
+        <v>694</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>618</v>
+        <v>695</v>
       </c>
       <c r="J78" t="s">
-        <v>619</v>
+        <v>696</v>
       </c>
       <c r="K78" t="s">
-        <v>620</v>
+        <v>697</v>
       </c>
       <c r="L78" t="s">
-        <v>621</v>
+        <v>698</v>
       </c>
       <c r="M78" t="n">
         <v>2</v>
       </c>
       <c r="N78" t="s">
-        <v>622</v>
+        <v>699</v>
       </c>
       <c r="O78" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="P78" t="n">
         <v>3</v>
@@ -7448,56 +7999,60 @@
         <v>0</v>
       </c>
       <c r="W78" t="s">
-        <v>462</v>
+        <v>514</v>
       </c>
       <c r="X78" t="s">
-        <v>454</v>
+        <v>505</v>
       </c>
       <c r="Y78" t="s">
-        <v>623</v>
+        <v>700</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>3558</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>174972</v>
+      </c>
+      <c r="C79" t="s">
+        <v>701</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>624</v>
+        <v>702</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>625</v>
+        <v>703</v>
       </c>
       <c r="J79" t="s">
-        <v>626</v>
+        <v>704</v>
       </c>
       <c r="K79" t="s">
-        <v>627</v>
+        <v>705</v>
       </c>
       <c r="L79" t="s">
-        <v>628</v>
+        <v>706</v>
       </c>
       <c r="M79" t="n">
         <v>5</v>
       </c>
       <c r="N79" t="s">
-        <v>629</v>
+        <v>707</v>
       </c>
       <c r="O79" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="P79" t="n">
         <v>5</v>
@@ -7519,56 +8074,60 @@
         <v>0</v>
       </c>
       <c r="W79" t="s">
-        <v>462</v>
+        <v>514</v>
       </c>
       <c r="X79" t="s">
-        <v>454</v>
+        <v>505</v>
       </c>
       <c r="Y79" t="s">
-        <v>630</v>
+        <v>708</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>3558</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>174973</v>
+      </c>
+      <c r="C80" t="s">
+        <v>709</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>631</v>
+        <v>710</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I80" t="s">
-        <v>632</v>
+        <v>711</v>
       </c>
       <c r="J80" t="s">
-        <v>633</v>
+        <v>712</v>
       </c>
       <c r="K80" t="s">
-        <v>634</v>
+        <v>713</v>
       </c>
       <c r="L80" t="s">
-        <v>635</v>
+        <v>714</v>
       </c>
       <c r="M80" t="n">
         <v>5</v>
       </c>
       <c r="N80" t="s">
-        <v>636</v>
+        <v>715</v>
       </c>
       <c r="O80" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="P80" t="n">
         <v>5</v>
@@ -7590,56 +8149,60 @@
         <v>0</v>
       </c>
       <c r="W80" t="s">
-        <v>462</v>
+        <v>514</v>
       </c>
       <c r="X80" t="s">
-        <v>454</v>
+        <v>505</v>
       </c>
       <c r="Y80" t="s">
-        <v>637</v>
+        <v>716</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>3558</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>174974</v>
+      </c>
+      <c r="C81" t="s">
+        <v>717</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>638</v>
+        <v>718</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I81" t="s">
-        <v>639</v>
+        <v>719</v>
       </c>
       <c r="J81" t="s">
-        <v>640</v>
+        <v>720</v>
       </c>
       <c r="K81" t="s">
-        <v>641</v>
+        <v>721</v>
       </c>
       <c r="L81" t="s">
-        <v>642</v>
+        <v>722</v>
       </c>
       <c r="M81" t="n">
         <v>4</v>
       </c>
       <c r="N81" t="s">
-        <v>643</v>
+        <v>723</v>
       </c>
       <c r="O81" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P81" t="n">
         <v>4</v>
@@ -7661,56 +8224,60 @@
         <v>0</v>
       </c>
       <c r="W81" t="s">
-        <v>462</v>
+        <v>514</v>
       </c>
       <c r="X81" t="s">
-        <v>454</v>
+        <v>505</v>
       </c>
       <c r="Y81" t="s">
-        <v>644</v>
+        <v>724</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>3558</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>172225</v>
+      </c>
+      <c r="C82" t="s">
+        <v>725</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>645</v>
+        <v>726</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I82" t="s">
-        <v>646</v>
+        <v>727</v>
       </c>
       <c r="J82" t="s">
-        <v>647</v>
+        <v>728</v>
       </c>
       <c r="K82" t="s">
-        <v>648</v>
+        <v>729</v>
       </c>
       <c r="L82" t="s">
-        <v>649</v>
+        <v>730</v>
       </c>
       <c r="M82" t="n">
         <v>2</v>
       </c>
       <c r="N82" t="s">
-        <v>650</v>
+        <v>731</v>
       </c>
       <c r="O82" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="P82" t="n">
         <v>2</v>
@@ -7732,56 +8299,60 @@
         <v>0</v>
       </c>
       <c r="W82" t="s">
-        <v>462</v>
+        <v>514</v>
       </c>
       <c r="X82" t="s">
-        <v>454</v>
+        <v>505</v>
       </c>
       <c r="Y82" t="s">
-        <v>651</v>
+        <v>732</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>3558</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>174975</v>
+      </c>
+      <c r="C83" t="s">
+        <v>733</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F83" t="s">
-        <v>652</v>
+        <v>734</v>
       </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I83" t="s">
-        <v>653</v>
+        <v>735</v>
       </c>
       <c r="J83" t="s">
-        <v>654</v>
+        <v>736</v>
       </c>
       <c r="K83" t="s">
-        <v>655</v>
+        <v>737</v>
       </c>
       <c r="L83" t="s">
-        <v>656</v>
+        <v>738</v>
       </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
       <c r="N83" t="s">
-        <v>657</v>
+        <v>739</v>
       </c>
       <c r="O83" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="P83" t="n">
         <v>1</v>
@@ -7803,56 +8374,60 @@
         <v>0</v>
       </c>
       <c r="W83" t="s">
-        <v>462</v>
+        <v>514</v>
       </c>
       <c r="X83" t="s">
-        <v>454</v>
+        <v>505</v>
       </c>
       <c r="Y83" t="s">
-        <v>658</v>
+        <v>740</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>3558</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>174976</v>
+      </c>
+      <c r="C84" t="s">
+        <v>741</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F84" t="s">
-        <v>659</v>
+        <v>742</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I84" t="s">
-        <v>660</v>
+        <v>743</v>
       </c>
       <c r="J84" t="s">
-        <v>661</v>
+        <v>744</v>
       </c>
       <c r="K84" t="s">
-        <v>662</v>
+        <v>745</v>
       </c>
       <c r="L84" t="s">
-        <v>663</v>
+        <v>746</v>
       </c>
       <c r="M84" t="n">
         <v>2</v>
       </c>
       <c r="N84" t="s">
-        <v>657</v>
+        <v>739</v>
       </c>
       <c r="O84" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="P84" t="n">
         <v>3</v>
@@ -7874,56 +8449,60 @@
         <v>0</v>
       </c>
       <c r="W84" t="s">
-        <v>462</v>
+        <v>514</v>
       </c>
       <c r="X84" t="s">
-        <v>454</v>
+        <v>505</v>
       </c>
       <c r="Y84" t="s">
-        <v>664</v>
+        <v>747</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>3558</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>174977</v>
+      </c>
+      <c r="C85" t="s">
+        <v>748</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F85" t="s">
-        <v>665</v>
+        <v>749</v>
       </c>
       <c r="G85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I85" t="s">
-        <v>666</v>
+        <v>750</v>
       </c>
       <c r="J85" t="s">
-        <v>667</v>
+        <v>751</v>
       </c>
       <c r="K85" t="s">
-        <v>668</v>
+        <v>752</v>
       </c>
       <c r="L85" t="s">
-        <v>669</v>
+        <v>753</v>
       </c>
       <c r="M85" t="n">
         <v>5</v>
       </c>
       <c r="N85" t="s">
-        <v>670</v>
+        <v>754</v>
       </c>
       <c r="O85" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="P85" t="n">
         <v>5</v>
@@ -7945,13 +8524,13 @@
         <v>0</v>
       </c>
       <c r="W85" t="s">
-        <v>462</v>
+        <v>514</v>
       </c>
       <c r="X85" t="s">
-        <v>454</v>
+        <v>505</v>
       </c>
       <c r="Y85" t="s">
-        <v>671</v>
+        <v>755</v>
       </c>
     </row>
   </sheetData>
